--- a/baza_ekon.xlsx
+++ b/baza_ekon.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>avg_salary</t>
   </si>
@@ -97,9 +97,6 @@
   </si>
   <si>
     <t>men_working</t>
-  </si>
-  <si>
-    <t>family_benefits</t>
   </si>
   <si>
     <t>houses_area_pc</t>
@@ -2639,10 +2636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB381"/>
+  <dimension ref="A1:AA381"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Z4" sqref="Z4"/>
+      <selection activeCell="Z1" sqref="Z1:Z1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2654,7 +2651,7 @@
     <col min="13" max="13" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -2701,10 +2698,10 @@
         <v>10</v>
       </c>
       <c r="P1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1" t="s">
         <v>26</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>27</v>
       </c>
       <c r="R1" t="s">
         <v>11</v>
@@ -2731,16 +2728,13 @@
         <v>22</v>
       </c>
       <c r="Z1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AA1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>8.3000000000000007</v>
       </c>
@@ -2817,16 +2811,13 @@
         <v>30.7</v>
       </c>
       <c r="Z2">
-        <v>24435</v>
+        <v>47.62</v>
       </c>
       <c r="AA2">
-        <v>47.62</v>
-      </c>
-      <c r="AB2">
         <v>392</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>6.91</v>
       </c>
@@ -2903,16 +2894,13 @@
         <v>27</v>
       </c>
       <c r="Z3">
-        <v>26316</v>
+        <v>78.75</v>
       </c>
       <c r="AA3">
-        <v>78.75</v>
-      </c>
-      <c r="AB3">
         <v>366</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>7.98</v>
       </c>
@@ -2989,16 +2977,13 @@
         <v>35.4</v>
       </c>
       <c r="Z4">
-        <v>21736</v>
+        <v>74.760000000000005</v>
       </c>
       <c r="AA4">
-        <v>74.760000000000005</v>
-      </c>
-      <c r="AB4">
         <v>360</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>7.35</v>
       </c>
@@ -3075,16 +3060,13 @@
         <v>11.6</v>
       </c>
       <c r="Z5">
-        <v>15924</v>
+        <v>41.16</v>
       </c>
       <c r="AA5">
-        <v>41.16</v>
-      </c>
-      <c r="AB5">
         <v>166</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>8.1300000000000008</v>
       </c>
@@ -3161,16 +3143,13 @@
         <v>26.1</v>
       </c>
       <c r="Z6">
-        <v>12395</v>
+        <v>55.04</v>
       </c>
       <c r="AA6">
-        <v>55.04</v>
-      </c>
-      <c r="AB6">
         <v>217</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6.94</v>
       </c>
@@ -3247,16 +3226,13 @@
         <v>32.4</v>
       </c>
       <c r="Z7">
-        <v>18933</v>
+        <v>44.01</v>
       </c>
       <c r="AA7">
-        <v>44.01</v>
-      </c>
-      <c r="AB7">
         <v>362</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6.83</v>
       </c>
@@ -3333,16 +3309,13 @@
         <v>26.9</v>
       </c>
       <c r="Z8">
-        <v>12935</v>
+        <v>57.27</v>
       </c>
       <c r="AA8">
-        <v>57.27</v>
-      </c>
-      <c r="AB8">
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>6.69</v>
       </c>
@@ -3419,16 +3392,13 @@
         <v>43.1</v>
       </c>
       <c r="Z9">
-        <v>40045</v>
+        <v>63.61</v>
       </c>
       <c r="AA9">
-        <v>63.61</v>
-      </c>
-      <c r="AB9">
         <v>534</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8.66</v>
       </c>
@@ -3505,16 +3475,13 @@
         <v>11.3</v>
       </c>
       <c r="Z10">
-        <v>14525</v>
+        <v>30.47</v>
       </c>
       <c r="AA10">
-        <v>30.47</v>
-      </c>
-      <c r="AB10">
         <v>307</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>6.79</v>
       </c>
@@ -3591,16 +3558,13 @@
         <v>24.9</v>
       </c>
       <c r="Z11">
-        <v>16108</v>
+        <v>62.08</v>
       </c>
       <c r="AA11">
-        <v>62.08</v>
-      </c>
-      <c r="AB11">
         <v>184</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>8.69</v>
       </c>
@@ -3677,16 +3641,13 @@
         <v>71.400000000000006</v>
       </c>
       <c r="Z12">
-        <v>24165</v>
+        <v>72.94</v>
       </c>
       <c r="AA12">
-        <v>72.94</v>
-      </c>
-      <c r="AB12">
         <v>337</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>7.65</v>
       </c>
@@ -3763,16 +3724,13 @@
         <v>16.2</v>
       </c>
       <c r="Z13">
-        <v>14433</v>
+        <v>49.91</v>
       </c>
       <c r="AA13">
-        <v>49.91</v>
-      </c>
-      <c r="AB13">
         <v>180</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>8.6999999999999993</v>
       </c>
@@ -3849,16 +3807,13 @@
         <v>42.9</v>
       </c>
       <c r="Z14">
-        <v>14253</v>
+        <v>30.43</v>
       </c>
       <c r="AA14">
-        <v>30.43</v>
-      </c>
-      <c r="AB14">
         <v>176</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>9.59</v>
       </c>
@@ -3935,16 +3890,13 @@
         <v>30.2</v>
       </c>
       <c r="Z15">
-        <v>28944</v>
+        <v>56.93</v>
       </c>
       <c r="AA15">
-        <v>56.93</v>
-      </c>
-      <c r="AB15">
         <v>464</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>9.67</v>
       </c>
@@ -4021,16 +3973,13 @@
         <v>31</v>
       </c>
       <c r="Z16">
-        <v>18314</v>
+        <v>63.51</v>
       </c>
       <c r="AA16">
-        <v>63.51</v>
-      </c>
-      <c r="AB16">
         <v>319</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>9.1199999999999992</v>
       </c>
@@ -4107,16 +4056,13 @@
         <v>15.7</v>
       </c>
       <c r="Z17">
-        <v>15896</v>
+        <v>57.6</v>
       </c>
       <c r="AA17">
-        <v>57.6</v>
-      </c>
-      <c r="AB17">
         <v>245</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>8.68</v>
       </c>
@@ -4193,16 +4139,13 @@
         <v>37.9</v>
       </c>
       <c r="Z18">
-        <v>12723</v>
+        <v>33.74</v>
       </c>
       <c r="AA18">
-        <v>33.74</v>
-      </c>
-      <c r="AB18">
         <v>428</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>8.8699999999999992</v>
       </c>
@@ -4279,16 +4222,13 @@
         <v>9</v>
       </c>
       <c r="Z19">
-        <v>13857</v>
+        <v>17.23</v>
       </c>
       <c r="AA19">
-        <v>17.23</v>
-      </c>
-      <c r="AB19">
         <v>335</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>7.52</v>
       </c>
@@ -4365,16 +4305,13 @@
         <v>35.6</v>
       </c>
       <c r="Z20">
-        <v>37088</v>
+        <v>68.260000000000005</v>
       </c>
       <c r="AA20">
-        <v>68.260000000000005</v>
-      </c>
-      <c r="AB20">
         <v>583</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>9.17</v>
       </c>
@@ -4451,16 +4388,13 @@
         <v>41.3</v>
       </c>
       <c r="Z21">
-        <v>24751</v>
+        <v>36.44</v>
       </c>
       <c r="AA21">
-        <v>36.44</v>
-      </c>
-      <c r="AB21">
         <v>401</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>7</v>
       </c>
@@ -4537,16 +4471,13 @@
         <v>25.2</v>
       </c>
       <c r="Z22">
-        <v>17974</v>
+        <v>64.760000000000005</v>
       </c>
       <c r="AA22">
-        <v>64.760000000000005</v>
-      </c>
-      <c r="AB22">
         <v>261</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>8.3699999999999992</v>
       </c>
@@ -4623,16 +4554,13 @@
         <v>44.6</v>
       </c>
       <c r="Z23">
-        <v>11532</v>
+        <v>53.15</v>
       </c>
       <c r="AA23">
-        <v>53.15</v>
-      </c>
-      <c r="AB23">
         <v>161</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>13.18</v>
       </c>
@@ -4709,16 +4637,13 @@
         <v>26</v>
       </c>
       <c r="Z24">
-        <v>23304</v>
+        <v>14.61</v>
       </c>
       <c r="AA24">
-        <v>14.61</v>
-      </c>
-      <c r="AB24">
         <v>823</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>6.3</v>
       </c>
@@ -4795,16 +4720,13 @@
         <v>20.9</v>
       </c>
       <c r="Z25">
-        <v>19656</v>
+        <v>44.4</v>
       </c>
       <c r="AA25">
-        <v>44.4</v>
-      </c>
-      <c r="AB25">
         <v>257</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>6.52</v>
       </c>
@@ -4881,16 +4803,13 @@
         <v>26.4</v>
       </c>
       <c r="Z26">
-        <v>17489</v>
+        <v>67.37</v>
       </c>
       <c r="AA26">
-        <v>67.37</v>
-      </c>
-      <c r="AB26">
         <v>257</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>6.77</v>
       </c>
@@ -4967,16 +4886,13 @@
         <v>28.3</v>
       </c>
       <c r="Z27">
-        <v>12122</v>
+        <v>48.98</v>
       </c>
       <c r="AA27">
-        <v>48.98</v>
-      </c>
-      <c r="AB27">
         <v>216</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>7.02</v>
       </c>
@@ -5053,16 +4969,13 @@
         <v>79</v>
       </c>
       <c r="Z28">
-        <v>21686</v>
+        <v>100</v>
       </c>
       <c r="AA28">
-        <v>100</v>
-      </c>
-      <c r="AB28">
         <v>239</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>8.3800000000000008</v>
       </c>
@@ -5139,16 +5052,13 @@
         <v>51.9</v>
       </c>
       <c r="Z29">
-        <v>24760</v>
+        <v>100</v>
       </c>
       <c r="AA29">
-        <v>100</v>
-      </c>
-      <c r="AB29">
         <v>228</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>11.27</v>
       </c>
@@ -5225,16 +5135,13 @@
         <v>136.9</v>
       </c>
       <c r="Z30">
-        <v>79886</v>
+        <v>100</v>
       </c>
       <c r="AA30">
-        <v>100</v>
-      </c>
-      <c r="AB30">
         <v>1586</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>7.05</v>
       </c>
@@ -5311,16 +5218,13 @@
         <v>52.7</v>
       </c>
       <c r="Z31">
-        <v>32166</v>
+        <v>100</v>
       </c>
       <c r="AA31">
-        <v>100</v>
-      </c>
-      <c r="AB31">
         <v>299</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>8.34</v>
       </c>
@@ -5397,16 +5301,13 @@
         <v>52.1</v>
       </c>
       <c r="Z32">
-        <v>19188</v>
+        <v>44.5</v>
       </c>
       <c r="AA32">
-        <v>44.5</v>
-      </c>
-      <c r="AB32">
         <v>195</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>10.62</v>
       </c>
@@ -5483,16 +5384,13 @@
         <v>26.1</v>
       </c>
       <c r="Z33">
-        <v>30066</v>
+        <v>42.82</v>
       </c>
       <c r="AA33">
-        <v>42.82</v>
-      </c>
-      <c r="AB33">
         <v>618</v>
       </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>9.23</v>
       </c>
@@ -5569,16 +5467,13 @@
         <v>24</v>
       </c>
       <c r="Z34">
-        <v>33979</v>
+        <v>22.16</v>
       </c>
       <c r="AA34">
-        <v>22.16</v>
-      </c>
-      <c r="AB34">
         <v>558</v>
       </c>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>8.5500000000000007</v>
       </c>
@@ -5655,16 +5550,13 @@
         <v>20.9</v>
       </c>
       <c r="Z35">
-        <v>18706</v>
+        <v>37.18</v>
       </c>
       <c r="AA35">
-        <v>37.18</v>
-      </c>
-      <c r="AB35">
         <v>232</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>9.61</v>
       </c>
@@ -5741,16 +5633,13 @@
         <v>26.8</v>
       </c>
       <c r="Z36">
-        <v>18930</v>
+        <v>36.82</v>
       </c>
       <c r="AA36">
-        <v>36.82</v>
-      </c>
-      <c r="AB36">
         <v>267</v>
       </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>8.81</v>
       </c>
@@ -5827,16 +5716,13 @@
         <v>15.9</v>
       </c>
       <c r="Z37">
-        <v>14408</v>
+        <v>12.27</v>
       </c>
       <c r="AA37">
-        <v>12.27</v>
-      </c>
-      <c r="AB37">
         <v>430</v>
       </c>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>8.15</v>
       </c>
@@ -5913,16 +5799,13 @@
         <v>34.9</v>
       </c>
       <c r="Z38">
-        <v>52436</v>
+        <v>64.17</v>
       </c>
       <c r="AA38">
-        <v>64.17</v>
-      </c>
-      <c r="AB38">
         <v>1131</v>
       </c>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>9.01</v>
       </c>
@@ -5999,16 +5882,13 @@
         <v>22.2</v>
       </c>
       <c r="Z39">
-        <v>33261</v>
+        <v>30.4</v>
       </c>
       <c r="AA39">
-        <v>30.4</v>
-      </c>
-      <c r="AB39">
         <v>436</v>
       </c>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>9.4700000000000006</v>
       </c>
@@ -6085,16 +5965,13 @@
         <v>22.2</v>
       </c>
       <c r="Z40">
-        <v>15991</v>
+        <v>37.909999999999997</v>
       </c>
       <c r="AA40">
-        <v>37.909999999999997</v>
-      </c>
-      <c r="AB40">
         <v>278</v>
       </c>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>9.15</v>
       </c>
@@ -6171,16 +6048,13 @@
         <v>28</v>
       </c>
       <c r="Z41">
-        <v>36587</v>
+        <v>42.29</v>
       </c>
       <c r="AA41">
-        <v>42.29</v>
-      </c>
-      <c r="AB41">
         <v>461</v>
       </c>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>8.6999999999999993</v>
       </c>
@@ -6257,16 +6131,13 @@
         <v>38</v>
       </c>
       <c r="Z42">
-        <v>19663</v>
+        <v>24.71</v>
       </c>
       <c r="AA42">
-        <v>24.71</v>
-      </c>
-      <c r="AB42">
         <v>230</v>
       </c>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>8.7799999999999994</v>
       </c>
@@ -6343,16 +6214,13 @@
         <v>25.1</v>
       </c>
       <c r="Z43">
-        <v>17419</v>
+        <v>36.869999999999997</v>
       </c>
       <c r="AA43">
-        <v>36.869999999999997</v>
-      </c>
-      <c r="AB43">
         <v>301</v>
       </c>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>8.06</v>
       </c>
@@ -6429,16 +6297,13 @@
         <v>34.5</v>
       </c>
       <c r="Z44">
-        <v>16437</v>
+        <v>42.23</v>
       </c>
       <c r="AA44">
-        <v>42.23</v>
-      </c>
-      <c r="AB44">
         <v>220</v>
       </c>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>9.24</v>
       </c>
@@ -6515,16 +6380,13 @@
         <v>28.3</v>
       </c>
       <c r="Z45">
-        <v>44738</v>
+        <v>31.62</v>
       </c>
       <c r="AA45">
-        <v>31.62</v>
-      </c>
-      <c r="AB45">
         <v>421</v>
       </c>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>9.4</v>
       </c>
@@ -6601,16 +6463,13 @@
         <v>13.5</v>
       </c>
       <c r="Z46">
-        <v>34046</v>
+        <v>13.11</v>
       </c>
       <c r="AA46">
-        <v>13.11</v>
-      </c>
-      <c r="AB46">
         <v>603</v>
       </c>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>9.7899999999999991</v>
       </c>
@@ -6687,16 +6546,13 @@
         <v>28.1</v>
       </c>
       <c r="Z47">
-        <v>22868</v>
+        <v>28.01</v>
       </c>
       <c r="AA47">
-        <v>28.01</v>
-      </c>
-      <c r="AB47">
         <v>295</v>
       </c>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>7.97</v>
       </c>
@@ -6773,16 +6629,13 @@
         <v>31.1</v>
       </c>
       <c r="Z48">
-        <v>13000</v>
+        <v>39.369999999999997</v>
       </c>
       <c r="AA48">
-        <v>39.369999999999997</v>
-      </c>
-      <c r="AB48">
         <v>329</v>
       </c>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>7.98</v>
       </c>
@@ -6859,16 +6712,13 @@
         <v>14.2</v>
       </c>
       <c r="Z49">
-        <v>29884</v>
+        <v>19.559999999999999</v>
       </c>
       <c r="AA49">
-        <v>19.559999999999999</v>
-      </c>
-      <c r="AB49">
         <v>742</v>
       </c>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>8.75</v>
       </c>
@@ -6945,16 +6795,13 @@
         <v>33.799999999999997</v>
       </c>
       <c r="Z50">
-        <v>25513</v>
+        <v>41.97</v>
       </c>
       <c r="AA50">
-        <v>41.97</v>
-      </c>
-      <c r="AB50">
         <v>432</v>
       </c>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>8.14</v>
       </c>
@@ -7031,16 +6878,13 @@
         <v>136.4</v>
       </c>
       <c r="Z51">
-        <v>81176</v>
+        <v>100</v>
       </c>
       <c r="AA51">
-        <v>100</v>
-      </c>
-      <c r="AB51">
         <v>936</v>
       </c>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>7.56</v>
       </c>
@@ -7117,16 +6961,13 @@
         <v>71.2</v>
       </c>
       <c r="Z52">
-        <v>29141</v>
+        <v>100</v>
       </c>
       <c r="AA52">
-        <v>100</v>
-      </c>
-      <c r="AB52">
         <v>283</v>
       </c>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>9.48</v>
       </c>
@@ -7203,16 +7044,13 @@
         <v>83.5</v>
       </c>
       <c r="Z53">
-        <v>41995</v>
+        <v>100</v>
       </c>
       <c r="AA53">
-        <v>100</v>
-      </c>
-      <c r="AB53">
         <v>722</v>
       </c>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>7.23</v>
       </c>
@@ -7289,16 +7127,13 @@
         <v>66.5</v>
       </c>
       <c r="Z54">
-        <v>30014</v>
+        <v>100</v>
       </c>
       <c r="AA54">
-        <v>100</v>
-      </c>
-      <c r="AB54">
         <v>301</v>
       </c>
     </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>8.94</v>
       </c>
@@ -7375,16 +7210,13 @@
         <v>28.6</v>
       </c>
       <c r="Z55">
-        <v>35577</v>
+        <v>20.12</v>
       </c>
       <c r="AA55">
-        <v>20.12</v>
-      </c>
-      <c r="AB55">
         <v>673</v>
       </c>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>8.2100000000000009</v>
       </c>
@@ -7461,16 +7293,13 @@
         <v>24.7</v>
       </c>
       <c r="Z56">
-        <v>38141</v>
+        <v>33.21</v>
       </c>
       <c r="AA56">
-        <v>33.21</v>
-      </c>
-      <c r="AB56">
         <v>537</v>
       </c>
     </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>7.7</v>
       </c>
@@ -7547,16 +7376,13 @@
         <v>6.3</v>
       </c>
       <c r="Z57">
-        <v>28275</v>
+        <v>10.01</v>
       </c>
       <c r="AA57">
-        <v>10.01</v>
-      </c>
-      <c r="AB57">
         <v>735</v>
       </c>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>6.19</v>
       </c>
@@ -7633,16 +7459,13 @@
         <v>18.100000000000001</v>
       </c>
       <c r="Z58">
-        <v>19610</v>
+        <v>27.79</v>
       </c>
       <c r="AA58">
-        <v>27.79</v>
-      </c>
-      <c r="AB58">
         <v>380</v>
       </c>
     </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>7.63</v>
       </c>
@@ -7719,16 +7542,13 @@
         <v>44.1</v>
       </c>
       <c r="Z59">
-        <v>15640</v>
+        <v>29.06</v>
       </c>
       <c r="AA59">
-        <v>29.06</v>
-      </c>
-      <c r="AB59">
         <v>176</v>
       </c>
     </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>6.85</v>
       </c>
@@ -7805,16 +7625,13 @@
         <v>35</v>
       </c>
       <c r="Z60">
-        <v>19241</v>
+        <v>29.39</v>
       </c>
       <c r="AA60">
-        <v>29.39</v>
-      </c>
-      <c r="AB60">
         <v>583</v>
       </c>
     </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>7.22</v>
       </c>
@@ -7891,16 +7708,13 @@
         <v>32.9</v>
       </c>
       <c r="Z61">
-        <v>26708</v>
+        <v>40.229999999999997</v>
       </c>
       <c r="AA61">
-        <v>40.229999999999997</v>
-      </c>
-      <c r="AB61">
         <v>622</v>
       </c>
     </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>8.3800000000000008</v>
       </c>
@@ -7977,16 +7791,13 @@
         <v>20.399999999999999</v>
       </c>
       <c r="Z62">
-        <v>26617</v>
+        <v>30.69</v>
       </c>
       <c r="AA62">
-        <v>30.69</v>
-      </c>
-      <c r="AB62">
         <v>662</v>
       </c>
     </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>9.67</v>
       </c>
@@ -8063,16 +7874,13 @@
         <v>16.899999999999999</v>
       </c>
       <c r="Z63">
-        <v>44695</v>
+        <v>7.17</v>
       </c>
       <c r="AA63">
-        <v>7.17</v>
-      </c>
-      <c r="AB63">
         <v>1454</v>
       </c>
     </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>10.44</v>
       </c>
@@ -8149,16 +7957,13 @@
         <v>49.6</v>
       </c>
       <c r="Z64">
-        <v>16658</v>
+        <v>32.64</v>
       </c>
       <c r="AA64">
-        <v>32.64</v>
-      </c>
-      <c r="AB64">
         <v>315</v>
       </c>
     </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>10.85</v>
       </c>
@@ -8235,16 +8040,13 @@
         <v>42.9</v>
       </c>
       <c r="Z65">
-        <v>41247</v>
+        <v>30.05</v>
       </c>
       <c r="AA65">
-        <v>30.05</v>
-      </c>
-      <c r="AB65">
         <v>726</v>
       </c>
     </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>7.9</v>
       </c>
@@ -8321,16 +8123,13 @@
         <v>36.799999999999997</v>
       </c>
       <c r="Z66">
-        <v>20859</v>
+        <v>31.01</v>
       </c>
       <c r="AA66">
-        <v>31.01</v>
-      </c>
-      <c r="AB66">
         <v>313</v>
       </c>
     </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>8.18</v>
       </c>
@@ -8407,16 +8206,13 @@
         <v>45.7</v>
       </c>
       <c r="Z67">
-        <v>11271</v>
+        <v>30.71</v>
       </c>
       <c r="AA67">
-        <v>30.71</v>
-      </c>
-      <c r="AB67">
         <v>253</v>
       </c>
     </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>7.52</v>
       </c>
@@ -8493,16 +8289,13 @@
         <v>73.2</v>
       </c>
       <c r="Z68">
-        <v>38974</v>
+        <v>47.36</v>
       </c>
       <c r="AA68">
-        <v>47.36</v>
-      </c>
-      <c r="AB68">
         <v>555</v>
       </c>
     </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>8.6</v>
       </c>
@@ -8579,16 +8372,13 @@
         <v>68.400000000000006</v>
       </c>
       <c r="Z69">
-        <v>22895</v>
+        <v>26.46</v>
       </c>
       <c r="AA69">
-        <v>26.46</v>
-      </c>
-      <c r="AB69">
         <v>363</v>
       </c>
     </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>10.119999999999999</v>
       </c>
@@ -8665,16 +8455,13 @@
         <v>63</v>
       </c>
       <c r="Z70">
-        <v>19458</v>
+        <v>45.77</v>
       </c>
       <c r="AA70">
-        <v>45.77</v>
-      </c>
-      <c r="AB70">
         <v>281</v>
       </c>
     </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>8.18</v>
       </c>
@@ -8751,16 +8538,13 @@
         <v>42.1</v>
       </c>
       <c r="Z71">
-        <v>19210</v>
+        <v>57.81</v>
       </c>
       <c r="AA71">
-        <v>57.81</v>
-      </c>
-      <c r="AB71">
         <v>247</v>
       </c>
     </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>7.06</v>
       </c>
@@ -8837,16 +8621,13 @@
         <v>32</v>
       </c>
       <c r="Z72">
-        <v>25497</v>
+        <v>30.96</v>
       </c>
       <c r="AA72">
-        <v>30.96</v>
-      </c>
-      <c r="AB72">
         <v>434</v>
       </c>
     </row>
-    <row r="73" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>7.72</v>
       </c>
@@ -8923,16 +8704,13 @@
         <v>52.9</v>
       </c>
       <c r="Z73">
-        <v>15059</v>
+        <v>34</v>
       </c>
       <c r="AA73">
-        <v>34</v>
-      </c>
-      <c r="AB73">
         <v>317</v>
       </c>
     </row>
-    <row r="74" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>7.55</v>
       </c>
@@ -9009,16 +8787,13 @@
         <v>12.8</v>
       </c>
       <c r="Z74">
-        <v>34425</v>
+        <v>10.57</v>
       </c>
       <c r="AA74">
-        <v>10.57</v>
-      </c>
-      <c r="AB74">
         <v>916</v>
       </c>
     </row>
-    <row r="75" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>9.34</v>
       </c>
@@ -9095,16 +8870,13 @@
         <v>107.1</v>
       </c>
       <c r="Z75">
-        <v>14624</v>
+        <v>100</v>
       </c>
       <c r="AA75">
-        <v>100</v>
-      </c>
-      <c r="AB75">
         <v>196</v>
       </c>
     </row>
-    <row r="76" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>6.74</v>
       </c>
@@ -9181,16 +8953,13 @@
         <v>64.8</v>
       </c>
       <c r="Z76">
-        <v>16468</v>
+        <v>100</v>
       </c>
       <c r="AA76">
-        <v>100</v>
-      </c>
-      <c r="AB76">
         <v>184</v>
       </c>
     </row>
-    <row r="77" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>9.9700000000000006</v>
       </c>
@@ -9267,16 +9036,13 @@
         <v>195.3</v>
       </c>
       <c r="Z77">
-        <v>78978</v>
+        <v>100</v>
       </c>
       <c r="AA77">
-        <v>100</v>
-      </c>
-      <c r="AB77">
         <v>743</v>
       </c>
     </row>
-    <row r="78" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>7.97</v>
       </c>
@@ -9353,16 +9119,13 @@
         <v>130.30000000000001</v>
       </c>
       <c r="Z78">
-        <v>16781</v>
+        <v>100</v>
       </c>
       <c r="AA78">
-        <v>100</v>
-      </c>
-      <c r="AB78">
         <v>181</v>
       </c>
     </row>
-    <row r="79" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>8.42</v>
       </c>
@@ -9439,16 +9202,13 @@
         <v>26</v>
       </c>
       <c r="Z79">
-        <v>22672</v>
+        <v>33.71</v>
       </c>
       <c r="AA79">
-        <v>33.71</v>
-      </c>
-      <c r="AB79">
         <v>340</v>
       </c>
     </row>
-    <row r="80" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>7.77</v>
       </c>
@@ -9525,16 +9285,13 @@
         <v>28.9</v>
       </c>
       <c r="Z80">
-        <v>17067</v>
+        <v>50.7</v>
       </c>
       <c r="AA80">
-        <v>50.7</v>
-      </c>
-      <c r="AB80">
         <v>250</v>
       </c>
     </row>
-    <row r="81" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>7.79</v>
       </c>
@@ -9611,16 +9368,13 @@
         <v>46.9</v>
       </c>
       <c r="Z81">
-        <v>21487</v>
+        <v>51.59</v>
       </c>
       <c r="AA81">
-        <v>51.59</v>
-      </c>
-      <c r="AB81">
         <v>161</v>
       </c>
     </row>
-    <row r="82" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>8.49</v>
       </c>
@@ -9697,16 +9451,13 @@
         <v>53.5</v>
       </c>
       <c r="Z82">
-        <v>31014</v>
+        <v>65.48</v>
       </c>
       <c r="AA82">
-        <v>65.48</v>
-      </c>
-      <c r="AB82">
         <v>311</v>
       </c>
     </row>
-    <row r="83" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>8.51</v>
       </c>
@@ -9783,16 +9534,13 @@
         <v>24.9</v>
       </c>
       <c r="Z83">
-        <v>13046</v>
+        <v>63.42</v>
       </c>
       <c r="AA83">
-        <v>63.42</v>
-      </c>
-      <c r="AB83">
         <v>151</v>
       </c>
     </row>
-    <row r="84" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>8.15</v>
       </c>
@@ -9869,16 +9617,13 @@
         <v>20</v>
       </c>
       <c r="Z84">
-        <v>19066</v>
+        <v>46.95</v>
       </c>
       <c r="AA84">
-        <v>46.95</v>
-      </c>
-      <c r="AB84">
         <v>159</v>
       </c>
     </row>
-    <row r="85" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>9.51</v>
       </c>
@@ -9955,16 +9700,13 @@
         <v>32</v>
       </c>
       <c r="Z85">
-        <v>12601</v>
+        <v>41.73</v>
       </c>
       <c r="AA85">
-        <v>41.73</v>
-      </c>
-      <c r="AB85">
         <v>112</v>
       </c>
     </row>
-    <row r="86" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>9.2100000000000009</v>
       </c>
@@ -10041,16 +9783,13 @@
         <v>61.1</v>
       </c>
       <c r="Z86">
-        <v>20252</v>
+        <v>47.82</v>
       </c>
       <c r="AA86">
-        <v>47.82</v>
-      </c>
-      <c r="AB86">
         <v>179</v>
       </c>
     </row>
-    <row r="87" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>9.4499999999999993</v>
       </c>
@@ -10127,16 +9866,13 @@
         <v>32.6</v>
       </c>
       <c r="Z87">
-        <v>26500</v>
+        <v>43.97</v>
       </c>
       <c r="AA87">
-        <v>43.97</v>
-      </c>
-      <c r="AB87">
         <v>316</v>
       </c>
     </row>
-    <row r="88" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>7.97</v>
       </c>
@@ -10213,16 +9949,13 @@
         <v>18.399999999999999</v>
       </c>
       <c r="Z88">
-        <v>32207</v>
+        <v>60.29</v>
       </c>
       <c r="AA88">
-        <v>60.29</v>
-      </c>
-      <c r="AB88">
         <v>293</v>
       </c>
     </row>
-    <row r="89" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>8.3800000000000008</v>
       </c>
@@ -10299,16 +10032,13 @@
         <v>34.4</v>
       </c>
       <c r="Z89">
-        <v>33533</v>
+        <v>60.15</v>
       </c>
       <c r="AA89">
-        <v>60.15</v>
-      </c>
-      <c r="AB89">
         <v>360</v>
       </c>
     </row>
-    <row r="90" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>8.56</v>
       </c>
@@ -10385,16 +10115,13 @@
         <v>28.5</v>
       </c>
       <c r="Z90">
-        <v>14713</v>
+        <v>49.86</v>
       </c>
       <c r="AA90">
-        <v>49.86</v>
-      </c>
-      <c r="AB90">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>8.5299999999999994</v>
       </c>
@@ -10471,16 +10198,13 @@
         <v>79.5</v>
       </c>
       <c r="Z91">
-        <v>34813</v>
+        <v>100</v>
       </c>
       <c r="AA91">
-        <v>100</v>
-      </c>
-      <c r="AB91">
         <v>303</v>
       </c>
     </row>
-    <row r="92" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>8.86</v>
       </c>
@@ -10557,16 +10281,13 @@
         <v>77.599999999999994</v>
       </c>
       <c r="Z92">
-        <v>36163</v>
+        <v>100</v>
       </c>
       <c r="AA92">
-        <v>100</v>
-      </c>
-      <c r="AB92">
         <v>408</v>
       </c>
     </row>
-    <row r="93" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>8.9600000000000009</v>
       </c>
@@ -10643,16 +10364,13 @@
         <v>50.1</v>
       </c>
       <c r="Z93">
-        <v>28793</v>
+        <v>56.81</v>
       </c>
       <c r="AA93">
-        <v>56.81</v>
-      </c>
-      <c r="AB93">
         <v>698</v>
       </c>
     </row>
-    <row r="94" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>7.8</v>
       </c>
@@ -10729,16 +10447,13 @@
         <v>35.299999999999997</v>
       </c>
       <c r="Z94">
-        <v>27734</v>
+        <v>58.16</v>
       </c>
       <c r="AA94">
-        <v>58.16</v>
-      </c>
-      <c r="AB94">
         <v>579</v>
       </c>
     </row>
-    <row r="95" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>8.23</v>
       </c>
@@ -10815,16 +10530,13 @@
         <v>50.9</v>
       </c>
       <c r="Z95">
-        <v>12455</v>
+        <v>34.03</v>
       </c>
       <c r="AA95">
-        <v>34.03</v>
-      </c>
-      <c r="AB95">
         <v>251</v>
       </c>
     </row>
-    <row r="96" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>8.84</v>
       </c>
@@ -10901,16 +10613,13 @@
         <v>47.1</v>
       </c>
       <c r="Z96">
-        <v>12984</v>
+        <v>31.4</v>
       </c>
       <c r="AA96">
-        <v>31.4</v>
-      </c>
-      <c r="AB96">
         <v>214</v>
       </c>
     </row>
-    <row r="97" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>8.66</v>
       </c>
@@ -10987,16 +10696,13 @@
         <v>63.6</v>
       </c>
       <c r="Z97">
-        <v>18928</v>
+        <v>35.94</v>
       </c>
       <c r="AA97">
-        <v>35.94</v>
-      </c>
-      <c r="AB97">
         <v>332</v>
       </c>
     </row>
-    <row r="98" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>8.4700000000000006</v>
       </c>
@@ -11073,16 +10779,13 @@
         <v>31.3</v>
       </c>
       <c r="Z98">
-        <v>16078</v>
+        <v>32.24</v>
       </c>
       <c r="AA98">
-        <v>32.24</v>
-      </c>
-      <c r="AB98">
         <v>376</v>
       </c>
     </row>
-    <row r="99" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>9.0299999999999994</v>
       </c>
@@ -11159,16 +10862,13 @@
         <v>25.7</v>
       </c>
       <c r="Z99">
-        <v>25995</v>
+        <v>32.5</v>
       </c>
       <c r="AA99">
-        <v>32.5</v>
-      </c>
-      <c r="AB99">
         <v>548</v>
       </c>
     </row>
-    <row r="100" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>7.98</v>
       </c>
@@ -11245,16 +10945,13 @@
         <v>42.8</v>
       </c>
       <c r="Z100">
-        <v>27135</v>
+        <v>69.180000000000007</v>
       </c>
       <c r="AA100">
-        <v>69.180000000000007</v>
-      </c>
-      <c r="AB100">
         <v>427</v>
       </c>
     </row>
-    <row r="101" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>8.83</v>
       </c>
@@ -11331,16 +11028,13 @@
         <v>16.3</v>
       </c>
       <c r="Z101">
-        <v>14176</v>
+        <v>24.33</v>
       </c>
       <c r="AA101">
-        <v>24.33</v>
-      </c>
-      <c r="AB101">
         <v>279</v>
       </c>
     </row>
-    <row r="102" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>9.3699999999999992</v>
       </c>
@@ -11417,16 +11111,13 @@
         <v>3.4</v>
       </c>
       <c r="Z102">
-        <v>29213</v>
+        <v>9.24</v>
       </c>
       <c r="AA102">
-        <v>9.24</v>
-      </c>
-      <c r="AB102">
         <v>603</v>
       </c>
     </row>
-    <row r="103" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>7.97</v>
       </c>
@@ -11503,16 +11194,13 @@
         <v>30.3</v>
       </c>
       <c r="Z103">
-        <v>13467</v>
+        <v>24.94</v>
       </c>
       <c r="AA103">
-        <v>24.94</v>
-      </c>
-      <c r="AB103">
         <v>318</v>
       </c>
     </row>
-    <row r="104" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>8.0500000000000007</v>
       </c>
@@ -11589,16 +11277,13 @@
         <v>42.4</v>
       </c>
       <c r="Z104">
-        <v>36021</v>
+        <v>46.12</v>
       </c>
       <c r="AA104">
-        <v>46.12</v>
-      </c>
-      <c r="AB104">
         <v>676</v>
       </c>
     </row>
-    <row r="105" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>10.31</v>
       </c>
@@ -11675,16 +11360,13 @@
         <v>44.6</v>
       </c>
       <c r="Z105">
-        <v>15258</v>
+        <v>42.01</v>
       </c>
       <c r="AA105">
-        <v>42.01</v>
-      </c>
-      <c r="AB105">
         <v>233</v>
       </c>
     </row>
-    <row r="106" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>9.1</v>
       </c>
@@ -11761,16 +11443,13 @@
         <v>54.2</v>
       </c>
       <c r="Z106">
-        <v>33752</v>
+        <v>42.75</v>
       </c>
       <c r="AA106">
-        <v>42.75</v>
-      </c>
-      <c r="AB106">
         <v>580</v>
       </c>
     </row>
-    <row r="107" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>9.91</v>
       </c>
@@ -11847,16 +11526,13 @@
         <v>4.5</v>
       </c>
       <c r="Z107">
-        <v>10907</v>
+        <v>53</v>
       </c>
       <c r="AA107">
-        <v>53</v>
-      </c>
-      <c r="AB107">
         <v>150</v>
       </c>
     </row>
-    <row r="108" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>8.52</v>
       </c>
@@ -11933,16 +11609,13 @@
         <v>42.8</v>
       </c>
       <c r="Z108">
-        <v>38494</v>
+        <v>28.91</v>
       </c>
       <c r="AA108">
-        <v>28.91</v>
-      </c>
-      <c r="AB108">
         <v>577</v>
       </c>
     </row>
-    <row r="109" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>8.39</v>
       </c>
@@ -12019,16 +11692,13 @@
         <v>31.8</v>
       </c>
       <c r="Z109">
-        <v>21599</v>
+        <v>25.45</v>
       </c>
       <c r="AA109">
-        <v>25.45</v>
-      </c>
-      <c r="AB109">
         <v>463</v>
       </c>
     </row>
-    <row r="110" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>9.0399999999999991</v>
       </c>
@@ -12105,16 +11775,13 @@
         <v>14.8</v>
       </c>
       <c r="Z110">
-        <v>11988</v>
+        <v>65.37</v>
       </c>
       <c r="AA110">
-        <v>65.37</v>
-      </c>
-      <c r="AB110">
         <v>199</v>
       </c>
     </row>
-    <row r="111" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>8.74</v>
       </c>
@@ -12191,16 +11858,13 @@
         <v>28.8</v>
       </c>
       <c r="Z111">
-        <v>18679</v>
+        <v>68.7</v>
       </c>
       <c r="AA111">
-        <v>68.7</v>
-      </c>
-      <c r="AB111">
         <v>302</v>
       </c>
     </row>
-    <row r="112" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>8.02</v>
       </c>
@@ -12277,16 +11941,13 @@
         <v>71</v>
       </c>
       <c r="Z112">
-        <v>37889</v>
+        <v>40.35</v>
       </c>
       <c r="AA112">
-        <v>40.35</v>
-      </c>
-      <c r="AB112">
         <v>729</v>
       </c>
     </row>
-    <row r="113" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>8.44</v>
       </c>
@@ -12363,16 +12024,13 @@
         <v>113.9</v>
       </c>
       <c r="Z113">
-        <v>9329</v>
+        <v>100</v>
       </c>
       <c r="AA113">
-        <v>100</v>
-      </c>
-      <c r="AB113">
         <v>160</v>
       </c>
     </row>
-    <row r="114" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>8.4700000000000006</v>
       </c>
@@ -12449,16 +12107,13 @@
         <v>128</v>
       </c>
       <c r="Z114">
-        <v>141058</v>
+        <v>100</v>
       </c>
       <c r="AA114">
-        <v>100</v>
-      </c>
-      <c r="AB114">
         <v>2031</v>
       </c>
     </row>
-    <row r="115" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>7.86</v>
       </c>
@@ -12535,16 +12190,13 @@
         <v>62.6</v>
       </c>
       <c r="Z115">
-        <v>22687</v>
+        <v>100</v>
       </c>
       <c r="AA115">
-        <v>100</v>
-      </c>
-      <c r="AB115">
         <v>269</v>
       </c>
     </row>
-    <row r="116" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>8.14</v>
       </c>
@@ -12621,16 +12273,13 @@
         <v>84.1</v>
       </c>
       <c r="Z116">
-        <v>10195</v>
+        <v>30.22</v>
       </c>
       <c r="AA116">
-        <v>30.22</v>
-      </c>
-      <c r="AB116">
         <v>185</v>
       </c>
     </row>
-    <row r="117" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>11.07</v>
       </c>
@@ -12707,16 +12356,13 @@
         <v>33.700000000000003</v>
       </c>
       <c r="Z117">
-        <v>30631</v>
+        <v>20.52</v>
       </c>
       <c r="AA117">
-        <v>20.52</v>
-      </c>
-      <c r="AB117">
         <v>735</v>
       </c>
     </row>
-    <row r="118" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>9.57</v>
       </c>
@@ -12793,16 +12439,13 @@
         <v>33.4</v>
       </c>
       <c r="Z118">
-        <v>25918</v>
+        <v>61.29</v>
       </c>
       <c r="AA118">
-        <v>61.29</v>
-      </c>
-      <c r="AB118">
         <v>600</v>
       </c>
     </row>
-    <row r="119" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>7.19</v>
       </c>
@@ -12879,16 +12522,13 @@
         <v>67.3</v>
       </c>
       <c r="Z119">
-        <v>26722</v>
+        <v>27.1</v>
       </c>
       <c r="AA119">
-        <v>27.1</v>
-      </c>
-      <c r="AB119">
         <v>528</v>
       </c>
     </row>
-    <row r="120" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>8.86</v>
       </c>
@@ -12965,16 +12605,13 @@
         <v>32.6</v>
       </c>
       <c r="Z120">
-        <v>21389</v>
+        <v>31.95</v>
       </c>
       <c r="AA120">
-        <v>31.95</v>
-      </c>
-      <c r="AB120">
         <v>218</v>
       </c>
     </row>
-    <row r="121" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>9.0299999999999994</v>
       </c>
@@ -13051,16 +12688,13 @@
         <v>34.1</v>
       </c>
       <c r="Z121">
-        <v>42900</v>
+        <v>15.93</v>
       </c>
       <c r="AA121">
-        <v>15.93</v>
-      </c>
-      <c r="AB121">
         <v>646</v>
       </c>
     </row>
-    <row r="122" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>10.09</v>
       </c>
@@ -13137,16 +12771,13 @@
         <v>22</v>
       </c>
       <c r="Z122">
-        <v>58075</v>
+        <v>17.38</v>
       </c>
       <c r="AA122">
-        <v>17.38</v>
-      </c>
-      <c r="AB122">
         <v>1212</v>
       </c>
     </row>
-    <row r="123" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>13.2</v>
       </c>
@@ -13223,16 +12854,13 @@
         <v>30</v>
       </c>
       <c r="Z123">
-        <v>55248</v>
+        <v>23.73</v>
       </c>
       <c r="AA123">
-        <v>23.73</v>
-      </c>
-      <c r="AB123">
         <v>540</v>
       </c>
     </row>
-    <row r="124" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>9.4700000000000006</v>
       </c>
@@ -13309,16 +12937,13 @@
         <v>40.4</v>
       </c>
       <c r="Z124">
-        <v>11063</v>
+        <v>24.54</v>
       </c>
       <c r="AA124">
-        <v>24.54</v>
-      </c>
-      <c r="AB124">
         <v>540</v>
       </c>
     </row>
-    <row r="125" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>11.31</v>
       </c>
@@ -13395,16 +13020,13 @@
         <v>44.1</v>
       </c>
       <c r="Z125">
-        <v>39346</v>
+        <v>16.579999999999998</v>
       </c>
       <c r="AA125">
-        <v>16.579999999999998</v>
-      </c>
-      <c r="AB125">
         <v>459</v>
       </c>
     </row>
-    <row r="126" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>11.83</v>
       </c>
@@ -13481,16 +13103,13 @@
         <v>21.1</v>
       </c>
       <c r="Z126">
-        <v>88539</v>
+        <v>26.91</v>
       </c>
       <c r="AA126">
-        <v>26.91</v>
-      </c>
-      <c r="AB126">
         <v>1061</v>
       </c>
     </row>
-    <row r="127" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>10.35</v>
       </c>
@@ -13567,16 +13186,13 @@
         <v>50.3</v>
       </c>
       <c r="Z127">
-        <v>66366</v>
+        <v>48.17</v>
       </c>
       <c r="AA127">
-        <v>48.17</v>
-      </c>
-      <c r="AB127">
         <v>655</v>
       </c>
     </row>
-    <row r="128" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>7.73</v>
       </c>
@@ -13653,16 +13269,13 @@
         <v>50.9</v>
       </c>
       <c r="Z128">
-        <v>23002</v>
+        <v>52.15</v>
       </c>
       <c r="AA128">
-        <v>52.15</v>
-      </c>
-      <c r="AB128">
         <v>701</v>
       </c>
     </row>
-    <row r="129" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>8.65</v>
       </c>
@@ -13739,16 +13352,13 @@
         <v>36.200000000000003</v>
       </c>
       <c r="Z129">
-        <v>33207</v>
+        <v>19.52</v>
       </c>
       <c r="AA129">
-        <v>19.52</v>
-      </c>
-      <c r="AB129">
         <v>625</v>
       </c>
     </row>
-    <row r="130" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>9.08</v>
       </c>
@@ -13825,16 +13435,13 @@
         <v>37.6</v>
       </c>
       <c r="Z130">
-        <v>10289</v>
+        <v>23.84</v>
       </c>
       <c r="AA130">
-        <v>23.84</v>
-      </c>
-      <c r="AB130">
         <v>212</v>
       </c>
     </row>
-    <row r="131" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>9.56</v>
       </c>
@@ -13911,16 +13518,13 @@
         <v>40.5</v>
       </c>
       <c r="Z131">
-        <v>31458</v>
+        <v>11.76</v>
       </c>
       <c r="AA131">
-        <v>11.76</v>
-      </c>
-      <c r="AB131">
         <v>318</v>
       </c>
     </row>
-    <row r="132" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>9.66</v>
       </c>
@@ -13997,16 +13601,13 @@
         <v>19.100000000000001</v>
       </c>
       <c r="Z132">
-        <v>64683</v>
+        <v>39.450000000000003</v>
       </c>
       <c r="AA132">
-        <v>39.450000000000003</v>
-      </c>
-      <c r="AB132">
         <v>1044</v>
       </c>
     </row>
-    <row r="133" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>9.66</v>
       </c>
@@ -14083,16 +13684,13 @@
         <v>47.3</v>
       </c>
       <c r="Z133">
-        <v>21101</v>
+        <v>26.73</v>
       </c>
       <c r="AA133">
-        <v>26.73</v>
-      </c>
-      <c r="AB133">
         <v>462</v>
       </c>
     </row>
-    <row r="134" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>10.08</v>
       </c>
@@ -14169,16 +13767,13 @@
         <v>25.4</v>
       </c>
       <c r="Z134">
-        <v>46599</v>
+        <v>29.27</v>
       </c>
       <c r="AA134">
-        <v>29.27</v>
-      </c>
-      <c r="AB134">
         <v>624</v>
       </c>
     </row>
-    <row r="135" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>11.24</v>
       </c>
@@ -14255,16 +13850,13 @@
         <v>26.6</v>
       </c>
       <c r="Z135">
-        <v>31131</v>
+        <v>100</v>
       </c>
       <c r="AA135">
-        <v>100</v>
-      </c>
-      <c r="AB135">
         <v>526</v>
       </c>
     </row>
-    <row r="136" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>11.59</v>
       </c>
@@ -14341,16 +13933,13 @@
         <v>173.4</v>
       </c>
       <c r="Z136">
-        <v>109920</v>
+        <v>100</v>
       </c>
       <c r="AA136">
-        <v>100</v>
-      </c>
-      <c r="AB136">
         <v>1914</v>
       </c>
     </row>
-    <row r="137" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>10.51</v>
       </c>
@@ -14427,16 +14016,13 @@
         <v>87.4</v>
       </c>
       <c r="Z137">
-        <v>23794</v>
+        <v>100</v>
       </c>
       <c r="AA137">
-        <v>100</v>
-      </c>
-      <c r="AB137">
         <v>679</v>
       </c>
     </row>
-    <row r="138" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>7.98</v>
       </c>
@@ -14513,16 +14099,13 @@
         <v>118.4</v>
       </c>
       <c r="Z138">
-        <v>26283</v>
+        <v>23.25</v>
       </c>
       <c r="AA138">
-        <v>23.25</v>
-      </c>
-      <c r="AB138">
         <v>367</v>
       </c>
     </row>
-    <row r="139" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>11.07</v>
       </c>
@@ -14599,16 +14182,13 @@
         <v>27.6</v>
       </c>
       <c r="Z139">
-        <v>12593</v>
+        <v>52.72</v>
       </c>
       <c r="AA139">
-        <v>52.72</v>
-      </c>
-      <c r="AB139">
         <v>143</v>
       </c>
     </row>
-    <row r="140" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>9.26</v>
       </c>
@@ -14685,16 +14265,13 @@
         <v>44.3</v>
       </c>
       <c r="Z140">
-        <v>26984</v>
+        <v>28.37</v>
       </c>
       <c r="AA140">
-        <v>28.37</v>
-      </c>
-      <c r="AB140">
         <v>519</v>
       </c>
     </row>
-    <row r="141" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>11.23</v>
       </c>
@@ -14771,16 +14348,13 @@
         <v>35.4</v>
       </c>
       <c r="Z141">
-        <v>36183</v>
+        <v>45.51</v>
       </c>
       <c r="AA141">
-        <v>45.51</v>
-      </c>
-      <c r="AB141">
         <v>639</v>
       </c>
     </row>
-    <row r="142" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>7.8</v>
       </c>
@@ -14857,16 +14431,13 @@
         <v>65.3</v>
       </c>
       <c r="Z142">
-        <v>14157</v>
+        <v>54.1</v>
       </c>
       <c r="AA142">
-        <v>54.1</v>
-      </c>
-      <c r="AB142">
         <v>236</v>
       </c>
     </row>
-    <row r="143" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>10.48</v>
       </c>
@@ -14943,16 +14514,13 @@
         <v>66</v>
       </c>
       <c r="Z143">
-        <v>23637</v>
+        <v>35.29</v>
       </c>
       <c r="AA143">
-        <v>35.29</v>
-      </c>
-      <c r="AB143">
         <v>453</v>
       </c>
     </row>
-    <row r="144" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>9.82</v>
       </c>
@@ -15029,16 +14597,13 @@
         <v>35.6</v>
       </c>
       <c r="Z144">
-        <v>25415</v>
+        <v>28.32</v>
       </c>
       <c r="AA144">
-        <v>28.32</v>
-      </c>
-      <c r="AB144">
         <v>511</v>
       </c>
     </row>
-    <row r="145" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>8.73</v>
       </c>
@@ -15115,16 +14680,13 @@
         <v>37.799999999999997</v>
       </c>
       <c r="Z145">
-        <v>16802</v>
+        <v>48.54</v>
       </c>
       <c r="AA145">
-        <v>48.54</v>
-      </c>
-      <c r="AB145">
         <v>194</v>
       </c>
     </row>
-    <row r="146" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>9.2799999999999994</v>
       </c>
@@ -15201,16 +14763,13 @@
         <v>44.5</v>
       </c>
       <c r="Z146">
-        <v>22546</v>
+        <v>16</v>
       </c>
       <c r="AA146">
-        <v>16</v>
-      </c>
-      <c r="AB146">
         <v>515</v>
       </c>
     </row>
-    <row r="147" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>8.27</v>
       </c>
@@ -15287,16 +14846,13 @@
         <v>28</v>
       </c>
       <c r="Z147">
-        <v>11976</v>
+        <v>22.98</v>
       </c>
       <c r="AA147">
-        <v>22.98</v>
-      </c>
-      <c r="AB147">
         <v>417</v>
       </c>
     </row>
-    <row r="148" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>9.52</v>
       </c>
@@ -15373,16 +14929,13 @@
         <v>48.8</v>
       </c>
       <c r="Z148">
-        <v>9998</v>
+        <v>27.62</v>
       </c>
       <c r="AA148">
-        <v>27.62</v>
-      </c>
-      <c r="AB148">
         <v>267</v>
       </c>
     </row>
-    <row r="149" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>9.18</v>
       </c>
@@ -15459,16 +15012,13 @@
         <v>32</v>
       </c>
       <c r="Z149">
-        <v>16505</v>
+        <v>45.84</v>
       </c>
       <c r="AA149">
-        <v>45.84</v>
-      </c>
-      <c r="AB149">
         <v>281</v>
       </c>
     </row>
-    <row r="150" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>11.03</v>
       </c>
@@ -15545,16 +15095,13 @@
         <v>32.700000000000003</v>
       </c>
       <c r="Z150">
-        <v>40841</v>
+        <v>43.07</v>
       </c>
       <c r="AA150">
-        <v>43.07</v>
-      </c>
-      <c r="AB150">
         <v>959</v>
       </c>
     </row>
-    <row r="151" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>9.0299999999999994</v>
       </c>
@@ -15631,16 +15178,13 @@
         <v>26.2</v>
       </c>
       <c r="Z151">
-        <v>29947</v>
+        <v>49.82</v>
       </c>
       <c r="AA151">
-        <v>49.82</v>
-      </c>
-      <c r="AB151">
         <v>491</v>
       </c>
     </row>
-    <row r="152" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>9.34</v>
       </c>
@@ -15717,16 +15261,13 @@
         <v>48.6</v>
       </c>
       <c r="Z152">
-        <v>21721</v>
+        <v>3.84</v>
       </c>
       <c r="AA152">
-        <v>3.84</v>
-      </c>
-      <c r="AB152">
         <v>348</v>
       </c>
     </row>
-    <row r="153" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>10.199999999999999</v>
       </c>
@@ -15803,16 +15344,13 @@
         <v>6</v>
       </c>
       <c r="Z153">
-        <v>34089</v>
+        <v>33.6</v>
       </c>
       <c r="AA153">
-        <v>33.6</v>
-      </c>
-      <c r="AB153">
         <v>680</v>
       </c>
     </row>
-    <row r="154" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>9.2799999999999994</v>
       </c>
@@ -15889,16 +15427,13 @@
         <v>35</v>
       </c>
       <c r="Z154">
-        <v>25823</v>
+        <v>60.24</v>
       </c>
       <c r="AA154">
-        <v>60.24</v>
-      </c>
-      <c r="AB154">
         <v>403</v>
       </c>
     </row>
-    <row r="155" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>9.76</v>
       </c>
@@ -15975,16 +15510,13 @@
         <v>79.599999999999994</v>
       </c>
       <c r="Z155">
-        <v>25122</v>
+        <v>42.86</v>
       </c>
       <c r="AA155">
-        <v>42.86</v>
-      </c>
-      <c r="AB155">
         <v>394</v>
       </c>
     </row>
-    <row r="156" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>11.33</v>
       </c>
@@ -16061,16 +15593,13 @@
         <v>74.7</v>
       </c>
       <c r="Z156">
-        <v>35241</v>
+        <v>8.5500000000000007</v>
       </c>
       <c r="AA156">
-        <v>8.5500000000000007</v>
-      </c>
-      <c r="AB156">
         <v>730</v>
       </c>
     </row>
-    <row r="157" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>9.1300000000000008</v>
       </c>
@@ -16147,16 +15676,13 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="Z157">
-        <v>35557</v>
+        <v>31.53</v>
       </c>
       <c r="AA157">
-        <v>31.53</v>
-      </c>
-      <c r="AB157">
         <v>690</v>
       </c>
     </row>
-    <row r="158" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>9.5</v>
       </c>
@@ -16233,16 +15759,13 @@
         <v>38.1</v>
       </c>
       <c r="Z158">
-        <v>28047</v>
+        <v>59.32</v>
       </c>
       <c r="AA158">
-        <v>59.32</v>
-      </c>
-      <c r="AB158">
         <v>370</v>
       </c>
     </row>
-    <row r="159" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>10.32</v>
       </c>
@@ -16319,16 +15842,13 @@
         <v>50.1</v>
       </c>
       <c r="Z159">
-        <v>30084</v>
+        <v>38.68</v>
       </c>
       <c r="AA159">
-        <v>38.68</v>
-      </c>
-      <c r="AB159">
         <v>418</v>
       </c>
     </row>
-    <row r="160" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>10.1</v>
       </c>
@@ -16405,16 +15925,13 @@
         <v>28.4</v>
       </c>
       <c r="Z160">
-        <v>23301</v>
+        <v>14.03</v>
       </c>
       <c r="AA160">
-        <v>14.03</v>
-      </c>
-      <c r="AB160">
         <v>236</v>
       </c>
     </row>
-    <row r="161" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>8.6999999999999993</v>
       </c>
@@ -16491,16 +16008,13 @@
         <v>24.8</v>
       </c>
       <c r="Z161">
-        <v>16110</v>
+        <v>37.29</v>
       </c>
       <c r="AA161">
-        <v>37.29</v>
-      </c>
-      <c r="AB161">
         <v>200</v>
       </c>
     </row>
-    <row r="162" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>10.42</v>
       </c>
@@ -16577,16 +16091,13 @@
         <v>34</v>
       </c>
       <c r="Z162">
-        <v>19395</v>
+        <v>17.649999999999999</v>
       </c>
       <c r="AA162">
-        <v>17.649999999999999</v>
-      </c>
-      <c r="AB162">
         <v>220</v>
       </c>
     </row>
-    <row r="163" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>9.93</v>
       </c>
@@ -16663,16 +16174,13 @@
         <v>17.2</v>
       </c>
       <c r="Z163">
-        <v>60983</v>
+        <v>2.1</v>
       </c>
       <c r="AA163">
-        <v>2.1</v>
-      </c>
-      <c r="AB163">
         <v>594</v>
       </c>
     </row>
-    <row r="164" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>10.61</v>
       </c>
@@ -16749,16 +16257,13 @@
         <v>4.5</v>
       </c>
       <c r="Z164">
-        <v>26756</v>
+        <v>34.520000000000003</v>
       </c>
       <c r="AA164">
-        <v>34.520000000000003</v>
-      </c>
-      <c r="AB164">
         <v>1004</v>
       </c>
     </row>
-    <row r="165" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>8.48</v>
       </c>
@@ -16835,16 +16340,13 @@
         <v>24.6</v>
       </c>
       <c r="Z165">
-        <v>19446</v>
+        <v>42.32</v>
       </c>
       <c r="AA165">
-        <v>42.32</v>
-      </c>
-      <c r="AB165">
         <v>237</v>
       </c>
     </row>
-    <row r="166" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>9.93</v>
       </c>
@@ -16921,16 +16423,13 @@
         <v>38.799999999999997</v>
       </c>
       <c r="Z166">
-        <v>23500</v>
+        <v>39.19</v>
       </c>
       <c r="AA166">
-        <v>39.19</v>
-      </c>
-      <c r="AB166">
         <v>480</v>
       </c>
     </row>
-    <row r="167" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>8.82</v>
       </c>
@@ -17007,16 +16506,13 @@
         <v>29.8</v>
       </c>
       <c r="Z167">
-        <v>15193</v>
+        <v>29.38</v>
       </c>
       <c r="AA167">
-        <v>29.38</v>
-      </c>
-      <c r="AB167">
         <v>339</v>
       </c>
     </row>
-    <row r="168" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>8.4499999999999993</v>
       </c>
@@ -17093,16 +16589,13 @@
         <v>21.4</v>
       </c>
       <c r="Z168">
-        <v>15830</v>
+        <v>34.659999999999997</v>
       </c>
       <c r="AA168">
-        <v>34.659999999999997</v>
-      </c>
-      <c r="AB168">
         <v>237</v>
       </c>
     </row>
-    <row r="169" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>9.5</v>
       </c>
@@ -17179,16 +16672,13 @@
         <v>43.1</v>
       </c>
       <c r="Z169">
-        <v>23511</v>
+        <v>29.47</v>
       </c>
       <c r="AA169">
-        <v>29.47</v>
-      </c>
-      <c r="AB169">
         <v>511</v>
       </c>
     </row>
-    <row r="170" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>9.98</v>
       </c>
@@ -17265,16 +16755,13 @@
         <v>17.600000000000001</v>
       </c>
       <c r="Z170">
-        <v>23384</v>
+        <v>69.86</v>
       </c>
       <c r="AA170">
-        <v>69.86</v>
-      </c>
-      <c r="AB170">
         <v>250</v>
       </c>
     </row>
-    <row r="171" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>12.77</v>
       </c>
@@ -17351,16 +16838,13 @@
         <v>36.299999999999997</v>
       </c>
       <c r="Z171">
-        <v>69209</v>
+        <v>36.36</v>
       </c>
       <c r="AA171">
-        <v>36.36</v>
-      </c>
-      <c r="AB171">
         <v>540</v>
       </c>
     </row>
-    <row r="172" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>10.92</v>
       </c>
@@ -17437,16 +16921,13 @@
         <v>27.9</v>
       </c>
       <c r="Z172">
-        <v>27399</v>
+        <v>21.35</v>
       </c>
       <c r="AA172">
-        <v>21.35</v>
-      </c>
-      <c r="AB172">
         <v>294</v>
       </c>
     </row>
-    <row r="173" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>8.3800000000000008</v>
       </c>
@@ -17523,16 +17004,13 @@
         <v>29.8</v>
       </c>
       <c r="Z173">
-        <v>14082</v>
+        <v>32.01</v>
       </c>
       <c r="AA173">
-        <v>32.01</v>
-      </c>
-      <c r="AB173">
         <v>197</v>
       </c>
     </row>
-    <row r="174" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>8.14</v>
       </c>
@@ -17609,16 +17087,13 @@
         <v>20.7</v>
       </c>
       <c r="Z174">
-        <v>14851</v>
+        <v>60.82</v>
       </c>
       <c r="AA174">
-        <v>60.82</v>
-      </c>
-      <c r="AB174">
         <v>128</v>
       </c>
     </row>
-    <row r="175" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>9.2799999999999994</v>
       </c>
@@ -17695,16 +17170,13 @@
         <v>29.5</v>
       </c>
       <c r="Z175">
-        <v>21447</v>
+        <v>100</v>
       </c>
       <c r="AA175">
-        <v>100</v>
-      </c>
-      <c r="AB175">
         <v>480</v>
       </c>
     </row>
-    <row r="176" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>9.35</v>
       </c>
@@ -17781,16 +17253,13 @@
         <v>84</v>
       </c>
       <c r="Z176">
-        <v>13909</v>
+        <v>100</v>
       </c>
       <c r="AA176">
-        <v>100</v>
-      </c>
-      <c r="AB176">
         <v>309</v>
       </c>
     </row>
-    <row r="177" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>8.1199999999999992</v>
       </c>
@@ -17867,16 +17336,13 @@
         <v>103.2</v>
       </c>
       <c r="Z177">
-        <v>31131</v>
+        <v>100</v>
       </c>
       <c r="AA177">
-        <v>100</v>
-      </c>
-      <c r="AB177">
         <v>341</v>
       </c>
     </row>
-    <row r="178" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>8.4</v>
       </c>
@@ -17953,16 +17419,13 @@
         <v>78.099999999999994</v>
       </c>
       <c r="Z178">
-        <v>68958</v>
+        <v>100</v>
       </c>
       <c r="AA178">
-        <v>100</v>
-      </c>
-      <c r="AB178">
         <v>560</v>
       </c>
     </row>
-    <row r="179" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>10.98</v>
       </c>
@@ -18039,16 +17502,13 @@
         <v>142.1</v>
       </c>
       <c r="Z179">
-        <v>20491</v>
+        <v>100</v>
       </c>
       <c r="AA179">
-        <v>100</v>
-      </c>
-      <c r="AB179">
         <v>255</v>
       </c>
     </row>
-    <row r="180" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>11.52</v>
       </c>
@@ -18125,16 +17585,13 @@
         <v>152.4</v>
       </c>
       <c r="Z180">
-        <v>203377</v>
+        <v>55.36</v>
       </c>
       <c r="AA180">
-        <v>55.36</v>
-      </c>
-      <c r="AB180">
         <v>4342</v>
       </c>
     </row>
-    <row r="181" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>7.65</v>
       </c>
@@ -18211,16 +17668,13 @@
         <v>26.1</v>
       </c>
       <c r="Z181">
-        <v>23366</v>
+        <v>47.04</v>
       </c>
       <c r="AA181">
-        <v>47.04</v>
-      </c>
-      <c r="AB181">
         <v>395</v>
       </c>
     </row>
-    <row r="182" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>6.49</v>
       </c>
@@ -18297,16 +17751,13 @@
         <v>26.4</v>
       </c>
       <c r="Z182">
-        <v>12620</v>
+        <v>64.540000000000006</v>
       </c>
       <c r="AA182">
-        <v>64.540000000000006</v>
-      </c>
-      <c r="AB182">
         <v>168</v>
       </c>
     </row>
-    <row r="183" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>7.5</v>
       </c>
@@ -18383,16 +17834,13 @@
         <v>40.4</v>
       </c>
       <c r="Z183">
-        <v>17062</v>
+        <v>50.09</v>
       </c>
       <c r="AA183">
-        <v>50.09</v>
-      </c>
-      <c r="AB183">
         <v>413</v>
       </c>
     </row>
-    <row r="184" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>7.83</v>
       </c>
@@ -18469,16 +17917,13 @@
         <v>31.7</v>
       </c>
       <c r="Z184">
-        <v>17727</v>
+        <v>53.76</v>
       </c>
       <c r="AA184">
-        <v>53.76</v>
-      </c>
-      <c r="AB184">
         <v>327</v>
       </c>
     </row>
-    <row r="185" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>7.6</v>
       </c>
@@ -18555,16 +18000,13 @@
         <v>29</v>
       </c>
       <c r="Z185">
-        <v>12146</v>
+        <v>39.07</v>
       </c>
       <c r="AA185">
-        <v>39.07</v>
-      </c>
-      <c r="AB185">
         <v>175</v>
       </c>
     </row>
-    <row r="186" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>9.14</v>
       </c>
@@ -18641,16 +18083,13 @@
         <v>16.899999999999999</v>
       </c>
       <c r="Z186">
-        <v>10616</v>
+        <v>53.65</v>
       </c>
       <c r="AA186">
-        <v>53.65</v>
-      </c>
-      <c r="AB186">
         <v>146</v>
       </c>
     </row>
-    <row r="187" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>7.08</v>
       </c>
@@ -18727,16 +18166,13 @@
         <v>33.1</v>
       </c>
       <c r="Z187">
-        <v>37015</v>
+        <v>36.01</v>
       </c>
       <c r="AA187">
-        <v>36.01</v>
-      </c>
-      <c r="AB187">
         <v>717</v>
       </c>
     </row>
-    <row r="188" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>8.14</v>
       </c>
@@ -18813,16 +18249,13 @@
         <v>29</v>
       </c>
       <c r="Z188">
-        <v>14816</v>
+        <v>17.23</v>
       </c>
       <c r="AA188">
-        <v>17.23</v>
-      </c>
-      <c r="AB188">
         <v>380</v>
       </c>
     </row>
-    <row r="189" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>8.59</v>
       </c>
@@ -18899,16 +18332,13 @@
         <v>18.5</v>
       </c>
       <c r="Z189">
-        <v>20833</v>
+        <v>52.27</v>
       </c>
       <c r="AA189">
-        <v>52.27</v>
-      </c>
-      <c r="AB189">
         <v>449</v>
       </c>
     </row>
-    <row r="190" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>7.66</v>
       </c>
@@ -18985,16 +18415,13 @@
         <v>18.3</v>
       </c>
       <c r="Z190">
-        <v>14306</v>
+        <v>43.67</v>
       </c>
       <c r="AA190">
-        <v>43.67</v>
-      </c>
-      <c r="AB190">
         <v>170</v>
       </c>
     </row>
-    <row r="191" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>8.6</v>
       </c>
@@ -19071,16 +18498,13 @@
         <v>40.200000000000003</v>
       </c>
       <c r="Z191">
-        <v>15478</v>
+        <v>100</v>
       </c>
       <c r="AA191">
-        <v>100</v>
-      </c>
-      <c r="AB191">
         <v>231</v>
       </c>
     </row>
-    <row r="192" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>10</v>
       </c>
@@ -19157,16 +18581,13 @@
         <v>136.69999999999999</v>
       </c>
       <c r="Z192">
-        <v>19948</v>
+        <v>41.5</v>
       </c>
       <c r="AA192">
-        <v>41.5</v>
-      </c>
-      <c r="AB192">
         <v>466</v>
       </c>
     </row>
-    <row r="193" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>7.88</v>
       </c>
@@ -19243,16 +18664,13 @@
         <v>34.4</v>
       </c>
       <c r="Z193">
-        <v>7803</v>
+        <v>11.36</v>
       </c>
       <c r="AA193">
-        <v>11.36</v>
-      </c>
-      <c r="AB193">
         <v>168</v>
       </c>
     </row>
-    <row r="194" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>10.24</v>
       </c>
@@ -19329,16 +18747,13 @@
         <v>41.1</v>
       </c>
       <c r="Z194">
-        <v>32307</v>
+        <v>39.18</v>
       </c>
       <c r="AA194">
-        <v>39.18</v>
-      </c>
-      <c r="AB194">
         <v>329</v>
       </c>
     </row>
-    <row r="195" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>9.7799999999999994</v>
       </c>
@@ -19415,16 +18830,13 @@
         <v>22.1</v>
       </c>
       <c r="Z195">
-        <v>44582</v>
+        <v>38.44</v>
       </c>
       <c r="AA195">
-        <v>38.44</v>
-      </c>
-      <c r="AB195">
         <v>654</v>
       </c>
     </row>
-    <row r="196" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>8.99</v>
       </c>
@@ -19501,16 +18913,13 @@
         <v>36.9</v>
       </c>
       <c r="Z196">
-        <v>49124</v>
+        <v>31.87</v>
       </c>
       <c r="AA196">
-        <v>31.87</v>
-      </c>
-      <c r="AB196">
         <v>611</v>
       </c>
     </row>
-    <row r="197" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>7.76</v>
       </c>
@@ -19587,16 +18996,13 @@
         <v>32.4</v>
       </c>
       <c r="Z197">
-        <v>50175</v>
+        <v>14.38</v>
       </c>
       <c r="AA197">
-        <v>14.38</v>
-      </c>
-      <c r="AB197">
         <v>687</v>
       </c>
     </row>
-    <row r="198" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>9.2899999999999991</v>
       </c>
@@ -19673,16 +19079,13 @@
         <v>26.6</v>
       </c>
       <c r="Z198">
-        <v>29341</v>
+        <v>11.81</v>
       </c>
       <c r="AA198">
-        <v>11.81</v>
-      </c>
-      <c r="AB198">
         <v>230</v>
       </c>
     </row>
-    <row r="199" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>8.57</v>
       </c>
@@ -19759,16 +19162,13 @@
         <v>29.3</v>
       </c>
       <c r="Z199">
-        <v>43827</v>
+        <v>28.01</v>
       </c>
       <c r="AA199">
-        <v>28.01</v>
-      </c>
-      <c r="AB199">
         <v>669</v>
       </c>
     </row>
-    <row r="200" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>8.6999999999999993</v>
       </c>
@@ -19845,16 +19245,13 @@
         <v>30</v>
       </c>
       <c r="Z200">
-        <v>28497</v>
+        <v>34.25</v>
       </c>
       <c r="AA200">
-        <v>34.25</v>
-      </c>
-      <c r="AB200">
         <v>256</v>
       </c>
     </row>
-    <row r="201" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>7.75</v>
       </c>
@@ -19931,16 +19328,13 @@
         <v>31.6</v>
       </c>
       <c r="Z201">
-        <v>21530</v>
+        <v>21.76</v>
       </c>
       <c r="AA201">
-        <v>21.76</v>
-      </c>
-      <c r="AB201">
         <v>246</v>
       </c>
     </row>
-    <row r="202" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>11.03</v>
       </c>
@@ -20017,16 +19411,13 @@
         <v>32.700000000000003</v>
       </c>
       <c r="Z202">
-        <v>28750</v>
+        <v>47.7</v>
       </c>
       <c r="AA202">
-        <v>47.7</v>
-      </c>
-      <c r="AB202">
         <v>342</v>
       </c>
     </row>
-    <row r="203" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>9.26</v>
       </c>
@@ -20103,16 +19494,13 @@
         <v>34.200000000000003</v>
       </c>
       <c r="Z203">
-        <v>46782</v>
+        <v>35.18</v>
       </c>
       <c r="AA203">
-        <v>35.18</v>
-      </c>
-      <c r="AB203">
         <v>586</v>
       </c>
     </row>
-    <row r="204" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>7.92</v>
       </c>
@@ -20189,16 +19577,13 @@
         <v>21.4</v>
       </c>
       <c r="Z204">
-        <v>32737</v>
+        <v>26.12</v>
       </c>
       <c r="AA204">
-        <v>26.12</v>
-      </c>
-      <c r="AB204">
         <v>253</v>
       </c>
     </row>
-    <row r="205" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>9.07</v>
       </c>
@@ -20275,16 +19660,13 @@
         <v>11.8</v>
       </c>
       <c r="Z205">
-        <v>33856</v>
+        <v>37.92</v>
       </c>
       <c r="AA205">
-        <v>37.92</v>
-      </c>
-      <c r="AB205">
         <v>430</v>
       </c>
     </row>
-    <row r="206" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>9.43</v>
       </c>
@@ -20361,16 +19743,13 @@
         <v>21.8</v>
       </c>
       <c r="Z206">
-        <v>29984</v>
+        <v>18.309999999999999</v>
       </c>
       <c r="AA206">
-        <v>18.309999999999999</v>
-      </c>
-      <c r="AB206">
         <v>269</v>
       </c>
     </row>
-    <row r="207" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>11.36</v>
       </c>
@@ -20447,16 +19826,13 @@
         <v>18.2</v>
       </c>
       <c r="Z207">
-        <v>32204</v>
+        <v>44.87</v>
       </c>
       <c r="AA207">
-        <v>44.87</v>
-      </c>
-      <c r="AB207">
         <v>239</v>
       </c>
     </row>
-    <row r="208" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>10.52</v>
       </c>
@@ -20533,16 +19909,13 @@
         <v>21.7</v>
       </c>
       <c r="Z208">
-        <v>53296</v>
+        <v>59.35</v>
       </c>
       <c r="AA208">
-        <v>59.35</v>
-      </c>
-      <c r="AB208">
         <v>1153</v>
       </c>
     </row>
-    <row r="209" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>7.89</v>
       </c>
@@ -20619,16 +19992,13 @@
         <v>39.200000000000003</v>
       </c>
       <c r="Z209">
-        <v>39659</v>
+        <v>14.36</v>
       </c>
       <c r="AA209">
-        <v>14.36</v>
-      </c>
-      <c r="AB209">
         <v>487</v>
       </c>
     </row>
-    <row r="210" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>7.71</v>
       </c>
@@ -20705,16 +20075,13 @@
         <v>36.799999999999997</v>
       </c>
       <c r="Z210">
-        <v>41064</v>
+        <v>23.59</v>
       </c>
       <c r="AA210">
-        <v>23.59</v>
-      </c>
-      <c r="AB210">
         <v>466</v>
       </c>
     </row>
-    <row r="211" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>9.1</v>
       </c>
@@ -20791,16 +20158,13 @@
         <v>24.4</v>
       </c>
       <c r="Z211">
-        <v>24670</v>
+        <v>20.5</v>
       </c>
       <c r="AA211">
-        <v>20.5</v>
-      </c>
-      <c r="AB211">
         <v>302</v>
       </c>
     </row>
-    <row r="212" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>8.81</v>
       </c>
@@ -20877,16 +20241,13 @@
         <v>33.200000000000003</v>
       </c>
       <c r="Z212">
-        <v>16275</v>
+        <v>100</v>
       </c>
       <c r="AA212">
-        <v>100</v>
-      </c>
-      <c r="AB212">
         <v>202</v>
       </c>
     </row>
-    <row r="213" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>8.48</v>
       </c>
@@ -20963,16 +20324,13 @@
         <v>34.1</v>
       </c>
       <c r="Z213">
-        <v>9400</v>
+        <v>100</v>
       </c>
       <c r="AA213">
-        <v>100</v>
-      </c>
-      <c r="AB213">
         <v>180</v>
       </c>
     </row>
-    <row r="214" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>8.08</v>
       </c>
@@ -21049,16 +20407,13 @@
         <v>106</v>
       </c>
       <c r="Z214">
-        <v>12726</v>
+        <v>100</v>
       </c>
       <c r="AA214">
-        <v>100</v>
-      </c>
-      <c r="AB214">
         <v>258</v>
       </c>
     </row>
-    <row r="215" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>7.35</v>
       </c>
@@ -21135,16 +20490,13 @@
         <v>81</v>
       </c>
       <c r="Z215">
-        <v>23029</v>
+        <v>100</v>
       </c>
       <c r="AA215">
-        <v>100</v>
-      </c>
-      <c r="AB215">
         <v>221</v>
       </c>
     </row>
-    <row r="216" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>11.18</v>
       </c>
@@ -21221,16 +20573,13 @@
         <v>190.2</v>
       </c>
       <c r="Z216">
-        <v>39596</v>
+        <v>55.85</v>
       </c>
       <c r="AA216">
-        <v>55.85</v>
-      </c>
-      <c r="AB216">
         <v>582</v>
       </c>
     </row>
-    <row r="217" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>7.19</v>
       </c>
@@ -21307,16 +20656,13 @@
         <v>67.3</v>
       </c>
       <c r="Z217">
-        <v>13547</v>
+        <v>36.69</v>
       </c>
       <c r="AA217">
-        <v>36.69</v>
-      </c>
-      <c r="AB217">
         <v>161</v>
       </c>
     </row>
-    <row r="218" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>7.51</v>
       </c>
@@ -21393,16 +20739,13 @@
         <v>23.1</v>
       </c>
       <c r="Z218">
-        <v>16589</v>
+        <v>53.52</v>
       </c>
       <c r="AA218">
-        <v>53.52</v>
-      </c>
-      <c r="AB218">
         <v>248</v>
       </c>
     </row>
-    <row r="219" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>9.07</v>
       </c>
@@ -21479,16 +20822,13 @@
         <v>23.5</v>
       </c>
       <c r="Z219">
-        <v>38618</v>
+        <v>56.82</v>
       </c>
       <c r="AA219">
-        <v>56.82</v>
-      </c>
-      <c r="AB219">
         <v>1043</v>
       </c>
     </row>
-    <row r="220" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>8.08</v>
       </c>
@@ -21565,16 +20905,13 @@
         <v>39.1</v>
       </c>
       <c r="Z220">
-        <v>14739</v>
+        <v>51.16</v>
       </c>
       <c r="AA220">
-        <v>51.16</v>
-      </c>
-      <c r="AB220">
         <v>363</v>
       </c>
     </row>
-    <row r="221" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>7.89</v>
       </c>
@@ -21651,16 +20988,13 @@
         <v>34</v>
       </c>
       <c r="Z221">
-        <v>17401</v>
+        <v>32.47</v>
       </c>
       <c r="AA221">
-        <v>32.47</v>
-      </c>
-      <c r="AB221">
         <v>318</v>
       </c>
     </row>
-    <row r="222" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>6.38</v>
       </c>
@@ -21737,16 +21071,13 @@
         <v>36.700000000000003</v>
       </c>
       <c r="Z222">
-        <v>11760</v>
+        <v>7.39</v>
       </c>
       <c r="AA222">
-        <v>7.39</v>
-      </c>
-      <c r="AB222">
         <v>482</v>
       </c>
     </row>
-    <row r="223" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>8.9</v>
       </c>
@@ -21823,16 +21154,13 @@
         <v>27.7</v>
       </c>
       <c r="Z223">
-        <v>14249</v>
+        <v>36.130000000000003</v>
       </c>
       <c r="AA223">
-        <v>36.130000000000003</v>
-      </c>
-      <c r="AB223">
         <v>144</v>
       </c>
     </row>
-    <row r="224" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>8.9600000000000009</v>
       </c>
@@ -21909,16 +21237,13 @@
         <v>1.2</v>
       </c>
       <c r="Z224">
-        <v>17861</v>
+        <v>26.2</v>
       </c>
       <c r="AA224">
-        <v>26.2</v>
-      </c>
-      <c r="AB224">
         <v>380</v>
       </c>
     </row>
-    <row r="225" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>6.68</v>
       </c>
@@ -21995,16 +21320,13 @@
         <v>23.7</v>
       </c>
       <c r="Z225">
-        <v>13588</v>
+        <v>37.01</v>
       </c>
       <c r="AA225">
-        <v>37.01</v>
-      </c>
-      <c r="AB225">
         <v>255</v>
       </c>
     </row>
-    <row r="226" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>7.83</v>
       </c>
@@ -22081,16 +21403,13 @@
         <v>33</v>
       </c>
       <c r="Z226">
-        <v>5961</v>
+        <v>42.22</v>
       </c>
       <c r="AA226">
-        <v>42.22</v>
-      </c>
-      <c r="AB226">
         <v>97</v>
       </c>
     </row>
-    <row r="227" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>6.83</v>
       </c>
@@ -22167,16 +21486,13 @@
         <v>19.899999999999999</v>
       </c>
       <c r="Z227">
-        <v>12778</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="AA227">
-        <v>33.200000000000003</v>
-      </c>
-      <c r="AB227">
         <v>406</v>
       </c>
     </row>
-    <row r="228" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>7.42</v>
       </c>
@@ -22253,16 +21569,13 @@
         <v>24.6</v>
       </c>
       <c r="Z228">
-        <v>19338</v>
+        <v>50.75</v>
       </c>
       <c r="AA228">
-        <v>50.75</v>
-      </c>
-      <c r="AB228">
         <v>357</v>
       </c>
     </row>
-    <row r="229" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>9.16</v>
       </c>
@@ -22339,16 +21652,13 @@
         <v>3.4</v>
       </c>
       <c r="Z229">
-        <v>12805</v>
+        <v>100</v>
       </c>
       <c r="AA229">
-        <v>100</v>
-      </c>
-      <c r="AB229">
         <v>282</v>
       </c>
     </row>
-    <row r="230" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>8.86</v>
       </c>
@@ -22425,16 +21735,13 @@
         <v>28.7</v>
       </c>
       <c r="Z230">
-        <v>16410</v>
+        <v>100</v>
       </c>
       <c r="AA230">
-        <v>100</v>
-      </c>
-      <c r="AB230">
         <v>448</v>
       </c>
     </row>
-    <row r="231" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>8.99</v>
       </c>
@@ -22511,16 +21818,13 @@
         <v>68.3</v>
       </c>
       <c r="Z231">
-        <v>14362</v>
+        <v>100</v>
       </c>
       <c r="AA231">
-        <v>100</v>
-      </c>
-      <c r="AB231">
         <v>213</v>
       </c>
     </row>
-    <row r="232" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>10.77</v>
       </c>
@@ -22597,16 +21901,13 @@
         <v>124.3</v>
       </c>
       <c r="Z232">
-        <v>68275</v>
+        <v>34.18</v>
       </c>
       <c r="AA232">
-        <v>34.18</v>
-      </c>
-      <c r="AB232">
         <v>684</v>
       </c>
     </row>
-    <row r="233" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>9.08</v>
       </c>
@@ -22683,16 +21984,13 @@
         <v>54</v>
       </c>
       <c r="Z233">
-        <v>18124</v>
+        <v>56.08</v>
       </c>
       <c r="AA233">
-        <v>56.08</v>
-      </c>
-      <c r="AB233">
         <v>196</v>
       </c>
     </row>
-    <row r="234" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>9.7200000000000006</v>
       </c>
@@ -22769,16 +22067,13 @@
         <v>47.8</v>
       </c>
       <c r="Z234">
-        <v>20646</v>
+        <v>43.57</v>
       </c>
       <c r="AA234">
-        <v>43.57</v>
-      </c>
-      <c r="AB234">
         <v>236</v>
       </c>
     </row>
-    <row r="235" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>10.8</v>
       </c>
@@ -22855,16 +22150,13 @@
         <v>22.5</v>
       </c>
       <c r="Z235">
-        <v>35342</v>
+        <v>26.24</v>
       </c>
       <c r="AA235">
-        <v>26.24</v>
-      </c>
-      <c r="AB235">
         <v>541</v>
       </c>
     </row>
-    <row r="236" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>10.93</v>
       </c>
@@ -22941,16 +22233,13 @@
         <v>40.4</v>
       </c>
       <c r="Z236">
-        <v>52494</v>
+        <v>14.8</v>
       </c>
       <c r="AA236">
-        <v>14.8</v>
-      </c>
-      <c r="AB236">
         <v>553</v>
       </c>
     </row>
-    <row r="237" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>9.06</v>
       </c>
@@ -23027,16 +22316,13 @@
         <v>18.600000000000001</v>
       </c>
       <c r="Z237">
-        <v>26812</v>
+        <v>32.61</v>
       </c>
       <c r="AA237">
-        <v>32.61</v>
-      </c>
-      <c r="AB237">
         <v>308</v>
       </c>
     </row>
-    <row r="238" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>11.5</v>
       </c>
@@ -23113,16 +22399,13 @@
         <v>18.3</v>
       </c>
       <c r="Z238">
-        <v>36716</v>
+        <v>56.6</v>
       </c>
       <c r="AA238">
-        <v>56.6</v>
-      </c>
-      <c r="AB238">
         <v>428</v>
       </c>
     </row>
-    <row r="239" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>15.43</v>
       </c>
@@ -23199,16 +22482,13 @@
         <v>31.1</v>
       </c>
       <c r="Z239">
-        <v>72874</v>
+        <v>58.47</v>
       </c>
       <c r="AA239">
-        <v>58.47</v>
-      </c>
-      <c r="AB239">
         <v>628</v>
       </c>
     </row>
-    <row r="240" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>11.52</v>
       </c>
@@ -23285,16 +22565,13 @@
         <v>49.2</v>
       </c>
       <c r="Z240">
-        <v>36050</v>
+        <v>66.97</v>
       </c>
       <c r="AA240">
-        <v>66.97</v>
-      </c>
-      <c r="AB240">
         <v>241</v>
       </c>
     </row>
-    <row r="241" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>8.7200000000000006</v>
       </c>
@@ -23371,16 +22648,13 @@
         <v>17</v>
       </c>
       <c r="Z241">
-        <v>30600</v>
+        <v>31.47</v>
       </c>
       <c r="AA241">
-        <v>31.47</v>
-      </c>
-      <c r="AB241">
         <v>634</v>
       </c>
     </row>
-    <row r="242" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>9.67</v>
       </c>
@@ -23457,16 +22731,13 @@
         <v>12.4</v>
       </c>
       <c r="Z242">
-        <v>39566</v>
+        <v>30.67</v>
       </c>
       <c r="AA242">
-        <v>30.67</v>
-      </c>
-      <c r="AB242">
         <v>334</v>
       </c>
     </row>
-    <row r="243" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>8.7200000000000006</v>
       </c>
@@ -23543,16 +22814,13 @@
         <v>42.6</v>
       </c>
       <c r="Z243">
-        <v>24551</v>
+        <v>18.98</v>
       </c>
       <c r="AA243">
-        <v>18.98</v>
-      </c>
-      <c r="AB243">
         <v>277</v>
       </c>
     </row>
-    <row r="244" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>7.61</v>
       </c>
@@ -23629,16 +22897,13 @@
         <v>13</v>
       </c>
       <c r="Z244">
-        <v>11854</v>
+        <v>47.31</v>
       </c>
       <c r="AA244">
-        <v>47.31</v>
-      </c>
-      <c r="AB244">
         <v>257</v>
       </c>
     </row>
-    <row r="245" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>10.7</v>
       </c>
@@ -23715,16 +22980,13 @@
         <v>28.4</v>
       </c>
       <c r="Z245">
-        <v>31805</v>
+        <v>63.91</v>
       </c>
       <c r="AA245">
-        <v>63.91</v>
-      </c>
-      <c r="AB245">
         <v>420</v>
       </c>
     </row>
-    <row r="246" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>9.06</v>
       </c>
@@ -23801,16 +23063,13 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="Z246">
-        <v>35769</v>
+        <v>57.11</v>
       </c>
       <c r="AA246">
-        <v>57.11</v>
-      </c>
-      <c r="AB246">
         <v>652</v>
       </c>
     </row>
-    <row r="247" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>10.49</v>
       </c>
@@ -23887,16 +23146,13 @@
         <v>25.7</v>
       </c>
       <c r="Z247">
-        <v>54051</v>
+        <v>36.78</v>
       </c>
       <c r="AA247">
-        <v>36.78</v>
-      </c>
-      <c r="AB247">
         <v>500</v>
       </c>
     </row>
-    <row r="248" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>9.33</v>
       </c>
@@ -23973,16 +23229,13 @@
         <v>37.1</v>
       </c>
       <c r="Z248">
-        <v>45610</v>
+        <v>100</v>
       </c>
       <c r="AA248">
-        <v>100</v>
-      </c>
-      <c r="AB248">
         <v>479</v>
       </c>
     </row>
-    <row r="249" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>12.16</v>
       </c>
@@ -24059,16 +23312,13 @@
         <v>34</v>
       </c>
       <c r="Z249">
-        <v>98727</v>
+        <v>100</v>
       </c>
       <c r="AA249">
-        <v>100</v>
-      </c>
-      <c r="AB249">
         <v>847</v>
       </c>
     </row>
-    <row r="250" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>8.17</v>
       </c>
@@ -24145,16 +23395,13 @@
         <v>39.4</v>
       </c>
       <c r="Z250">
-        <v>17282</v>
+        <v>100</v>
       </c>
       <c r="AA250">
-        <v>100</v>
-      </c>
-      <c r="AB250">
         <v>131</v>
       </c>
     </row>
-    <row r="251" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>11.31</v>
       </c>
@@ -24231,16 +23478,13 @@
         <v>106.5</v>
       </c>
       <c r="Z251">
-        <v>103561</v>
+        <v>100</v>
       </c>
       <c r="AA251">
-        <v>100</v>
-      </c>
-      <c r="AB251">
         <v>1166</v>
       </c>
     </row>
-    <row r="252" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>8.09</v>
       </c>
@@ -24317,16 +23561,13 @@
         <v>77.7</v>
       </c>
       <c r="Z252">
-        <v>50413</v>
+        <v>73.61</v>
       </c>
       <c r="AA252">
-        <v>73.61</v>
-      </c>
-      <c r="AB252">
         <v>623</v>
       </c>
     </row>
-    <row r="253" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>7.76</v>
       </c>
@@ -24403,16 +23644,13 @@
         <v>69.8</v>
       </c>
       <c r="Z253">
-        <v>26258</v>
+        <v>26.87</v>
       </c>
       <c r="AA253">
-        <v>26.87</v>
-      </c>
-      <c r="AB253">
         <v>212</v>
       </c>
     </row>
-    <row r="254" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>6.36</v>
       </c>
@@ -24489,16 +23727,13 @@
         <v>105.1</v>
       </c>
       <c r="Z254">
-        <v>6847</v>
+        <v>44.36</v>
       </c>
       <c r="AA254">
-        <v>44.36</v>
-      </c>
-      <c r="AB254">
         <v>99</v>
       </c>
     </row>
-    <row r="255" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>7.04</v>
       </c>
@@ -24575,16 +23810,13 @@
         <v>41</v>
       </c>
       <c r="Z255">
-        <v>29677</v>
+        <v>11.41</v>
       </c>
       <c r="AA255">
-        <v>11.41</v>
-      </c>
-      <c r="AB255">
         <v>818</v>
       </c>
     </row>
-    <row r="256" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>10.050000000000001</v>
       </c>
@@ -24661,16 +23893,13 @@
         <v>26.6</v>
       </c>
       <c r="Z256">
-        <v>35974</v>
+        <v>53.5</v>
       </c>
       <c r="AA256">
-        <v>53.5</v>
-      </c>
-      <c r="AB256">
         <v>570</v>
       </c>
     </row>
-    <row r="257" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>9.07</v>
       </c>
@@ -24747,16 +23976,13 @@
         <v>47.2</v>
       </c>
       <c r="Z257">
-        <v>42085</v>
+        <v>20.3</v>
       </c>
       <c r="AA257">
-        <v>20.3</v>
-      </c>
-      <c r="AB257">
         <v>430</v>
       </c>
     </row>
-    <row r="258" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>7.91</v>
       </c>
@@ -24833,16 +24059,13 @@
         <v>32.799999999999997</v>
       </c>
       <c r="Z258">
-        <v>40926</v>
+        <v>36.590000000000003</v>
       </c>
       <c r="AA258">
-        <v>36.590000000000003</v>
-      </c>
-      <c r="AB258">
         <v>911</v>
       </c>
     </row>
-    <row r="259" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>9.14</v>
       </c>
@@ -24919,16 +24142,13 @@
         <v>48.6</v>
       </c>
       <c r="Z259">
-        <v>22359</v>
+        <v>85.1</v>
       </c>
       <c r="AA259">
-        <v>85.1</v>
-      </c>
-      <c r="AB259">
         <v>418</v>
       </c>
     </row>
-    <row r="260" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>9.06</v>
       </c>
@@ -25005,16 +24225,13 @@
         <v>20.8</v>
       </c>
       <c r="Z260">
-        <v>26623</v>
+        <v>54.25</v>
       </c>
       <c r="AA260">
-        <v>54.25</v>
-      </c>
-      <c r="AB260">
         <v>479</v>
       </c>
     </row>
-    <row r="261" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>8.9700000000000006</v>
       </c>
@@ -25091,16 +24308,13 @@
         <v>46.9</v>
       </c>
       <c r="Z261">
-        <v>24499</v>
+        <v>22.99</v>
       </c>
       <c r="AA261">
-        <v>22.99</v>
-      </c>
-      <c r="AB261">
         <v>190</v>
       </c>
     </row>
-    <row r="262" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>10.01</v>
       </c>
@@ -25177,16 +24391,13 @@
         <v>42.8</v>
       </c>
       <c r="Z262">
-        <v>19511</v>
+        <v>57.37</v>
       </c>
       <c r="AA262">
-        <v>57.37</v>
-      </c>
-      <c r="AB262">
         <v>416</v>
       </c>
     </row>
-    <row r="263" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>7.67</v>
       </c>
@@ -25263,16 +24474,13 @@
         <v>54.6</v>
       </c>
       <c r="Z263">
-        <v>25646</v>
+        <v>35.68</v>
       </c>
       <c r="AA263">
-        <v>35.68</v>
-      </c>
-      <c r="AB263">
         <v>419</v>
       </c>
     </row>
-    <row r="264" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>10.17</v>
       </c>
@@ -25349,16 +24557,13 @@
         <v>35.299999999999997</v>
       </c>
       <c r="Z264">
-        <v>25131</v>
+        <v>67.209999999999994</v>
       </c>
       <c r="AA264">
-        <v>67.209999999999994</v>
-      </c>
-      <c r="AB264">
         <v>383</v>
       </c>
     </row>
-    <row r="265" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>7.53</v>
       </c>
@@ -25435,16 +24640,13 @@
         <v>32.6</v>
       </c>
       <c r="Z265">
-        <v>21784</v>
+        <v>75.849999999999994</v>
       </c>
       <c r="AA265">
-        <v>75.849999999999994</v>
-      </c>
-      <c r="AB265">
         <v>412</v>
       </c>
     </row>
-    <row r="266" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>10.07</v>
       </c>
@@ -25521,16 +24723,13 @@
         <v>10</v>
       </c>
       <c r="Z266">
-        <v>17736</v>
+        <v>64.099999999999994</v>
       </c>
       <c r="AA266">
-        <v>64.099999999999994</v>
-      </c>
-      <c r="AB266">
         <v>209</v>
       </c>
     </row>
-    <row r="267" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>8.57</v>
       </c>
@@ -25607,16 +24806,13 @@
         <v>57</v>
       </c>
       <c r="Z267">
-        <v>35440</v>
+        <v>63.08</v>
       </c>
       <c r="AA267">
-        <v>63.08</v>
-      </c>
-      <c r="AB267">
         <v>401</v>
       </c>
     </row>
-    <row r="268" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>10.01</v>
       </c>
@@ -25693,16 +24889,13 @@
         <v>27.1</v>
       </c>
       <c r="Z268">
-        <v>11419</v>
+        <v>20.190000000000001</v>
       </c>
       <c r="AA268">
-        <v>20.190000000000001</v>
-      </c>
-      <c r="AB268">
         <v>234</v>
       </c>
     </row>
-    <row r="269" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>8.7899999999999991</v>
       </c>
@@ -25779,16 +24972,13 @@
         <v>31.2</v>
       </c>
       <c r="Z269">
-        <v>40141</v>
+        <v>100</v>
       </c>
       <c r="AA269">
-        <v>100</v>
-      </c>
-      <c r="AB269">
         <v>269</v>
       </c>
     </row>
-    <row r="270" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>7.27</v>
       </c>
@@ -25865,16 +25055,13 @@
         <v>28.8</v>
       </c>
       <c r="Z270">
-        <v>27059</v>
+        <v>100</v>
       </c>
       <c r="AA270">
-        <v>100</v>
-      </c>
-      <c r="AB270">
         <v>575</v>
       </c>
     </row>
-    <row r="271" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>9.42</v>
       </c>
@@ -25951,16 +25138,13 @@
         <v>25.7</v>
       </c>
       <c r="Z271">
-        <v>44395</v>
+        <v>100</v>
       </c>
       <c r="AA271">
-        <v>100</v>
-      </c>
-      <c r="AB271">
         <v>645</v>
       </c>
     </row>
-    <row r="272" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>8.92</v>
       </c>
@@ -26037,16 +25221,13 @@
         <v>115.5</v>
       </c>
       <c r="Z272">
-        <v>37439</v>
+        <v>100</v>
       </c>
       <c r="AA272">
-        <v>100</v>
-      </c>
-      <c r="AB272">
         <v>428</v>
       </c>
     </row>
-    <row r="273" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>7.62</v>
       </c>
@@ -26123,16 +25304,13 @@
         <v>66.5</v>
       </c>
       <c r="Z273">
-        <v>44362</v>
+        <v>100</v>
       </c>
       <c r="AA273">
-        <v>100</v>
-      </c>
-      <c r="AB273">
         <v>297</v>
       </c>
     </row>
-    <row r="274" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>8.11</v>
       </c>
@@ -26209,16 +25387,13 @@
         <v>97.2</v>
       </c>
       <c r="Z274">
-        <v>31396</v>
+        <v>100</v>
       </c>
       <c r="AA274">
-        <v>100</v>
-      </c>
-      <c r="AB274">
         <v>201</v>
       </c>
     </row>
-    <row r="275" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>7.15</v>
       </c>
@@ -26295,16 +25470,13 @@
         <v>97.8</v>
       </c>
       <c r="Z275">
-        <v>52493</v>
+        <v>100</v>
       </c>
       <c r="AA275">
-        <v>100</v>
-      </c>
-      <c r="AB275">
         <v>782</v>
       </c>
     </row>
-    <row r="276" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>7.27</v>
       </c>
@@ -26381,16 +25553,13 @@
         <v>54.5</v>
       </c>
       <c r="Z276">
-        <v>19576</v>
+        <v>100</v>
       </c>
       <c r="AA276">
-        <v>100</v>
-      </c>
-      <c r="AB276">
         <v>212</v>
       </c>
     </row>
-    <row r="277" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>8.86</v>
       </c>
@@ -26467,16 +25636,13 @@
         <v>94.8</v>
       </c>
       <c r="Z277">
-        <v>31151</v>
+        <v>100</v>
       </c>
       <c r="AA277">
-        <v>100</v>
-      </c>
-      <c r="AB277">
         <v>397</v>
       </c>
     </row>
-    <row r="278" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>8.1300000000000008</v>
       </c>
@@ -26553,16 +25719,13 @@
         <v>60.7</v>
       </c>
       <c r="Z278">
-        <v>20608</v>
+        <v>100</v>
       </c>
       <c r="AA278">
-        <v>100</v>
-      </c>
-      <c r="AB278">
         <v>201</v>
       </c>
     </row>
-    <row r="279" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>8</v>
       </c>
@@ -26639,16 +25802,13 @@
         <v>60.1</v>
       </c>
       <c r="Z279">
-        <v>25628</v>
+        <v>100</v>
       </c>
       <c r="AA279">
-        <v>100</v>
-      </c>
-      <c r="AB279">
         <v>404</v>
       </c>
     </row>
-    <row r="280" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>8.6300000000000008</v>
       </c>
@@ -26725,16 +25885,13 @@
         <v>199.4</v>
       </c>
       <c r="Z280">
-        <v>48885</v>
+        <v>100</v>
       </c>
       <c r="AA280">
-        <v>100</v>
-      </c>
-      <c r="AB280">
         <v>682</v>
       </c>
     </row>
-    <row r="281" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>9.1300000000000008</v>
       </c>
@@ -26811,16 +25968,13 @@
         <v>49.9</v>
       </c>
       <c r="Z281">
-        <v>17395</v>
+        <v>100</v>
       </c>
       <c r="AA281">
-        <v>100</v>
-      </c>
-      <c r="AB281">
         <v>122</v>
       </c>
     </row>
-    <row r="282" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>8.4600000000000009</v>
       </c>
@@ -26897,16 +26051,13 @@
         <v>79.900000000000006</v>
       </c>
       <c r="Z282">
-        <v>13303</v>
+        <v>100</v>
       </c>
       <c r="AA282">
-        <v>100</v>
-      </c>
-      <c r="AB282">
         <v>108</v>
       </c>
     </row>
-    <row r="283" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>8.89</v>
       </c>
@@ -26983,16 +26134,13 @@
         <v>66</v>
       </c>
       <c r="Z283">
-        <v>41941</v>
+        <v>100</v>
       </c>
       <c r="AA283">
-        <v>100</v>
-      </c>
-      <c r="AB283">
         <v>267</v>
       </c>
     </row>
-    <row r="284" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>9.02</v>
       </c>
@@ -27069,16 +26217,13 @@
         <v>51.6</v>
       </c>
       <c r="Z284">
-        <v>30272</v>
+        <v>100</v>
       </c>
       <c r="AA284">
-        <v>100</v>
-      </c>
-      <c r="AB284">
         <v>365</v>
       </c>
     </row>
-    <row r="285" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>8.09</v>
       </c>
@@ -27155,16 +26300,13 @@
         <v>70</v>
       </c>
       <c r="Z285">
-        <v>17162</v>
+        <v>100</v>
       </c>
       <c r="AA285">
-        <v>100</v>
-      </c>
-      <c r="AB285">
         <v>134</v>
       </c>
     </row>
-    <row r="286" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>6.83</v>
       </c>
@@ -27241,16 +26383,13 @@
         <v>96</v>
       </c>
       <c r="Z286">
-        <v>38852</v>
+        <v>100</v>
       </c>
       <c r="AA286">
-        <v>100</v>
-      </c>
-      <c r="AB286">
         <v>177</v>
       </c>
     </row>
-    <row r="287" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>8.67</v>
       </c>
@@ -27327,16 +26466,13 @@
         <v>63.1</v>
       </c>
       <c r="Z287">
-        <v>13601</v>
+        <v>100</v>
       </c>
       <c r="AA287">
-        <v>100</v>
-      </c>
-      <c r="AB287">
         <v>82</v>
       </c>
     </row>
-    <row r="288" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>8.18</v>
       </c>
@@ -27413,16 +26549,13 @@
         <v>73.5</v>
       </c>
       <c r="Z288">
-        <v>20660</v>
+        <v>27.51</v>
       </c>
       <c r="AA288">
-        <v>27.51</v>
-      </c>
-      <c r="AB288">
         <v>372</v>
       </c>
     </row>
-    <row r="289" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>8</v>
       </c>
@@ -27499,16 +26632,13 @@
         <v>94.1</v>
       </c>
       <c r="Z289">
-        <v>40783</v>
+        <v>29.26</v>
       </c>
       <c r="AA289">
-        <v>29.26</v>
-      </c>
-      <c r="AB289">
         <v>210</v>
       </c>
     </row>
-    <row r="290" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>8.73</v>
       </c>
@@ -27585,16 +26715,13 @@
         <v>46.3</v>
       </c>
       <c r="Z290">
-        <v>13628</v>
+        <v>21.08</v>
       </c>
       <c r="AA290">
-        <v>21.08</v>
-      </c>
-      <c r="AB290">
         <v>180</v>
       </c>
     </row>
-    <row r="291" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>7.7</v>
       </c>
@@ -27671,16 +26798,13 @@
         <v>47.7</v>
       </c>
       <c r="Z291">
-        <v>23992</v>
+        <v>8.91</v>
       </c>
       <c r="AA291">
-        <v>8.91</v>
-      </c>
-      <c r="AB291">
         <v>1007</v>
       </c>
     </row>
-    <row r="292" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>8.3000000000000007</v>
       </c>
@@ -27757,16 +26881,13 @@
         <v>28.6</v>
       </c>
       <c r="Z292">
-        <v>29153</v>
+        <v>34.83</v>
       </c>
       <c r="AA292">
-        <v>34.83</v>
-      </c>
-      <c r="AB292">
         <v>1006</v>
       </c>
     </row>
-    <row r="293" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>7.05</v>
       </c>
@@ -27843,16 +26964,13 @@
         <v>12</v>
       </c>
       <c r="Z293">
-        <v>9799</v>
+        <v>21.01</v>
       </c>
       <c r="AA293">
-        <v>21.01</v>
-      </c>
-      <c r="AB293">
         <v>533</v>
       </c>
     </row>
-    <row r="294" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>9.2799999999999994</v>
       </c>
@@ -27929,16 +27047,13 @@
         <v>27.7</v>
       </c>
       <c r="Z294">
-        <v>79694</v>
+        <v>68.03</v>
       </c>
       <c r="AA294">
-        <v>68.03</v>
-      </c>
-      <c r="AB294">
         <v>2355</v>
       </c>
     </row>
-    <row r="295" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>7.26</v>
       </c>
@@ -28015,16 +27130,13 @@
         <v>40.6</v>
       </c>
       <c r="Z295">
-        <v>34266</v>
+        <v>29.69</v>
       </c>
       <c r="AA295">
-        <v>29.69</v>
-      </c>
-      <c r="AB295">
         <v>745</v>
       </c>
     </row>
-    <row r="296" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>6.85</v>
       </c>
@@ -28101,16 +27213,13 @@
         <v>21.2</v>
       </c>
       <c r="Z296">
-        <v>17821</v>
+        <v>38.020000000000003</v>
       </c>
       <c r="AA296">
-        <v>38.020000000000003</v>
-      </c>
-      <c r="AB296">
         <v>906</v>
       </c>
     </row>
-    <row r="297" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>5.65</v>
       </c>
@@ -28187,16 +27296,13 @@
         <v>40.6</v>
       </c>
       <c r="Z297">
-        <v>41888</v>
+        <v>71.77</v>
       </c>
       <c r="AA297">
-        <v>71.77</v>
-      </c>
-      <c r="AB297">
         <v>902</v>
       </c>
     </row>
-    <row r="298" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>7.73</v>
       </c>
@@ -28273,16 +27379,13 @@
         <v>27.3</v>
       </c>
       <c r="Z298">
-        <v>13239</v>
+        <v>56.87</v>
       </c>
       <c r="AA298">
-        <v>56.87</v>
-      </c>
-      <c r="AB298">
         <v>534</v>
       </c>
     </row>
-    <row r="299" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>7.73</v>
       </c>
@@ -28359,16 +27462,13 @@
         <v>41.1</v>
       </c>
       <c r="Z299">
-        <v>30335</v>
+        <v>38.450000000000003</v>
       </c>
       <c r="AA299">
-        <v>38.450000000000003</v>
-      </c>
-      <c r="AB299">
         <v>772</v>
       </c>
     </row>
-    <row r="300" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>6.05</v>
       </c>
@@ -28445,16 +27545,13 @@
         <v>47.6</v>
       </c>
       <c r="Z300">
-        <v>23053</v>
+        <v>21.9</v>
       </c>
       <c r="AA300">
-        <v>21.9</v>
-      </c>
-      <c r="AB300">
         <v>466</v>
       </c>
     </row>
-    <row r="301" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>7.35</v>
       </c>
@@ -28531,16 +27628,13 @@
         <v>44.9</v>
       </c>
       <c r="Z301">
-        <v>37184</v>
+        <v>100</v>
       </c>
       <c r="AA301">
-        <v>100</v>
-      </c>
-      <c r="AB301">
         <v>733</v>
       </c>
     </row>
-    <row r="302" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>8.26</v>
       </c>
@@ -28617,16 +27711,13 @@
         <v>41.7</v>
       </c>
       <c r="Z302">
-        <v>24490</v>
+        <v>54.95</v>
       </c>
       <c r="AA302">
-        <v>54.95</v>
-      </c>
-      <c r="AB302">
         <v>926</v>
       </c>
     </row>
-    <row r="303" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>7.79</v>
       </c>
@@ -28703,16 +27794,13 @@
         <v>28.8</v>
       </c>
       <c r="Z303">
-        <v>14730</v>
+        <v>53.85</v>
       </c>
       <c r="AA303">
-        <v>53.85</v>
-      </c>
-      <c r="AB303">
         <v>638</v>
       </c>
     </row>
-    <row r="304" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>8.02</v>
       </c>
@@ -28789,16 +27877,13 @@
         <v>150.4</v>
       </c>
       <c r="Z304">
-        <v>51115</v>
+        <v>44.44</v>
       </c>
       <c r="AA304">
-        <v>44.44</v>
-      </c>
-      <c r="AB304">
         <v>575</v>
       </c>
     </row>
-    <row r="305" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>7.96</v>
       </c>
@@ -28875,16 +27960,13 @@
         <v>24.2</v>
       </c>
       <c r="Z305">
-        <v>21343</v>
+        <v>28.98</v>
       </c>
       <c r="AA305">
-        <v>28.98</v>
-      </c>
-      <c r="AB305">
         <v>279</v>
       </c>
     </row>
-    <row r="306" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>8.5500000000000007</v>
       </c>
@@ -28961,16 +28043,13 @@
         <v>30.7</v>
       </c>
       <c r="Z306">
-        <v>19081</v>
+        <v>67.73</v>
       </c>
       <c r="AA306">
-        <v>67.73</v>
-      </c>
-      <c r="AB306">
         <v>191</v>
       </c>
     </row>
-    <row r="307" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>8.8800000000000008</v>
       </c>
@@ -29047,16 +28126,13 @@
         <v>29.3</v>
       </c>
       <c r="Z307">
-        <v>23464</v>
+        <v>56.54</v>
       </c>
       <c r="AA307">
-        <v>56.54</v>
-      </c>
-      <c r="AB307">
         <v>290</v>
       </c>
     </row>
-    <row r="308" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>8.4499999999999993</v>
       </c>
@@ -29133,16 +28209,13 @@
         <v>17</v>
       </c>
       <c r="Z308">
-        <v>24114</v>
+        <v>57.55</v>
       </c>
       <c r="AA308">
-        <v>57.55</v>
-      </c>
-      <c r="AB308">
         <v>421</v>
       </c>
     </row>
-    <row r="309" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>9.41</v>
       </c>
@@ -29219,16 +28292,13 @@
         <v>35.5</v>
       </c>
       <c r="Z309">
-        <v>26622</v>
+        <v>57.42</v>
       </c>
       <c r="AA309">
-        <v>57.42</v>
-      </c>
-      <c r="AB309">
         <v>369</v>
       </c>
     </row>
-    <row r="310" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>7.54</v>
       </c>
@@ -29305,16 +28375,13 @@
         <v>31.1</v>
       </c>
       <c r="Z310">
-        <v>18372</v>
+        <v>59.08</v>
       </c>
       <c r="AA310">
-        <v>59.08</v>
-      </c>
-      <c r="AB310">
         <v>226</v>
       </c>
     </row>
-    <row r="311" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>9.23</v>
       </c>
@@ -29391,16 +28458,13 @@
         <v>20.399999999999999</v>
       </c>
       <c r="Z311">
-        <v>37779</v>
+        <v>50.65</v>
       </c>
       <c r="AA311">
-        <v>50.65</v>
-      </c>
-      <c r="AB311">
         <v>372</v>
       </c>
     </row>
-    <row r="312" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>7.25</v>
       </c>
@@ -29477,16 +28541,13 @@
         <v>20.7</v>
       </c>
       <c r="Z312">
-        <v>23269</v>
+        <v>41.51</v>
       </c>
       <c r="AA312">
-        <v>41.51</v>
-      </c>
-      <c r="AB312">
         <v>234</v>
       </c>
     </row>
-    <row r="313" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>7.87</v>
       </c>
@@ -29563,16 +28624,13 @@
         <v>23.7</v>
       </c>
       <c r="Z313">
-        <v>14296</v>
+        <v>24.49</v>
       </c>
       <c r="AA313">
-        <v>24.49</v>
-      </c>
-      <c r="AB313">
         <v>265</v>
       </c>
     </row>
-    <row r="314" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>7.37</v>
       </c>
@@ -29649,16 +28707,13 @@
         <v>29.7</v>
       </c>
       <c r="Z314">
-        <v>17093</v>
+        <v>48.14</v>
       </c>
       <c r="AA314">
-        <v>48.14</v>
-      </c>
-      <c r="AB314">
         <v>180</v>
       </c>
     </row>
-    <row r="315" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>8</v>
       </c>
@@ -29735,16 +28790,13 @@
         <v>3.6</v>
       </c>
       <c r="Z315">
-        <v>12578</v>
+        <v>30.4</v>
       </c>
       <c r="AA315">
-        <v>30.4</v>
-      </c>
-      <c r="AB315">
         <v>147</v>
       </c>
     </row>
-    <row r="316" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>10.3</v>
       </c>
@@ -29821,16 +28873,13 @@
         <v>4.7</v>
       </c>
       <c r="Z316">
-        <v>22996</v>
+        <v>49.41</v>
       </c>
       <c r="AA316">
-        <v>49.41</v>
-      </c>
-      <c r="AB316">
         <v>153</v>
       </c>
     </row>
-    <row r="317" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>8.4</v>
       </c>
@@ -29907,16 +28956,13 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Z317">
-        <v>10845</v>
+        <v>59.17</v>
       </c>
       <c r="AA317">
-        <v>59.17</v>
-      </c>
-      <c r="AB317">
         <v>161</v>
       </c>
     </row>
-    <row r="318" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>9.1300000000000008</v>
       </c>
@@ -29993,16 +29039,13 @@
         <v>6.7</v>
       </c>
       <c r="Z318">
-        <v>39101</v>
+        <v>40.950000000000003</v>
       </c>
       <c r="AA318">
-        <v>40.950000000000003</v>
-      </c>
-      <c r="AB318">
         <v>617</v>
       </c>
     </row>
-    <row r="319" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>8.27</v>
       </c>
@@ -30079,16 +29122,13 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="Z319">
-        <v>45854</v>
+        <v>51.34</v>
       </c>
       <c r="AA319">
-        <v>51.34</v>
-      </c>
-      <c r="AB319">
         <v>379</v>
       </c>
     </row>
-    <row r="320" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>8.7799999999999994</v>
       </c>
@@ -30165,16 +29205,13 @@
         <v>2</v>
       </c>
       <c r="Z320">
-        <v>19524</v>
+        <v>49.65</v>
       </c>
       <c r="AA320">
-        <v>49.65</v>
-      </c>
-      <c r="AB320">
         <v>119</v>
       </c>
     </row>
-    <row r="321" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>9.11</v>
       </c>
@@ -30251,16 +29288,13 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="Z321">
-        <v>28849</v>
+        <v>100</v>
       </c>
       <c r="AA321">
-        <v>100</v>
-      </c>
-      <c r="AB321">
         <v>263</v>
       </c>
     </row>
-    <row r="322" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>8.56</v>
       </c>
@@ -30337,16 +29371,13 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="Z322">
-        <v>9607</v>
+        <v>100</v>
       </c>
       <c r="AA322">
-        <v>100</v>
-      </c>
-      <c r="AB322">
         <v>198</v>
       </c>
     </row>
-    <row r="323" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>7.4</v>
       </c>
@@ -30423,16 +29454,13 @@
         <v>3.2</v>
       </c>
       <c r="Z323">
-        <v>7419</v>
+        <v>54.26</v>
       </c>
       <c r="AA323">
-        <v>54.26</v>
-      </c>
-      <c r="AB323">
         <v>128</v>
       </c>
     </row>
-    <row r="324" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>7.32</v>
       </c>
@@ -30509,16 +29537,13 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="Z324">
-        <v>33286</v>
+        <v>45.48</v>
       </c>
       <c r="AA324">
-        <v>45.48</v>
-      </c>
-      <c r="AB324">
         <v>330</v>
       </c>
     </row>
-    <row r="325" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>9.0399999999999991</v>
       </c>
@@ -30595,16 +29620,13 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="Z325">
-        <v>38703</v>
+        <v>60.77</v>
       </c>
       <c r="AA325">
-        <v>60.77</v>
-      </c>
-      <c r="AB325">
         <v>412</v>
       </c>
     </row>
-    <row r="326" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>8.8000000000000007</v>
       </c>
@@ -30681,16 +29703,13 @@
         <v>3.5</v>
       </c>
       <c r="Z326">
-        <v>15750</v>
+        <v>42.32</v>
       </c>
       <c r="AA326">
-        <v>42.32</v>
-      </c>
-      <c r="AB326">
         <v>268</v>
       </c>
     </row>
-    <row r="327" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>9.24</v>
       </c>
@@ -30767,16 +29786,13 @@
         <v>2.4</v>
       </c>
       <c r="Z327">
-        <v>29169</v>
+        <v>38.72</v>
       </c>
       <c r="AA327">
-        <v>38.72</v>
-      </c>
-      <c r="AB327">
         <v>319</v>
       </c>
     </row>
-    <row r="328" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>9.75</v>
       </c>
@@ -30853,16 +29869,13 @@
         <v>6.2</v>
       </c>
       <c r="Z328">
-        <v>47114</v>
+        <v>41.63</v>
       </c>
       <c r="AA328">
-        <v>41.63</v>
-      </c>
-      <c r="AB328">
         <v>771</v>
       </c>
     </row>
-    <row r="329" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>11.33</v>
       </c>
@@ -30939,16 +29952,13 @@
         <v>4.3</v>
       </c>
       <c r="Z329">
-        <v>23198</v>
+        <v>6.12</v>
       </c>
       <c r="AA329">
-        <v>6.12</v>
-      </c>
-      <c r="AB329">
         <v>309</v>
       </c>
     </row>
-    <row r="330" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>12.34</v>
       </c>
@@ -31025,16 +30035,13 @@
         <v>3.8</v>
       </c>
       <c r="Z330">
-        <v>21722</v>
+        <v>24.67</v>
       </c>
       <c r="AA330">
-        <v>24.67</v>
-      </c>
-      <c r="AB330">
         <v>101</v>
       </c>
     </row>
-    <row r="331" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>9.92</v>
       </c>
@@ -31111,16 +30118,13 @@
         <v>7.8</v>
       </c>
       <c r="Z331">
-        <v>26074</v>
+        <v>36.24</v>
       </c>
       <c r="AA331">
-        <v>36.24</v>
-      </c>
-      <c r="AB331">
         <v>435</v>
       </c>
     </row>
-    <row r="332" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>10.1</v>
       </c>
@@ -31197,16 +30201,13 @@
         <v>2.8</v>
       </c>
       <c r="Z332">
-        <v>29924</v>
+        <v>13.47</v>
       </c>
       <c r="AA332">
-        <v>13.47</v>
-      </c>
-      <c r="AB332">
         <v>439</v>
       </c>
     </row>
-    <row r="333" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>10</v>
       </c>
@@ -31283,16 +30284,13 @@
         <v>6.4</v>
       </c>
       <c r="Z333">
-        <v>17232</v>
+        <v>45.63</v>
       </c>
       <c r="AA333">
-        <v>45.63</v>
-      </c>
-      <c r="AB333">
         <v>242</v>
       </c>
     </row>
-    <row r="334" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>8.3699999999999992</v>
       </c>
@@ -31369,16 +30367,13 @@
         <v>2.8</v>
       </c>
       <c r="Z334">
-        <v>36276</v>
+        <v>59.27</v>
       </c>
       <c r="AA334">
-        <v>59.27</v>
-      </c>
-      <c r="AB334">
         <v>713</v>
       </c>
     </row>
-    <row r="335" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>8.94</v>
       </c>
@@ -31455,16 +30450,13 @@
         <v>3.9</v>
       </c>
       <c r="Z335">
-        <v>58115</v>
+        <v>9.17</v>
       </c>
       <c r="AA335">
-        <v>9.17</v>
-      </c>
-      <c r="AB335">
         <v>1052</v>
       </c>
     </row>
-    <row r="336" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>10.29</v>
       </c>
@@ -31541,16 +30533,13 @@
         <v>5</v>
       </c>
       <c r="Z336">
-        <v>30980</v>
+        <v>44.86</v>
       </c>
       <c r="AA336">
-        <v>44.86</v>
-      </c>
-      <c r="AB336">
         <v>155</v>
       </c>
     </row>
-    <row r="337" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>9.9499999999999993</v>
       </c>
@@ -31627,16 +30616,13 @@
         <v>3.2</v>
       </c>
       <c r="Z337">
-        <v>23939</v>
+        <v>45</v>
       </c>
       <c r="AA337">
-        <v>45</v>
-      </c>
-      <c r="AB337">
         <v>372</v>
       </c>
     </row>
-    <row r="338" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>12.06</v>
       </c>
@@ -31713,16 +30699,13 @@
         <v>11.1</v>
       </c>
       <c r="Z338">
-        <v>17482</v>
+        <v>48.43</v>
       </c>
       <c r="AA338">
-        <v>48.43</v>
-      </c>
-      <c r="AB338">
         <v>170</v>
       </c>
     </row>
-    <row r="339" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>9.6199999999999992</v>
       </c>
@@ -31799,16 +30782,13 @@
         <v>3.4</v>
       </c>
       <c r="Z339">
-        <v>15343</v>
+        <v>51.77</v>
       </c>
       <c r="AA339">
-        <v>51.77</v>
-      </c>
-      <c r="AB339">
         <v>161</v>
       </c>
     </row>
-    <row r="340" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>10.95</v>
       </c>
@@ -31885,16 +30865,13 @@
         <v>5</v>
       </c>
       <c r="Z340">
-        <v>24270</v>
+        <v>32.01</v>
       </c>
       <c r="AA340">
-        <v>32.01</v>
-      </c>
-      <c r="AB340">
         <v>150</v>
       </c>
     </row>
-    <row r="341" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>10.15</v>
       </c>
@@ -31971,16 +30948,13 @@
         <v>6.5</v>
       </c>
       <c r="Z341">
-        <v>20428</v>
+        <v>64.099999999999994</v>
       </c>
       <c r="AA341">
-        <v>64.099999999999994</v>
-      </c>
-      <c r="AB341">
         <v>250</v>
       </c>
     </row>
-    <row r="342" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>9.31</v>
       </c>
@@ -32057,16 +31031,13 @@
         <v>5.6</v>
       </c>
       <c r="Z342">
-        <v>52009</v>
+        <v>34.79</v>
       </c>
       <c r="AA342">
-        <v>34.79</v>
-      </c>
-      <c r="AB342">
         <v>785</v>
       </c>
     </row>
-    <row r="343" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>10.86</v>
       </c>
@@ -32143,16 +31114,13 @@
         <v>5.4</v>
       </c>
       <c r="Z343">
-        <v>18447</v>
+        <v>33.24</v>
       </c>
       <c r="AA343">
-        <v>33.24</v>
-      </c>
-      <c r="AB343">
         <v>252</v>
       </c>
     </row>
-    <row r="344" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>8.84</v>
       </c>
@@ -32229,16 +31197,13 @@
         <v>3.8</v>
       </c>
       <c r="Z344">
-        <v>37878</v>
+        <v>46.68</v>
       </c>
       <c r="AA344">
-        <v>46.68</v>
-      </c>
-      <c r="AB344">
         <v>511</v>
       </c>
     </row>
-    <row r="345" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>9.4700000000000006</v>
       </c>
@@ -32315,16 +31280,13 @@
         <v>3.8</v>
       </c>
       <c r="Z345">
-        <v>29326</v>
+        <v>27.93</v>
       </c>
       <c r="AA345">
-        <v>27.93</v>
-      </c>
-      <c r="AB345">
         <v>303</v>
       </c>
     </row>
-    <row r="346" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>12.25</v>
       </c>
@@ -32401,16 +31363,13 @@
         <v>11.5</v>
       </c>
       <c r="Z346">
-        <v>70476</v>
+        <v>45.98</v>
       </c>
       <c r="AA346">
-        <v>45.98</v>
-      </c>
-      <c r="AB346">
         <v>1736</v>
       </c>
     </row>
-    <row r="347" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>11.17</v>
       </c>
@@ -32487,16 +31446,13 @@
         <v>2.9</v>
       </c>
       <c r="Z347">
-        <v>21045</v>
+        <v>40.020000000000003</v>
       </c>
       <c r="AA347">
-        <v>40.020000000000003</v>
-      </c>
-      <c r="AB347">
         <v>250</v>
       </c>
     </row>
-    <row r="348" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>9.66</v>
       </c>
@@ -32573,16 +31529,13 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="Z348">
-        <v>24102</v>
+        <v>54.39</v>
       </c>
       <c r="AA348">
-        <v>54.39</v>
-      </c>
-      <c r="AB348">
         <v>330</v>
       </c>
     </row>
-    <row r="349" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>10.119999999999999</v>
       </c>
@@ -32659,16 +31612,13 @@
         <v>6.3</v>
       </c>
       <c r="Z349">
-        <v>30784</v>
+        <v>37.08</v>
       </c>
       <c r="AA349">
-        <v>37.08</v>
-      </c>
-      <c r="AB349">
         <v>308</v>
       </c>
     </row>
-    <row r="350" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>11.91</v>
       </c>
@@ -32745,16 +31695,13 @@
         <v>9</v>
       </c>
       <c r="Z350">
-        <v>19243</v>
+        <v>47.4</v>
       </c>
       <c r="AA350">
-        <v>47.4</v>
-      </c>
-      <c r="AB350">
         <v>371</v>
       </c>
     </row>
-    <row r="351" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>10.74</v>
       </c>
@@ -32831,16 +31778,13 @@
         <v>5.4</v>
       </c>
       <c r="Z351">
-        <v>20929</v>
+        <v>22.39</v>
       </c>
       <c r="AA351">
-        <v>22.39</v>
-      </c>
-      <c r="AB351">
         <v>239</v>
       </c>
     </row>
-    <row r="352" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>8.64</v>
       </c>
@@ -32917,16 +31861,13 @@
         <v>1.5</v>
       </c>
       <c r="Z352">
-        <v>29637</v>
+        <v>53.15</v>
       </c>
       <c r="AA352">
-        <v>53.15</v>
-      </c>
-      <c r="AB352">
         <v>487</v>
       </c>
     </row>
-    <row r="353" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>10.57</v>
       </c>
@@ -33003,16 +31944,13 @@
         <v>6.3</v>
       </c>
       <c r="Z353">
-        <v>28381</v>
+        <v>49.83</v>
       </c>
       <c r="AA353">
-        <v>49.83</v>
-      </c>
-      <c r="AB353">
         <v>504</v>
       </c>
     </row>
-    <row r="354" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>11.7</v>
       </c>
@@ -33089,16 +32027,13 @@
         <v>5.3</v>
       </c>
       <c r="Z354">
-        <v>20419</v>
+        <v>100</v>
       </c>
       <c r="AA354">
-        <v>100</v>
-      </c>
-      <c r="AB354">
         <v>136</v>
       </c>
     </row>
-    <row r="355" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>10.87</v>
       </c>
@@ -33175,16 +32110,13 @@
         <v>9</v>
       </c>
       <c r="Z355">
-        <v>25458</v>
+        <v>100</v>
       </c>
       <c r="AA355">
-        <v>100</v>
-      </c>
-      <c r="AB355">
         <v>348</v>
       </c>
     </row>
-    <row r="356" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>9.1199999999999992</v>
       </c>
@@ -33261,16 +32193,13 @@
         <v>3.1</v>
       </c>
       <c r="Z356">
-        <v>26566</v>
+        <v>100</v>
       </c>
       <c r="AA356">
-        <v>100</v>
-      </c>
-      <c r="AB356">
         <v>317</v>
       </c>
     </row>
-    <row r="357" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>7.73</v>
       </c>
@@ -33347,16 +32276,13 @@
         <v>3.7</v>
       </c>
       <c r="Z357">
-        <v>27300</v>
+        <v>100</v>
       </c>
       <c r="AA357">
-        <v>100</v>
-      </c>
-      <c r="AB357">
         <v>331</v>
       </c>
     </row>
-    <row r="358" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>7.32</v>
       </c>
@@ -33433,16 +32359,13 @@
         <v>2.6</v>
       </c>
       <c r="Z358">
-        <v>30749</v>
+        <v>68.28</v>
       </c>
       <c r="AA358">
-        <v>68.28</v>
-      </c>
-      <c r="AB358">
         <v>243</v>
       </c>
     </row>
-    <row r="359" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>9.1</v>
       </c>
@@ -33519,16 +32442,13 @@
         <v>6.1</v>
       </c>
       <c r="Z359">
-        <v>18907</v>
+        <v>47.35</v>
       </c>
       <c r="AA359">
-        <v>47.35</v>
-      </c>
-      <c r="AB359">
         <v>188</v>
       </c>
     </row>
-    <row r="360" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>10.87</v>
       </c>
@@ -33605,16 +32525,13 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="Z360">
-        <v>89610</v>
+        <v>62.99</v>
       </c>
       <c r="AA360">
-        <v>62.99</v>
-      </c>
-      <c r="AB360">
         <v>1367</v>
       </c>
     </row>
-    <row r="361" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>8.1</v>
       </c>
@@ -33691,16 +32608,13 @@
         <v>1.9</v>
       </c>
       <c r="Z361">
-        <v>18594</v>
+        <v>53.74</v>
       </c>
       <c r="AA361">
-        <v>53.74</v>
-      </c>
-      <c r="AB361">
         <v>232</v>
       </c>
     </row>
-    <row r="362" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>7.74</v>
       </c>
@@ -33777,16 +32691,13 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="Z362">
-        <v>16581</v>
+        <v>50.15</v>
       </c>
       <c r="AA362">
-        <v>50.15</v>
-      </c>
-      <c r="AB362">
         <v>123</v>
       </c>
     </row>
-    <row r="363" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>7.53</v>
       </c>
@@ -33863,16 +32774,13 @@
         <v>1.8</v>
       </c>
       <c r="Z363">
-        <v>18859</v>
+        <v>45.73</v>
       </c>
       <c r="AA363">
-        <v>45.73</v>
-      </c>
-      <c r="AB363">
         <v>229</v>
       </c>
     </row>
-    <row r="364" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>8.68</v>
       </c>
@@ -33949,16 +32857,13 @@
         <v>3.4</v>
       </c>
       <c r="Z364">
-        <v>23343</v>
+        <v>51.49</v>
       </c>
       <c r="AA364">
-        <v>51.49</v>
-      </c>
-      <c r="AB364">
         <v>424</v>
       </c>
     </row>
-    <row r="365" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>7.71</v>
       </c>
@@ -34035,16 +32940,13 @@
         <v>1.7</v>
       </c>
       <c r="Z365">
-        <v>22134</v>
+        <v>61.33</v>
       </c>
       <c r="AA365">
-        <v>61.33</v>
-      </c>
-      <c r="AB365">
         <v>199</v>
       </c>
     </row>
-    <row r="366" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>6.81</v>
       </c>
@@ -34121,16 +33023,13 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Z366">
-        <v>23058</v>
+        <v>24.5</v>
       </c>
       <c r="AA366">
-        <v>24.5</v>
-      </c>
-      <c r="AB366">
         <v>452</v>
       </c>
     </row>
-    <row r="367" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>7.21</v>
       </c>
@@ -34207,16 +33106,13 @@
         <v>19</v>
       </c>
       <c r="Z367">
-        <v>13352</v>
+        <v>58.57</v>
       </c>
       <c r="AA367">
-        <v>58.57</v>
-      </c>
-      <c r="AB367">
         <v>179</v>
       </c>
     </row>
-    <row r="368" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>7.61</v>
       </c>
@@ -34293,16 +33189,13 @@
         <v>11.4</v>
       </c>
       <c r="Z368">
-        <v>18989</v>
+        <v>40.97</v>
       </c>
       <c r="AA368">
-        <v>40.97</v>
-      </c>
-      <c r="AB368">
         <v>433</v>
       </c>
     </row>
-    <row r="369" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>7.85</v>
       </c>
@@ -34379,16 +33272,13 @@
         <v>8.4</v>
       </c>
       <c r="Z369">
-        <v>18751</v>
+        <v>41.76</v>
       </c>
       <c r="AA369">
-        <v>41.76</v>
-      </c>
-      <c r="AB369">
         <v>404</v>
       </c>
     </row>
-    <row r="370" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>8.35</v>
       </c>
@@ -34465,16 +33355,13 @@
         <v>2</v>
       </c>
       <c r="Z370">
-        <v>21041</v>
+        <v>46.49</v>
       </c>
       <c r="AA370">
-        <v>46.49</v>
-      </c>
-      <c r="AB370">
         <v>158</v>
       </c>
     </row>
-    <row r="371" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>8.36</v>
       </c>
@@ -34551,16 +33438,13 @@
         <v>7.2</v>
       </c>
       <c r="Z371">
-        <v>13535</v>
+        <v>63.47</v>
       </c>
       <c r="AA371">
-        <v>63.47</v>
-      </c>
-      <c r="AB371">
         <v>331</v>
       </c>
     </row>
-    <row r="372" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>7.36</v>
       </c>
@@ -34637,16 +33521,13 @@
         <v>1.8</v>
       </c>
       <c r="Z372">
-        <v>10288</v>
+        <v>65.709999999999994</v>
       </c>
       <c r="AA372">
-        <v>65.709999999999994</v>
-      </c>
-      <c r="AB372">
         <v>150</v>
       </c>
     </row>
-    <row r="373" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>8.1199999999999992</v>
       </c>
@@ -34723,16 +33604,13 @@
         <v>6.7</v>
       </c>
       <c r="Z373">
-        <v>19326</v>
+        <v>50.28</v>
       </c>
       <c r="AA373">
-        <v>50.28</v>
-      </c>
-      <c r="AB373">
         <v>287</v>
       </c>
     </row>
-    <row r="374" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>8.9600000000000009</v>
       </c>
@@ -34809,16 +33687,13 @@
         <v>2</v>
       </c>
       <c r="Z374">
-        <v>36865</v>
+        <v>61.15</v>
       </c>
       <c r="AA374">
-        <v>61.15</v>
-      </c>
-      <c r="AB374">
         <v>567</v>
       </c>
     </row>
-    <row r="375" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>7.58</v>
       </c>
@@ -34895,16 +33770,13 @@
         <v>6.4</v>
       </c>
       <c r="Z375">
-        <v>29736</v>
+        <v>52.79</v>
       </c>
       <c r="AA375">
-        <v>52.79</v>
-      </c>
-      <c r="AB375">
         <v>344</v>
       </c>
     </row>
-    <row r="376" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>6.96</v>
       </c>
@@ -34981,16 +33853,13 @@
         <v>1</v>
       </c>
       <c r="Z376">
-        <v>17371</v>
+        <v>100</v>
       </c>
       <c r="AA376">
-        <v>100</v>
-      </c>
-      <c r="AB376">
         <v>165</v>
       </c>
     </row>
-    <row r="377" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>7.94</v>
       </c>
@@ -35067,16 +33936,13 @@
         <v>3.5</v>
       </c>
       <c r="Z377">
-        <v>15492</v>
+        <v>100</v>
       </c>
       <c r="AA377">
-        <v>100</v>
-      </c>
-      <c r="AB377">
         <v>272</v>
       </c>
     </row>
-    <row r="378" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>7.18</v>
       </c>
@@ -35153,16 +34019,13 @@
         <v>1.7</v>
       </c>
       <c r="Z378">
-        <v>11790</v>
+        <v>100</v>
       </c>
       <c r="AA378">
-        <v>100</v>
-      </c>
-      <c r="AB378">
         <v>173</v>
       </c>
     </row>
-    <row r="379" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>8.5</v>
       </c>
@@ -35239,16 +34102,13 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="Z379">
-        <v>20664</v>
+        <v>100</v>
       </c>
       <c r="AA379">
-        <v>100</v>
-      </c>
-      <c r="AB379">
         <v>315</v>
       </c>
     </row>
-    <row r="380" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>8.74</v>
       </c>
@@ -35325,16 +34185,13 @@
         <v>6.6</v>
       </c>
       <c r="Z380">
-        <v>83877</v>
+        <v>100</v>
       </c>
       <c r="AA380">
-        <v>100</v>
-      </c>
-      <c r="AB380">
         <v>1238</v>
       </c>
     </row>
-    <row r="381" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>7.29</v>
       </c>
@@ -35411,12 +34268,9 @@
         <v>9.6</v>
       </c>
       <c r="Z381">
-        <v>10201</v>
+        <v>100</v>
       </c>
       <c r="AA381">
-        <v>100</v>
-      </c>
-      <c r="AB381">
         <v>162</v>
       </c>
     </row>

--- a/baza_ekon.xlsx
+++ b/baza_ekon.xlsx
@@ -15,7 +15,7 @@
     <sheet name="GOSP_2173_CTAB_20220107161006" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GOSP_2173_CTAB_20220107161006!$B$1:$B$381</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GOSP_2173_CTAB_20220107161006!$A$1:$AA$381</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -2636,10 +2636,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AA381"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1:Z1048576"/>
+      <selection activeCell="N376" sqref="N376"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2734,7 +2735,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>8.3000000000000007</v>
       </c>
@@ -2817,7 +2818,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>6.91</v>
       </c>
@@ -2900,7 +2901,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>7.98</v>
       </c>
@@ -2983,7 +2984,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>7.35</v>
       </c>
@@ -3066,7 +3067,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>8.1300000000000008</v>
       </c>
@@ -3149,7 +3150,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6.94</v>
       </c>
@@ -3232,7 +3233,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6.83</v>
       </c>
@@ -3315,7 +3316,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>6.69</v>
       </c>
@@ -3398,7 +3399,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8.66</v>
       </c>
@@ -3481,7 +3482,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>6.79</v>
       </c>
@@ -3564,7 +3565,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>8.69</v>
       </c>
@@ -3647,7 +3648,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>7.65</v>
       </c>
@@ -3730,7 +3731,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>8.6999999999999993</v>
       </c>
@@ -3813,7 +3814,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>9.59</v>
       </c>
@@ -3896,7 +3897,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>9.67</v>
       </c>
@@ -3979,7 +3980,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>9.1199999999999992</v>
       </c>
@@ -4062,7 +4063,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>8.68</v>
       </c>
@@ -4145,7 +4146,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>8.8699999999999992</v>
       </c>
@@ -4228,7 +4229,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>7.52</v>
       </c>
@@ -4311,7 +4312,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>9.17</v>
       </c>
@@ -4394,7 +4395,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>7</v>
       </c>
@@ -4477,7 +4478,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>8.3699999999999992</v>
       </c>
@@ -4560,7 +4561,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>13.18</v>
       </c>
@@ -4643,7 +4644,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>6.3</v>
       </c>
@@ -4726,7 +4727,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>6.52</v>
       </c>
@@ -4809,7 +4810,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>6.77</v>
       </c>
@@ -4892,7 +4893,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>7.02</v>
       </c>
@@ -4975,7 +4976,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>8.3800000000000008</v>
       </c>
@@ -5058,7 +5059,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>11.27</v>
       </c>
@@ -5141,7 +5142,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>7.05</v>
       </c>
@@ -5224,7 +5225,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>8.34</v>
       </c>
@@ -5307,7 +5308,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>10.62</v>
       </c>
@@ -5390,7 +5391,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>9.23</v>
       </c>
@@ -5473,7 +5474,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>8.5500000000000007</v>
       </c>
@@ -5556,7 +5557,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>9.61</v>
       </c>
@@ -5639,7 +5640,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>8.81</v>
       </c>
@@ -5722,7 +5723,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>8.15</v>
       </c>
@@ -5805,7 +5806,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>9.01</v>
       </c>
@@ -5888,7 +5889,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>9.4700000000000006</v>
       </c>
@@ -5971,7 +5972,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>9.15</v>
       </c>
@@ -6054,7 +6055,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>8.6999999999999993</v>
       </c>
@@ -6137,7 +6138,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>8.7799999999999994</v>
       </c>
@@ -6220,7 +6221,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>8.06</v>
       </c>
@@ -6303,7 +6304,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>9.24</v>
       </c>
@@ -6386,7 +6387,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>9.4</v>
       </c>
@@ -6469,7 +6470,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>9.7899999999999991</v>
       </c>
@@ -6552,7 +6553,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>7.97</v>
       </c>
@@ -6635,7 +6636,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>7.98</v>
       </c>
@@ -6718,7 +6719,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>8.75</v>
       </c>
@@ -6801,7 +6802,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>8.14</v>
       </c>
@@ -6884,7 +6885,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>7.56</v>
       </c>
@@ -6967,7 +6968,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>9.48</v>
       </c>
@@ -7050,7 +7051,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>7.23</v>
       </c>
@@ -7133,7 +7134,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>8.94</v>
       </c>
@@ -7216,7 +7217,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>8.2100000000000009</v>
       </c>
@@ -7299,7 +7300,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>7.7</v>
       </c>
@@ -7382,7 +7383,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>6.19</v>
       </c>
@@ -7465,7 +7466,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>7.63</v>
       </c>
@@ -7548,7 +7549,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>6.85</v>
       </c>
@@ -7631,7 +7632,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>7.22</v>
       </c>
@@ -7714,7 +7715,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>8.3800000000000008</v>
       </c>
@@ -7797,7 +7798,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>9.67</v>
       </c>
@@ -7880,7 +7881,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>10.44</v>
       </c>
@@ -7963,7 +7964,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>10.85</v>
       </c>
@@ -8046,7 +8047,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>7.9</v>
       </c>
@@ -8129,7 +8130,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>8.18</v>
       </c>
@@ -8212,7 +8213,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>7.52</v>
       </c>
@@ -8295,7 +8296,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>8.6</v>
       </c>
@@ -8378,7 +8379,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>10.119999999999999</v>
       </c>
@@ -8461,7 +8462,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>8.18</v>
       </c>
@@ -8544,7 +8545,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>7.06</v>
       </c>
@@ -8627,7 +8628,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>7.72</v>
       </c>
@@ -8710,7 +8711,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>7.55</v>
       </c>
@@ -8793,7 +8794,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>9.34</v>
       </c>
@@ -8876,7 +8877,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>6.74</v>
       </c>
@@ -8959,7 +8960,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>9.9700000000000006</v>
       </c>
@@ -9042,7 +9043,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>7.97</v>
       </c>
@@ -9125,7 +9126,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>8.42</v>
       </c>
@@ -9208,7 +9209,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>7.77</v>
       </c>
@@ -9291,7 +9292,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>7.79</v>
       </c>
@@ -9374,7 +9375,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>8.49</v>
       </c>
@@ -9457,7 +9458,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>8.51</v>
       </c>
@@ -9540,7 +9541,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>8.15</v>
       </c>
@@ -9623,7 +9624,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>9.51</v>
       </c>
@@ -9706,7 +9707,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>9.2100000000000009</v>
       </c>
@@ -9789,7 +9790,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>9.4499999999999993</v>
       </c>
@@ -9872,7 +9873,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>7.97</v>
       </c>
@@ -9955,7 +9956,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>8.3800000000000008</v>
       </c>
@@ -10038,7 +10039,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>8.56</v>
       </c>
@@ -10121,7 +10122,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>8.5299999999999994</v>
       </c>
@@ -10204,7 +10205,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>8.86</v>
       </c>
@@ -10287,7 +10288,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>8.9600000000000009</v>
       </c>
@@ -10370,7 +10371,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>7.8</v>
       </c>
@@ -10453,7 +10454,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>8.23</v>
       </c>
@@ -10536,7 +10537,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>8.84</v>
       </c>
@@ -10619,7 +10620,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>8.66</v>
       </c>
@@ -10702,7 +10703,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>8.4700000000000006</v>
       </c>
@@ -10785,7 +10786,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>9.0299999999999994</v>
       </c>
@@ -10868,7 +10869,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>7.98</v>
       </c>
@@ -10951,7 +10952,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>8.83</v>
       </c>
@@ -11034,7 +11035,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>9.3699999999999992</v>
       </c>
@@ -11117,7 +11118,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>7.97</v>
       </c>
@@ -11200,7 +11201,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>8.0500000000000007</v>
       </c>
@@ -11283,7 +11284,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>10.31</v>
       </c>
@@ -11366,7 +11367,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>9.1</v>
       </c>
@@ -11449,7 +11450,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>9.91</v>
       </c>
@@ -11532,7 +11533,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>8.52</v>
       </c>
@@ -11615,7 +11616,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>8.39</v>
       </c>
@@ -11698,7 +11699,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="110" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>9.0399999999999991</v>
       </c>
@@ -11781,7 +11782,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="111" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>8.74</v>
       </c>
@@ -11864,7 +11865,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="112" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>8.02</v>
       </c>
@@ -11947,7 +11948,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="113" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>8.44</v>
       </c>
@@ -12030,7 +12031,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="114" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>8.4700000000000006</v>
       </c>
@@ -12113,7 +12114,7 @@
         <v>2031</v>
       </c>
     </row>
-    <row r="115" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>7.86</v>
       </c>
@@ -12196,7 +12197,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="116" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>8.14</v>
       </c>
@@ -12279,7 +12280,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="117" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>11.07</v>
       </c>
@@ -12362,7 +12363,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="118" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>9.57</v>
       </c>
@@ -12445,7 +12446,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="119" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>7.19</v>
       </c>
@@ -12528,7 +12529,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="120" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>8.86</v>
       </c>
@@ -12611,7 +12612,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="121" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>9.0299999999999994</v>
       </c>
@@ -12694,7 +12695,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="122" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>10.09</v>
       </c>
@@ -12777,7 +12778,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="123" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>13.2</v>
       </c>
@@ -12860,7 +12861,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="124" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>9.4700000000000006</v>
       </c>
@@ -12943,7 +12944,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="125" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>11.31</v>
       </c>
@@ -13026,7 +13027,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="126" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>11.83</v>
       </c>
@@ -13109,7 +13110,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="127" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>10.35</v>
       </c>
@@ -13192,7 +13193,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="128" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>7.73</v>
       </c>
@@ -13275,7 +13276,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="129" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>8.65</v>
       </c>
@@ -13358,7 +13359,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="130" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>9.08</v>
       </c>
@@ -13441,7 +13442,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="131" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>9.56</v>
       </c>
@@ -13524,7 +13525,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="132" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>9.66</v>
       </c>
@@ -13607,7 +13608,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="133" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>9.66</v>
       </c>
@@ -13690,7 +13691,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="134" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>10.08</v>
       </c>
@@ -13773,7 +13774,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="135" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>11.24</v>
       </c>
@@ -13856,7 +13857,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="136" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>11.59</v>
       </c>
@@ -13939,7 +13940,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="137" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>10.51</v>
       </c>
@@ -14022,7 +14023,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="138" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>7.98</v>
       </c>
@@ -14105,7 +14106,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="139" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>11.07</v>
       </c>
@@ -14188,7 +14189,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="140" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>9.26</v>
       </c>
@@ -14271,7 +14272,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="141" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>11.23</v>
       </c>
@@ -14354,7 +14355,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="142" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>7.8</v>
       </c>
@@ -14437,7 +14438,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="143" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>10.48</v>
       </c>
@@ -14520,7 +14521,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="144" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>9.82</v>
       </c>
@@ -14603,7 +14604,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="145" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>8.73</v>
       </c>
@@ -14686,7 +14687,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="146" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>9.2799999999999994</v>
       </c>
@@ -14769,7 +14770,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="147" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>8.27</v>
       </c>
@@ -14852,7 +14853,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="148" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>9.52</v>
       </c>
@@ -14935,7 +14936,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="149" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>9.18</v>
       </c>
@@ -15018,7 +15019,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="150" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>11.03</v>
       </c>
@@ -15101,7 +15102,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="151" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>9.0299999999999994</v>
       </c>
@@ -15184,7 +15185,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="152" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>9.34</v>
       </c>
@@ -15308,7 +15309,7 @@
         <v>0.30243120491584291</v>
       </c>
       <c r="N153">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="O153">
         <v>4.2</v>
@@ -15350,7 +15351,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="154" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>9.2799999999999994</v>
       </c>
@@ -15433,7 +15434,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="155" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>9.76</v>
       </c>
@@ -15516,7 +15517,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="156" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>11.33</v>
       </c>
@@ -15599,7 +15600,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="157" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>9.1300000000000008</v>
       </c>
@@ -15682,7 +15683,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="158" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>9.5</v>
       </c>
@@ -15765,7 +15766,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="159" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>10.32</v>
       </c>
@@ -15848,7 +15849,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="160" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>10.1</v>
       </c>
@@ -15931,7 +15932,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="161" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>8.6999999999999993</v>
       </c>
@@ -16014,7 +16015,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="162" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>10.42</v>
       </c>
@@ -16097,7 +16098,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="163" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>9.93</v>
       </c>
@@ -16180,7 +16181,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="164" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>10.61</v>
       </c>
@@ -16263,7 +16264,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="165" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>8.48</v>
       </c>
@@ -16346,7 +16347,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="166" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>9.93</v>
       </c>
@@ -16429,7 +16430,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="167" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>8.82</v>
       </c>
@@ -16512,7 +16513,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="168" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>8.4499999999999993</v>
       </c>
@@ -16595,7 +16596,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="169" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>9.5</v>
       </c>
@@ -16678,7 +16679,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="170" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>9.98</v>
       </c>
@@ -16761,7 +16762,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="171" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>12.77</v>
       </c>
@@ -16844,7 +16845,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="172" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>10.92</v>
       </c>
@@ -16927,7 +16928,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="173" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>8.3800000000000008</v>
       </c>
@@ -17010,7 +17011,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="174" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>8.14</v>
       </c>
@@ -17093,7 +17094,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="175" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>9.2799999999999994</v>
       </c>
@@ -17176,7 +17177,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="176" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>9.35</v>
       </c>
@@ -17259,7 +17260,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="177" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>8.1199999999999992</v>
       </c>
@@ -17342,7 +17343,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="178" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>8.4</v>
       </c>
@@ -17425,7 +17426,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="179" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>10.98</v>
       </c>
@@ -17508,7 +17509,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="180" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>11.52</v>
       </c>
@@ -17591,7 +17592,7 @@
         <v>4342</v>
       </c>
     </row>
-    <row r="181" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>7.65</v>
       </c>
@@ -17674,7 +17675,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="182" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>6.49</v>
       </c>
@@ -17757,7 +17758,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="183" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>7.5</v>
       </c>
@@ -17840,7 +17841,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="184" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>7.83</v>
       </c>
@@ -17923,7 +17924,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="185" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>7.6</v>
       </c>
@@ -18006,7 +18007,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="186" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>9.14</v>
       </c>
@@ -18089,7 +18090,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="187" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>7.08</v>
       </c>
@@ -18172,7 +18173,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="188" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>8.14</v>
       </c>
@@ -18255,7 +18256,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="189" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>8.59</v>
       </c>
@@ -18338,7 +18339,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="190" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>7.66</v>
       </c>
@@ -18421,7 +18422,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="191" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>8.6</v>
       </c>
@@ -18504,7 +18505,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="192" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>10</v>
       </c>
@@ -18587,7 +18588,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="193" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>7.88</v>
       </c>
@@ -18670,7 +18671,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="194" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>10.24</v>
       </c>
@@ -18753,7 +18754,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="195" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>9.7799999999999994</v>
       </c>
@@ -18836,7 +18837,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="196" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>8.99</v>
       </c>
@@ -18919,7 +18920,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="197" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>7.76</v>
       </c>
@@ -19002,7 +19003,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="198" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>9.2899999999999991</v>
       </c>
@@ -19085,7 +19086,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="199" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>8.57</v>
       </c>
@@ -19168,7 +19169,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="200" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>8.6999999999999993</v>
       </c>
@@ -19251,7 +19252,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="201" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>7.75</v>
       </c>
@@ -19334,7 +19335,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="202" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>11.03</v>
       </c>
@@ -19417,7 +19418,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="203" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>9.26</v>
       </c>
@@ -19500,7 +19501,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="204" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>7.92</v>
       </c>
@@ -19583,7 +19584,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="205" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>9.07</v>
       </c>
@@ -19666,7 +19667,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="206" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>9.43</v>
       </c>
@@ -19749,7 +19750,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="207" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>11.36</v>
       </c>
@@ -19832,7 +19833,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="208" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>10.52</v>
       </c>
@@ -19915,7 +19916,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="209" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>7.89</v>
       </c>
@@ -19998,7 +19999,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="210" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>7.71</v>
       </c>
@@ -20081,7 +20082,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="211" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>9.1</v>
       </c>
@@ -20164,7 +20165,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="212" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>8.81</v>
       </c>
@@ -20247,7 +20248,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="213" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>8.48</v>
       </c>
@@ -20330,7 +20331,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="214" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>8.08</v>
       </c>
@@ -20413,7 +20414,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="215" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>7.35</v>
       </c>
@@ -20496,7 +20497,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="216" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>11.18</v>
       </c>
@@ -20579,7 +20580,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="217" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>7.19</v>
       </c>
@@ -20662,7 +20663,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="218" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>7.51</v>
       </c>
@@ -20745,7 +20746,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="219" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>9.07</v>
       </c>
@@ -20828,7 +20829,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="220" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>8.08</v>
       </c>
@@ -20911,7 +20912,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="221" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>7.89</v>
       </c>
@@ -20994,7 +20995,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="222" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>6.38</v>
       </c>
@@ -21077,7 +21078,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="223" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>8.9</v>
       </c>
@@ -21160,7 +21161,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="224" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>8.9600000000000009</v>
       </c>
@@ -21243,7 +21244,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="225" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>6.68</v>
       </c>
@@ -21326,7 +21327,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="226" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>7.83</v>
       </c>
@@ -21409,7 +21410,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="227" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>6.83</v>
       </c>
@@ -21492,7 +21493,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="228" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>7.42</v>
       </c>
@@ -21575,7 +21576,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="229" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>9.16</v>
       </c>
@@ -21658,7 +21659,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="230" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>8.86</v>
       </c>
@@ -21741,7 +21742,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="231" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>8.99</v>
       </c>
@@ -21824,7 +21825,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="232" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>10.77</v>
       </c>
@@ -21907,7 +21908,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="233" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>9.08</v>
       </c>
@@ -21990,7 +21991,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="234" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>9.7200000000000006</v>
       </c>
@@ -22073,7 +22074,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="235" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>10.8</v>
       </c>
@@ -22156,7 +22157,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="236" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>10.93</v>
       </c>
@@ -22239,7 +22240,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="237" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>9.06</v>
       </c>
@@ -22322,7 +22323,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="238" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>11.5</v>
       </c>
@@ -22405,7 +22406,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="239" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>15.43</v>
       </c>
@@ -22488,7 +22489,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="240" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>11.52</v>
       </c>
@@ -22571,7 +22572,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="241" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>8.7200000000000006</v>
       </c>
@@ -22654,7 +22655,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="242" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>9.67</v>
       </c>
@@ -22737,7 +22738,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="243" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>8.7200000000000006</v>
       </c>
@@ -22820,7 +22821,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="244" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>7.61</v>
       </c>
@@ -22903,7 +22904,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="245" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>10.7</v>
       </c>
@@ -22986,7 +22987,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="246" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>9.06</v>
       </c>
@@ -23069,7 +23070,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="247" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>10.49</v>
       </c>
@@ -23152,7 +23153,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="248" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>9.33</v>
       </c>
@@ -23235,7 +23236,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="249" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>12.16</v>
       </c>
@@ -23318,7 +23319,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="250" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>8.17</v>
       </c>
@@ -23401,7 +23402,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="251" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>11.31</v>
       </c>
@@ -23484,7 +23485,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="252" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>8.09</v>
       </c>
@@ -23567,7 +23568,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="253" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>7.76</v>
       </c>
@@ -23650,7 +23651,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="254" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>6.36</v>
       </c>
@@ -23733,7 +23734,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="255" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>7.04</v>
       </c>
@@ -23816,7 +23817,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="256" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>10.050000000000001</v>
       </c>
@@ -23899,7 +23900,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="257" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>9.07</v>
       </c>
@@ -23982,7 +23983,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="258" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>7.91</v>
       </c>
@@ -24065,7 +24066,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="259" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>9.14</v>
       </c>
@@ -24148,7 +24149,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="260" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>9.06</v>
       </c>
@@ -24231,7 +24232,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="261" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>8.9700000000000006</v>
       </c>
@@ -24314,7 +24315,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="262" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>10.01</v>
       </c>
@@ -24397,7 +24398,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="263" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>7.67</v>
       </c>
@@ -24480,7 +24481,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="264" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>10.17</v>
       </c>
@@ -24563,7 +24564,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="265" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>7.53</v>
       </c>
@@ -24646,7 +24647,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="266" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>10.07</v>
       </c>
@@ -24729,7 +24730,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="267" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>8.57</v>
       </c>
@@ -24812,7 +24813,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="268" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>10.01</v>
       </c>
@@ -24895,7 +24896,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="269" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>8.7899999999999991</v>
       </c>
@@ -24978,7 +24979,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="270" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>7.27</v>
       </c>
@@ -25061,7 +25062,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="271" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>9.42</v>
       </c>
@@ -25144,7 +25145,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="272" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>8.92</v>
       </c>
@@ -25227,7 +25228,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="273" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>7.62</v>
       </c>
@@ -25310,7 +25311,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="274" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>8.11</v>
       </c>
@@ -25393,7 +25394,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="275" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>7.15</v>
       </c>
@@ -25476,7 +25477,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="276" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>7.27</v>
       </c>
@@ -25559,7 +25560,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="277" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>8.86</v>
       </c>
@@ -25642,7 +25643,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="278" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>8.1300000000000008</v>
       </c>
@@ -25725,7 +25726,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="279" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>8</v>
       </c>
@@ -25808,7 +25809,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="280" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>8.6300000000000008</v>
       </c>
@@ -25891,7 +25892,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="281" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>9.1300000000000008</v>
       </c>
@@ -25974,7 +25975,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="282" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>8.4600000000000009</v>
       </c>
@@ -26057,7 +26058,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="283" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>8.89</v>
       </c>
@@ -26140,7 +26141,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="284" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>9.02</v>
       </c>
@@ -26223,7 +26224,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="285" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>8.09</v>
       </c>
@@ -26306,7 +26307,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="286" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>6.83</v>
       </c>
@@ -26389,7 +26390,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="287" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>8.67</v>
       </c>
@@ -26472,7 +26473,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="288" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>8.18</v>
       </c>
@@ -26555,7 +26556,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="289" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>8</v>
       </c>
@@ -26638,7 +26639,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="290" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>8.73</v>
       </c>
@@ -26721,7 +26722,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="291" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>7.7</v>
       </c>
@@ -26804,7 +26805,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="292" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>8.3000000000000007</v>
       </c>
@@ -26887,7 +26888,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="293" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>7.05</v>
       </c>
@@ -26970,7 +26971,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="294" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>9.2799999999999994</v>
       </c>
@@ -27053,7 +27054,7 @@
         <v>2355</v>
       </c>
     </row>
-    <row r="295" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>7.26</v>
       </c>
@@ -27136,7 +27137,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="296" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>6.85</v>
       </c>
@@ -27219,7 +27220,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="297" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>5.65</v>
       </c>
@@ -27302,7 +27303,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="298" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>7.73</v>
       </c>
@@ -27385,7 +27386,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="299" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>7.73</v>
       </c>
@@ -27468,7 +27469,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="300" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>6.05</v>
       </c>
@@ -27551,7 +27552,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="301" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>7.35</v>
       </c>
@@ -27634,7 +27635,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="302" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>8.26</v>
       </c>
@@ -27717,7 +27718,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="303" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>7.79</v>
       </c>
@@ -27800,7 +27801,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="304" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>8.02</v>
       </c>
@@ -27883,7 +27884,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="305" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>7.96</v>
       </c>
@@ -27966,7 +27967,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="306" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>8.5500000000000007</v>
       </c>
@@ -28049,7 +28050,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="307" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>8.8800000000000008</v>
       </c>
@@ -28132,7 +28133,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="308" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>8.4499999999999993</v>
       </c>
@@ -28215,7 +28216,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="309" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>9.41</v>
       </c>
@@ -28298,7 +28299,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="310" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>7.54</v>
       </c>
@@ -28381,7 +28382,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="311" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>9.23</v>
       </c>
@@ -28464,7 +28465,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="312" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>7.25</v>
       </c>
@@ -28547,7 +28548,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="313" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>7.87</v>
       </c>
@@ -28630,7 +28631,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="314" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>7.37</v>
       </c>
@@ -28713,7 +28714,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="315" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>8</v>
       </c>
@@ -28796,7 +28797,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="316" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>10.3</v>
       </c>
@@ -28879,7 +28880,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="317" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>8.4</v>
       </c>
@@ -28962,7 +28963,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="318" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>9.1300000000000008</v>
       </c>
@@ -29045,7 +29046,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="319" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>8.27</v>
       </c>
@@ -29128,7 +29129,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="320" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>8.7799999999999994</v>
       </c>
@@ -29211,7 +29212,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="321" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>9.11</v>
       </c>
@@ -29294,7 +29295,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="322" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>8.56</v>
       </c>
@@ -29377,7 +29378,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="323" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>7.4</v>
       </c>
@@ -29460,7 +29461,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="324" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>7.32</v>
       </c>
@@ -29543,7 +29544,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="325" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>9.0399999999999991</v>
       </c>
@@ -29626,7 +29627,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="326" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>8.8000000000000007</v>
       </c>
@@ -29709,7 +29710,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="327" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>9.24</v>
       </c>
@@ -29792,7 +29793,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="328" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>9.75</v>
       </c>
@@ -29875,7 +29876,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="329" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>11.33</v>
       </c>
@@ -29958,7 +29959,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="330" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>12.34</v>
       </c>
@@ -30041,7 +30042,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="331" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>9.92</v>
       </c>
@@ -30124,7 +30125,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="332" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>10.1</v>
       </c>
@@ -30207,7 +30208,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="333" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>10</v>
       </c>
@@ -30290,7 +30291,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="334" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>8.3699999999999992</v>
       </c>
@@ -30373,7 +30374,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="335" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>8.94</v>
       </c>
@@ -30456,7 +30457,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="336" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>10.29</v>
       </c>
@@ -30539,7 +30540,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="337" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>9.9499999999999993</v>
       </c>
@@ -30622,7 +30623,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="338" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>12.06</v>
       </c>
@@ -30705,7 +30706,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="339" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>9.6199999999999992</v>
       </c>
@@ -30788,7 +30789,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="340" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>10.95</v>
       </c>
@@ -30871,7 +30872,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="341" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>10.15</v>
       </c>
@@ -30954,7 +30955,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="342" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>9.31</v>
       </c>
@@ -31037,7 +31038,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="343" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>10.86</v>
       </c>
@@ -31120,7 +31121,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="344" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>8.84</v>
       </c>
@@ -31203,7 +31204,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="345" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>9.4700000000000006</v>
       </c>
@@ -31286,7 +31287,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="346" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>12.25</v>
       </c>
@@ -31369,7 +31370,7 @@
         <v>1736</v>
       </c>
     </row>
-    <row r="347" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>11.17</v>
       </c>
@@ -31452,7 +31453,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="348" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>9.66</v>
       </c>
@@ -31535,7 +31536,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="349" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>10.119999999999999</v>
       </c>
@@ -31618,7 +31619,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="350" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>11.91</v>
       </c>
@@ -31701,7 +31702,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="351" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>10.74</v>
       </c>
@@ -31784,7 +31785,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="352" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>8.64</v>
       </c>
@@ -31867,7 +31868,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="353" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>10.57</v>
       </c>
@@ -31950,7 +31951,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="354" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>11.7</v>
       </c>
@@ -32033,7 +32034,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="355" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>10.87</v>
       </c>
@@ -32116,7 +32117,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="356" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>9.1199999999999992</v>
       </c>
@@ -32199,7 +32200,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="357" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>7.73</v>
       </c>
@@ -32282,7 +32283,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="358" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>7.32</v>
       </c>
@@ -32365,7 +32366,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="359" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>9.1</v>
       </c>
@@ -32448,7 +32449,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="360" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>10.87</v>
       </c>
@@ -32531,7 +32532,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="361" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>8.1</v>
       </c>
@@ -32614,7 +32615,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="362" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>7.74</v>
       </c>
@@ -32697,7 +32698,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="363" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>7.53</v>
       </c>
@@ -32780,7 +32781,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="364" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>8.68</v>
       </c>
@@ -32863,7 +32864,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="365" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>7.71</v>
       </c>
@@ -32946,7 +32947,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="366" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>6.81</v>
       </c>
@@ -33029,7 +33030,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="367" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>7.21</v>
       </c>
@@ -33112,7 +33113,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="368" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>7.61</v>
       </c>
@@ -33195,7 +33196,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="369" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>7.85</v>
       </c>
@@ -33278,7 +33279,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="370" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>8.35</v>
       </c>
@@ -33361,7 +33362,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="371" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>8.36</v>
       </c>
@@ -33444,7 +33445,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="372" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>7.36</v>
       </c>
@@ -33527,7 +33528,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="373" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>8.1199999999999992</v>
       </c>
@@ -33610,7 +33611,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="374" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>8.9600000000000009</v>
       </c>
@@ -33693,7 +33694,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="375" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>7.58</v>
       </c>
@@ -33859,7 +33860,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="377" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>7.94</v>
       </c>
@@ -33942,7 +33943,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="378" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>7.18</v>
       </c>
@@ -34025,7 +34026,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="379" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>8.5</v>
       </c>
@@ -34108,7 +34109,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="380" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>8.74</v>
       </c>
@@ -34191,7 +34192,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="381" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>7.29</v>
       </c>
@@ -34275,7 +34276,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B381"/>
+  <autoFilter ref="A1:AA381">
+    <filterColumn colId="13">
+      <filters>
+        <filter val="0"/>
+        <filter val="1318"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/baza_ekon.xlsx
+++ b/baza_ekon.xlsx
@@ -15,14 +15,14 @@
     <sheet name="GOSP_2173_CTAB_20220107161006" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GOSP_2173_CTAB_20220107161006!$A$1:$AA$381</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GOSP_2173_CTAB_20220107161006!$A$1:$Z$381</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>avg_salary</t>
   </si>
@@ -91,9 +91,6 @@
   </si>
   <si>
     <t>doctors</t>
-  </si>
-  <si>
-    <t>population</t>
   </si>
   <si>
     <t>men_working</t>
@@ -2636,11 +2633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:AA381"/>
+  <dimension ref="A1:Z381"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N376" sqref="N376"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2652,7 +2648,7 @@
     <col min="13" max="13" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -2690,7 +2686,7 @@
         <v>8</v>
       </c>
       <c r="M1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N1" t="s">
         <v>9</v>
@@ -2699,10 +2695,10 @@
         <v>10</v>
       </c>
       <c r="P1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" t="s">
         <v>25</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>26</v>
       </c>
       <c r="R1" t="s">
         <v>11</v>
@@ -2723,19 +2719,16 @@
         <v>19</v>
       </c>
       <c r="X1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>8.3000000000000007</v>
       </c>
@@ -2806,19 +2799,16 @@
         <v>113</v>
       </c>
       <c r="X2">
-        <v>89762</v>
+        <v>30.7</v>
       </c>
       <c r="Y2">
-        <v>30.7</v>
+        <v>47.62</v>
       </c>
       <c r="Z2">
-        <v>47.62</v>
-      </c>
-      <c r="AA2">
         <v>392</v>
       </c>
     </row>
-    <row r="3" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>6.91</v>
       </c>
@@ -2889,19 +2879,16 @@
         <v>642</v>
       </c>
       <c r="X3">
-        <v>99935</v>
+        <v>27</v>
       </c>
       <c r="Y3">
-        <v>27</v>
+        <v>78.75</v>
       </c>
       <c r="Z3">
-        <v>78.75</v>
-      </c>
-      <c r="AA3">
         <v>366</v>
       </c>
     </row>
-    <row r="4" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>7.98</v>
       </c>
@@ -2972,19 +2959,16 @@
         <v>481</v>
       </c>
       <c r="X4">
-        <v>88447</v>
+        <v>35.4</v>
       </c>
       <c r="Y4">
-        <v>35.4</v>
+        <v>74.760000000000005</v>
       </c>
       <c r="Z4">
-        <v>74.760000000000005</v>
-      </c>
-      <c r="AA4">
         <v>360</v>
       </c>
     </row>
-    <row r="5" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>7.35</v>
       </c>
@@ -3055,19 +3039,16 @@
         <v>114</v>
       </c>
       <c r="X5">
-        <v>34552</v>
+        <v>11.6</v>
       </c>
       <c r="Y5">
-        <v>11.6</v>
+        <v>41.16</v>
       </c>
       <c r="Z5">
-        <v>41.16</v>
-      </c>
-      <c r="AA5">
         <v>166</v>
       </c>
     </row>
-    <row r="6" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>8.1300000000000008</v>
       </c>
@@ -3138,19 +3119,16 @@
         <v>199</v>
       </c>
       <c r="X6">
-        <v>49734</v>
+        <v>26.1</v>
       </c>
       <c r="Y6">
-        <v>26.1</v>
+        <v>55.04</v>
       </c>
       <c r="Z6">
-        <v>55.04</v>
-      </c>
-      <c r="AA6">
         <v>217</v>
       </c>
     </row>
-    <row r="7" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6.94</v>
       </c>
@@ -3221,19 +3199,16 @@
         <v>109</v>
       </c>
       <c r="X7">
-        <v>63333</v>
+        <v>32.4</v>
       </c>
       <c r="Y7">
-        <v>32.4</v>
+        <v>44.01</v>
       </c>
       <c r="Z7">
-        <v>44.01</v>
-      </c>
-      <c r="AA7">
         <v>362</v>
       </c>
     </row>
-    <row r="8" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6.83</v>
       </c>
@@ -3304,19 +3279,16 @@
         <v>97</v>
       </c>
       <c r="X8">
-        <v>42824</v>
+        <v>26.9</v>
       </c>
       <c r="Y8">
-        <v>26.9</v>
+        <v>57.27</v>
       </c>
       <c r="Z8">
-        <v>57.27</v>
-      </c>
-      <c r="AA8">
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>6.69</v>
       </c>
@@ -3387,19 +3359,16 @@
         <v>553</v>
       </c>
       <c r="X9">
-        <v>156283</v>
+        <v>43.1</v>
       </c>
       <c r="Y9">
-        <v>43.1</v>
+        <v>63.61</v>
       </c>
       <c r="Z9">
-        <v>63.61</v>
-      </c>
-      <c r="AA9">
         <v>534</v>
       </c>
     </row>
-    <row r="10" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8.66</v>
       </c>
@@ -3470,19 +3439,16 @@
         <v>74</v>
       </c>
       <c r="X10">
-        <v>55110</v>
+        <v>11.3</v>
       </c>
       <c r="Y10">
-        <v>11.3</v>
+        <v>30.47</v>
       </c>
       <c r="Z10">
-        <v>30.47</v>
-      </c>
-      <c r="AA10">
         <v>307</v>
       </c>
     </row>
-    <row r="11" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>6.79</v>
       </c>
@@ -3553,19 +3519,16 @@
         <v>161</v>
       </c>
       <c r="X11">
-        <v>53852</v>
+        <v>24.9</v>
       </c>
       <c r="Y11">
-        <v>24.9</v>
+        <v>62.08</v>
       </c>
       <c r="Z11">
-        <v>62.08</v>
-      </c>
-      <c r="AA11">
         <v>184</v>
       </c>
     </row>
-    <row r="12" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>8.69</v>
       </c>
@@ -3636,19 +3599,16 @@
         <v>576</v>
       </c>
       <c r="X12">
-        <v>105896</v>
+        <v>71.400000000000006</v>
       </c>
       <c r="Y12">
-        <v>71.400000000000006</v>
+        <v>72.94</v>
       </c>
       <c r="Z12">
-        <v>72.94</v>
-      </c>
-      <c r="AA12">
         <v>337</v>
       </c>
     </row>
-    <row r="13" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>7.65</v>
       </c>
@@ -3719,19 +3679,16 @@
         <v>103</v>
       </c>
       <c r="X13">
-        <v>45599</v>
+        <v>16.2</v>
       </c>
       <c r="Y13">
-        <v>16.2</v>
+        <v>49.91</v>
       </c>
       <c r="Z13">
-        <v>49.91</v>
-      </c>
-      <c r="AA13">
         <v>180</v>
       </c>
     </row>
-    <row r="14" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>8.6999999999999993</v>
       </c>
@@ -3802,19 +3759,16 @@
         <v>123</v>
       </c>
       <c r="X14">
-        <v>36800</v>
+        <v>42.9</v>
       </c>
       <c r="Y14">
-        <v>42.9</v>
+        <v>30.43</v>
       </c>
       <c r="Z14">
-        <v>30.43</v>
-      </c>
-      <c r="AA14">
         <v>176</v>
       </c>
     </row>
-    <row r="15" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>9.59</v>
       </c>
@@ -3885,19 +3839,16 @@
         <v>904</v>
       </c>
       <c r="X15">
-        <v>107268</v>
+        <v>30.2</v>
       </c>
       <c r="Y15">
-        <v>30.2</v>
+        <v>56.93</v>
       </c>
       <c r="Z15">
-        <v>56.93</v>
-      </c>
-      <c r="AA15">
         <v>464</v>
       </c>
     </row>
-    <row r="16" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>9.67</v>
       </c>
@@ -3968,19 +3919,16 @@
         <v>476</v>
       </c>
       <c r="X16">
-        <v>76733</v>
+        <v>31</v>
       </c>
       <c r="Y16">
-        <v>31</v>
+        <v>63.51</v>
       </c>
       <c r="Z16">
-        <v>63.51</v>
-      </c>
-      <c r="AA16">
         <v>319</v>
       </c>
     </row>
-    <row r="17" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>9.1199999999999992</v>
       </c>
@@ -4051,19 +3999,16 @@
         <v>370</v>
       </c>
       <c r="X17">
-        <v>62997</v>
+        <v>15.7</v>
       </c>
       <c r="Y17">
-        <v>15.7</v>
+        <v>57.6</v>
       </c>
       <c r="Z17">
-        <v>57.6</v>
-      </c>
-      <c r="AA17">
         <v>245</v>
       </c>
     </row>
-    <row r="18" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>8.68</v>
       </c>
@@ -4134,19 +4079,16 @@
         <v>289</v>
       </c>
       <c r="X18">
-        <v>43221</v>
+        <v>37.9</v>
       </c>
       <c r="Y18">
-        <v>37.9</v>
+        <v>33.74</v>
       </c>
       <c r="Z18">
-        <v>33.74</v>
-      </c>
-      <c r="AA18">
         <v>428</v>
       </c>
     </row>
-    <row r="19" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>8.8699999999999992</v>
       </c>
@@ -4217,19 +4159,16 @@
         <v>379</v>
       </c>
       <c r="X19">
-        <v>55508</v>
+        <v>9</v>
       </c>
       <c r="Y19">
-        <v>9</v>
+        <v>17.23</v>
       </c>
       <c r="Z19">
-        <v>17.23</v>
-      </c>
-      <c r="AA19">
         <v>335</v>
       </c>
     </row>
-    <row r="20" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>7.52</v>
       </c>
@@ -4300,19 +4239,16 @@
         <v>653</v>
       </c>
       <c r="X20">
-        <v>156015</v>
+        <v>35.6</v>
       </c>
       <c r="Y20">
-        <v>35.6</v>
+        <v>68.260000000000005</v>
       </c>
       <c r="Z20">
-        <v>68.260000000000005</v>
-      </c>
-      <c r="AA20">
         <v>583</v>
       </c>
     </row>
-    <row r="21" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>9.17</v>
       </c>
@@ -4383,19 +4319,16 @@
         <v>406</v>
       </c>
       <c r="X21">
-        <v>85226</v>
+        <v>41.3</v>
       </c>
       <c r="Y21">
-        <v>41.3</v>
+        <v>36.44</v>
       </c>
       <c r="Z21">
-        <v>36.44</v>
-      </c>
-      <c r="AA21">
         <v>401</v>
       </c>
     </row>
-    <row r="22" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>7</v>
       </c>
@@ -4466,19 +4399,16 @@
         <v>85</v>
       </c>
       <c r="X22">
-        <v>55107</v>
+        <v>25.2</v>
       </c>
       <c r="Y22">
-        <v>25.2</v>
+        <v>64.760000000000005</v>
       </c>
       <c r="Z22">
-        <v>64.760000000000005</v>
-      </c>
-      <c r="AA22">
         <v>261</v>
       </c>
     </row>
-    <row r="23" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>8.3699999999999992</v>
       </c>
@@ -4549,19 +4479,16 @@
         <v>225</v>
       </c>
       <c r="X23">
-        <v>46623</v>
+        <v>44.6</v>
       </c>
       <c r="Y23">
-        <v>44.6</v>
+        <v>53.15</v>
       </c>
       <c r="Z23">
-        <v>53.15</v>
-      </c>
-      <c r="AA23">
         <v>161</v>
       </c>
     </row>
-    <row r="24" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>13.18</v>
       </c>
@@ -4632,19 +4559,16 @@
         <v>1705</v>
       </c>
       <c r="X24">
-        <v>156322</v>
+        <v>26</v>
       </c>
       <c r="Y24">
-        <v>26</v>
+        <v>14.61</v>
       </c>
       <c r="Z24">
-        <v>14.61</v>
-      </c>
-      <c r="AA24">
         <v>823</v>
       </c>
     </row>
-    <row r="25" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>6.3</v>
       </c>
@@ -4715,19 +4639,16 @@
         <v>239</v>
       </c>
       <c r="X25">
-        <v>64080</v>
+        <v>20.9</v>
       </c>
       <c r="Y25">
-        <v>20.9</v>
+        <v>44.4</v>
       </c>
       <c r="Z25">
-        <v>44.4</v>
-      </c>
-      <c r="AA25">
         <v>257</v>
       </c>
     </row>
-    <row r="26" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>6.52</v>
       </c>
@@ -4798,19 +4719,16 @@
         <v>404</v>
       </c>
       <c r="X26">
-        <v>88386</v>
+        <v>26.4</v>
       </c>
       <c r="Y26">
-        <v>26.4</v>
+        <v>67.37</v>
       </c>
       <c r="Z26">
-        <v>67.37</v>
-      </c>
-      <c r="AA26">
         <v>257</v>
       </c>
     </row>
-    <row r="27" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>6.77</v>
       </c>
@@ -4881,19 +4799,16 @@
         <v>134</v>
       </c>
       <c r="X27">
-        <v>43038</v>
+        <v>28.3</v>
       </c>
       <c r="Y27">
-        <v>28.3</v>
+        <v>48.98</v>
       </c>
       <c r="Z27">
-        <v>48.98</v>
-      </c>
-      <c r="AA27">
         <v>216</v>
       </c>
     </row>
-    <row r="28" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>7.02</v>
       </c>
@@ -4964,19 +4879,16 @@
         <v>265</v>
       </c>
       <c r="X28">
-        <v>78335</v>
+        <v>79</v>
       </c>
       <c r="Y28">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="Z28">
-        <v>100</v>
-      </c>
-      <c r="AA28">
         <v>239</v>
       </c>
     </row>
-    <row r="29" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>8.3800000000000008</v>
       </c>
@@ -5047,19 +4959,16 @@
         <v>802</v>
       </c>
       <c r="X29">
-        <v>98436</v>
+        <v>51.9</v>
       </c>
       <c r="Y29">
-        <v>51.9</v>
+        <v>100</v>
       </c>
       <c r="Z29">
-        <v>100</v>
-      </c>
-      <c r="AA29">
         <v>228</v>
       </c>
     </row>
-    <row r="30" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>11.27</v>
       </c>
@@ -5130,19 +5039,16 @@
         <v>7863</v>
       </c>
       <c r="X30">
-        <v>641928</v>
+        <v>136.9</v>
       </c>
       <c r="Y30">
-        <v>136.9</v>
+        <v>100</v>
       </c>
       <c r="Z30">
-        <v>100</v>
-      </c>
-      <c r="AA30">
         <v>1586</v>
       </c>
     </row>
-    <row r="31" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>7.05</v>
       </c>
@@ -5213,19 +5119,16 @@
         <v>564</v>
       </c>
       <c r="X31">
-        <v>109971</v>
+        <v>52.7</v>
       </c>
       <c r="Y31">
-        <v>52.7</v>
+        <v>100</v>
       </c>
       <c r="Z31">
-        <v>100</v>
-      </c>
-      <c r="AA31">
         <v>299</v>
       </c>
     </row>
-    <row r="32" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>8.34</v>
       </c>
@@ -5296,19 +5199,16 @@
         <v>80</v>
       </c>
       <c r="X32">
-        <v>54891</v>
+        <v>52.1</v>
       </c>
       <c r="Y32">
-        <v>52.1</v>
+        <v>44.5</v>
       </c>
       <c r="Z32">
-        <v>44.5</v>
-      </c>
-      <c r="AA32">
         <v>195</v>
       </c>
     </row>
-    <row r="33" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>10.62</v>
       </c>
@@ -5379,19 +5279,16 @@
         <v>197</v>
       </c>
       <c r="X33">
-        <v>79023</v>
+        <v>26.1</v>
       </c>
       <c r="Y33">
-        <v>26.1</v>
+        <v>42.82</v>
       </c>
       <c r="Z33">
-        <v>42.82</v>
-      </c>
-      <c r="AA33">
         <v>618</v>
       </c>
     </row>
-    <row r="34" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>9.23</v>
       </c>
@@ -5462,19 +5359,16 @@
         <v>449</v>
       </c>
       <c r="X34">
-        <v>120432</v>
+        <v>24</v>
       </c>
       <c r="Y34">
-        <v>24</v>
+        <v>22.16</v>
       </c>
       <c r="Z34">
-        <v>22.16</v>
-      </c>
-      <c r="AA34">
         <v>558</v>
       </c>
     </row>
-    <row r="35" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>8.5500000000000007</v>
       </c>
@@ -5545,19 +5439,16 @@
         <v>98</v>
       </c>
       <c r="X35">
-        <v>51657</v>
+        <v>20.9</v>
       </c>
       <c r="Y35">
-        <v>20.9</v>
+        <v>37.18</v>
       </c>
       <c r="Z35">
-        <v>37.18</v>
-      </c>
-      <c r="AA35">
         <v>232</v>
       </c>
     </row>
-    <row r="36" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>9.61</v>
       </c>
@@ -5628,19 +5519,16 @@
         <v>67</v>
       </c>
       <c r="X36">
-        <v>44855</v>
+        <v>26.8</v>
       </c>
       <c r="Y36">
-        <v>26.8</v>
+        <v>36.82</v>
       </c>
       <c r="Z36">
-        <v>36.82</v>
-      </c>
-      <c r="AA36">
         <v>267</v>
       </c>
     </row>
-    <row r="37" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>8.81</v>
       </c>
@@ -5711,19 +5599,16 @@
         <v>39</v>
       </c>
       <c r="X37">
-        <v>40305</v>
+        <v>15.9</v>
       </c>
       <c r="Y37">
-        <v>15.9</v>
+        <v>12.27</v>
       </c>
       <c r="Z37">
-        <v>12.27</v>
-      </c>
-      <c r="AA37">
         <v>430</v>
       </c>
     </row>
-    <row r="38" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>8.15</v>
       </c>
@@ -5794,19 +5679,16 @@
         <v>496</v>
       </c>
       <c r="X38">
-        <v>158496</v>
+        <v>34.9</v>
       </c>
       <c r="Y38">
-        <v>34.9</v>
+        <v>64.17</v>
       </c>
       <c r="Z38">
-        <v>64.17</v>
-      </c>
-      <c r="AA38">
         <v>1131</v>
       </c>
     </row>
-    <row r="39" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>9.01</v>
       </c>
@@ -5877,19 +5759,16 @@
         <v>16</v>
       </c>
       <c r="X39">
-        <v>65450</v>
+        <v>22.2</v>
       </c>
       <c r="Y39">
-        <v>22.2</v>
+        <v>30.4</v>
       </c>
       <c r="Z39">
-        <v>30.4</v>
-      </c>
-      <c r="AA39">
         <v>436</v>
       </c>
     </row>
-    <row r="40" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>9.4700000000000006</v>
       </c>
@@ -5960,19 +5839,16 @@
         <v>48</v>
       </c>
       <c r="X40">
-        <v>45482</v>
+        <v>22.2</v>
       </c>
       <c r="Y40">
-        <v>22.2</v>
+        <v>37.909999999999997</v>
       </c>
       <c r="Z40">
-        <v>37.909999999999997</v>
-      </c>
-      <c r="AA40">
         <v>278</v>
       </c>
     </row>
-    <row r="41" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>9.15</v>
       </c>
@@ -6043,19 +5919,16 @@
         <v>157</v>
       </c>
       <c r="X41">
-        <v>86119</v>
+        <v>28</v>
       </c>
       <c r="Y41">
-        <v>28</v>
+        <v>42.29</v>
       </c>
       <c r="Z41">
-        <v>42.29</v>
-      </c>
-      <c r="AA41">
         <v>461</v>
       </c>
     </row>
-    <row r="42" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>8.6999999999999993</v>
       </c>
@@ -6126,19 +5999,16 @@
         <v>52</v>
       </c>
       <c r="X42">
-        <v>40025</v>
+        <v>38</v>
       </c>
       <c r="Y42">
-        <v>38</v>
+        <v>24.71</v>
       </c>
       <c r="Z42">
-        <v>24.71</v>
-      </c>
-      <c r="AA42">
         <v>230</v>
       </c>
     </row>
-    <row r="43" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>8.7799999999999994</v>
       </c>
@@ -6209,19 +6079,16 @@
         <v>0</v>
       </c>
       <c r="X43">
-        <v>43390</v>
+        <v>25.1</v>
       </c>
       <c r="Y43">
-        <v>25.1</v>
+        <v>36.869999999999997</v>
       </c>
       <c r="Z43">
-        <v>36.869999999999997</v>
-      </c>
-      <c r="AA43">
         <v>301</v>
       </c>
     </row>
-    <row r="44" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>8.06</v>
       </c>
@@ -6292,19 +6159,16 @@
         <v>127</v>
       </c>
       <c r="X44">
-        <v>40826</v>
+        <v>34.5</v>
       </c>
       <c r="Y44">
-        <v>34.5</v>
+        <v>42.23</v>
       </c>
       <c r="Z44">
-        <v>42.23</v>
-      </c>
-      <c r="AA44">
         <v>220</v>
       </c>
     </row>
-    <row r="45" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>9.24</v>
       </c>
@@ -6375,19 +6239,16 @@
         <v>155</v>
       </c>
       <c r="X45">
-        <v>98703</v>
+        <v>28.3</v>
       </c>
       <c r="Y45">
-        <v>28.3</v>
+        <v>31.62</v>
       </c>
       <c r="Z45">
-        <v>31.62</v>
-      </c>
-      <c r="AA45">
         <v>421</v>
       </c>
     </row>
-    <row r="46" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>9.4</v>
       </c>
@@ -6458,19 +6319,16 @@
         <v>418</v>
       </c>
       <c r="X46">
-        <v>109565</v>
+        <v>13.5</v>
       </c>
       <c r="Y46">
-        <v>13.5</v>
+        <v>13.11</v>
       </c>
       <c r="Z46">
-        <v>13.11</v>
-      </c>
-      <c r="AA46">
         <v>603</v>
       </c>
     </row>
-    <row r="47" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>9.7899999999999991</v>
       </c>
@@ -6541,19 +6399,16 @@
         <v>210</v>
       </c>
       <c r="X47">
-        <v>48322</v>
+        <v>28.1</v>
       </c>
       <c r="Y47">
-        <v>28.1</v>
+        <v>28.01</v>
       </c>
       <c r="Z47">
-        <v>28.01</v>
-      </c>
-      <c r="AA47">
         <v>295</v>
       </c>
     </row>
-    <row r="48" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>7.97</v>
       </c>
@@ -6624,19 +6479,16 @@
         <v>28</v>
       </c>
       <c r="X48">
-        <v>34040</v>
+        <v>31.1</v>
       </c>
       <c r="Y48">
-        <v>31.1</v>
+        <v>39.369999999999997</v>
       </c>
       <c r="Z48">
-        <v>39.369999999999997</v>
-      </c>
-      <c r="AA48">
         <v>329</v>
       </c>
     </row>
-    <row r="49" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>7.98</v>
       </c>
@@ -6707,19 +6559,16 @@
         <v>158</v>
       </c>
       <c r="X49">
-        <v>85646</v>
+        <v>14.2</v>
       </c>
       <c r="Y49">
-        <v>14.2</v>
+        <v>19.559999999999999</v>
       </c>
       <c r="Z49">
-        <v>19.559999999999999</v>
-      </c>
-      <c r="AA49">
         <v>742</v>
       </c>
     </row>
-    <row r="50" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>8.75</v>
       </c>
@@ -6790,19 +6639,16 @@
         <v>102</v>
       </c>
       <c r="X50">
-        <v>69886</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="Y50">
-        <v>33.799999999999997</v>
+        <v>41.97</v>
       </c>
       <c r="Z50">
-        <v>41.97</v>
-      </c>
-      <c r="AA50">
         <v>432</v>
       </c>
     </row>
-    <row r="51" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>8.14</v>
       </c>
@@ -6873,19 +6719,16 @@
         <v>2135</v>
       </c>
       <c r="X51">
-        <v>344091</v>
+        <v>136.4</v>
       </c>
       <c r="Y51">
-        <v>136.4</v>
+        <v>100</v>
       </c>
       <c r="Z51">
-        <v>100</v>
-      </c>
-      <c r="AA51">
         <v>936</v>
       </c>
     </row>
-    <row r="52" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>7.56</v>
       </c>
@@ -6956,19 +6799,16 @@
         <v>433</v>
       </c>
       <c r="X52">
-        <v>93564</v>
+        <v>71.2</v>
       </c>
       <c r="Y52">
-        <v>71.2</v>
+        <v>100</v>
       </c>
       <c r="Z52">
-        <v>100</v>
-      </c>
-      <c r="AA52">
         <v>283</v>
       </c>
     </row>
-    <row r="53" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>9.48</v>
       </c>
@@ -7039,19 +6879,16 @@
         <v>1994</v>
       </c>
       <c r="X53">
-        <v>198613</v>
+        <v>83.5</v>
       </c>
       <c r="Y53">
-        <v>83.5</v>
+        <v>100</v>
       </c>
       <c r="Z53">
-        <v>100</v>
-      </c>
-      <c r="AA53">
         <v>722</v>
       </c>
     </row>
-    <row r="54" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>7.23</v>
       </c>
@@ -7122,19 +6959,16 @@
         <v>475</v>
       </c>
       <c r="X54">
-        <v>108561</v>
+        <v>66.5</v>
       </c>
       <c r="Y54">
-        <v>66.5</v>
+        <v>100</v>
       </c>
       <c r="Z54">
-        <v>100</v>
-      </c>
-      <c r="AA54">
         <v>301</v>
       </c>
     </row>
-    <row r="55" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>8.94</v>
       </c>
@@ -7205,19 +7039,16 @@
         <v>151</v>
       </c>
       <c r="X55">
-        <v>109958</v>
+        <v>28.6</v>
       </c>
       <c r="Y55">
-        <v>28.6</v>
+        <v>20.12</v>
       </c>
       <c r="Z55">
-        <v>20.12</v>
-      </c>
-      <c r="AA55">
         <v>673</v>
       </c>
     </row>
-    <row r="56" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>8.2100000000000009</v>
       </c>
@@ -7288,19 +7119,16 @@
         <v>168</v>
       </c>
       <c r="X56">
-        <v>100333</v>
+        <v>24.7</v>
       </c>
       <c r="Y56">
-        <v>24.7</v>
+        <v>33.21</v>
       </c>
       <c r="Z56">
-        <v>33.21</v>
-      </c>
-      <c r="AA56">
         <v>537</v>
       </c>
     </row>
-    <row r="57" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>7.7</v>
       </c>
@@ -7371,19 +7199,16 @@
         <v>0</v>
       </c>
       <c r="X57">
-        <v>77502</v>
+        <v>6.3</v>
       </c>
       <c r="Y57">
-        <v>6.3</v>
+        <v>10.01</v>
       </c>
       <c r="Z57">
-        <v>10.01</v>
-      </c>
-      <c r="AA57">
         <v>735</v>
       </c>
     </row>
-    <row r="58" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>6.19</v>
       </c>
@@ -7454,19 +7279,16 @@
         <v>45</v>
       </c>
       <c r="X58">
-        <v>62009</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="Y58">
-        <v>18.100000000000001</v>
+        <v>27.79</v>
       </c>
       <c r="Z58">
-        <v>27.79</v>
-      </c>
-      <c r="AA58">
         <v>380</v>
       </c>
     </row>
-    <row r="59" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>7.63</v>
       </c>
@@ -7537,19 +7359,16 @@
         <v>35</v>
       </c>
       <c r="X59">
-        <v>45142</v>
+        <v>44.1</v>
       </c>
       <c r="Y59">
-        <v>44.1</v>
+        <v>29.06</v>
       </c>
       <c r="Z59">
-        <v>29.06</v>
-      </c>
-      <c r="AA59">
         <v>176</v>
       </c>
     </row>
-    <row r="60" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>6.85</v>
       </c>
@@ -7620,19 +7439,16 @@
         <v>91</v>
       </c>
       <c r="X60">
-        <v>62552</v>
+        <v>35</v>
       </c>
       <c r="Y60">
-        <v>35</v>
+        <v>29.39</v>
       </c>
       <c r="Z60">
-        <v>29.39</v>
-      </c>
-      <c r="AA60">
         <v>583</v>
       </c>
     </row>
-    <row r="61" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>7.22</v>
       </c>
@@ -7703,19 +7519,16 @@
         <v>158</v>
       </c>
       <c r="X61">
-        <v>94531</v>
+        <v>32.9</v>
       </c>
       <c r="Y61">
-        <v>32.9</v>
+        <v>40.229999999999997</v>
       </c>
       <c r="Z61">
-        <v>40.229999999999997</v>
-      </c>
-      <c r="AA61">
         <v>622</v>
       </c>
     </row>
-    <row r="62" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>8.3800000000000008</v>
       </c>
@@ -7786,19 +7599,16 @@
         <v>60</v>
       </c>
       <c r="X62">
-        <v>87850</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="Y62">
-        <v>20.399999999999999</v>
+        <v>30.69</v>
       </c>
       <c r="Z62">
-        <v>30.69</v>
-      </c>
-      <c r="AA62">
         <v>662</v>
       </c>
     </row>
-    <row r="63" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>9.67</v>
       </c>
@@ -7869,19 +7679,16 @@
         <v>314</v>
       </c>
       <c r="X63">
-        <v>156493</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="Y63">
-        <v>16.899999999999999</v>
+        <v>7.17</v>
       </c>
       <c r="Z63">
-        <v>7.17</v>
-      </c>
-      <c r="AA63">
         <v>1454</v>
       </c>
     </row>
-    <row r="64" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>10.44</v>
       </c>
@@ -7952,19 +7759,16 @@
         <v>175</v>
       </c>
       <c r="X64">
-        <v>57218</v>
+        <v>49.6</v>
       </c>
       <c r="Y64">
-        <v>49.6</v>
+        <v>32.64</v>
       </c>
       <c r="Z64">
-        <v>32.64</v>
-      </c>
-      <c r="AA64">
         <v>315</v>
       </c>
     </row>
-    <row r="65" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>10.85</v>
       </c>
@@ -8035,19 +7839,16 @@
         <v>265</v>
       </c>
       <c r="X65">
-        <v>106213</v>
+        <v>42.9</v>
       </c>
       <c r="Y65">
-        <v>42.9</v>
+        <v>30.05</v>
       </c>
       <c r="Z65">
-        <v>30.05</v>
-      </c>
-      <c r="AA65">
         <v>726</v>
       </c>
     </row>
-    <row r="66" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>7.9</v>
       </c>
@@ -8118,19 +7919,16 @@
         <v>120</v>
       </c>
       <c r="X66">
-        <v>58706</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="Y66">
-        <v>36.799999999999997</v>
+        <v>31.01</v>
       </c>
       <c r="Z66">
-        <v>31.01</v>
-      </c>
-      <c r="AA66">
         <v>313</v>
       </c>
     </row>
-    <row r="67" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>8.18</v>
       </c>
@@ -8201,19 +7999,16 @@
         <v>28</v>
       </c>
       <c r="X67">
-        <v>34372</v>
+        <v>45.7</v>
       </c>
       <c r="Y67">
-        <v>45.7</v>
+        <v>30.71</v>
       </c>
       <c r="Z67">
-        <v>30.71</v>
-      </c>
-      <c r="AA67">
         <v>253</v>
       </c>
     </row>
-    <row r="68" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>7.52</v>
       </c>
@@ -8284,19 +8079,16 @@
         <v>465</v>
       </c>
       <c r="X68">
-        <v>112384</v>
+        <v>73.2</v>
       </c>
       <c r="Y68">
-        <v>73.2</v>
+        <v>47.36</v>
       </c>
       <c r="Z68">
-        <v>47.36</v>
-      </c>
-      <c r="AA68">
         <v>555</v>
       </c>
     </row>
-    <row r="69" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>8.6</v>
       </c>
@@ -8367,19 +8159,16 @@
         <v>128</v>
       </c>
       <c r="X69">
-        <v>58298</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="Y69">
-        <v>68.400000000000006</v>
+        <v>26.46</v>
       </c>
       <c r="Z69">
-        <v>26.46</v>
-      </c>
-      <c r="AA69">
         <v>363</v>
       </c>
     </row>
-    <row r="70" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>10.119999999999999</v>
       </c>
@@ -8450,19 +8239,16 @@
         <v>172</v>
       </c>
       <c r="X70">
-        <v>55530</v>
+        <v>63</v>
       </c>
       <c r="Y70">
-        <v>63</v>
+        <v>45.77</v>
       </c>
       <c r="Z70">
-        <v>45.77</v>
-      </c>
-      <c r="AA70">
         <v>281</v>
       </c>
     </row>
-    <row r="71" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>8.18</v>
       </c>
@@ -8533,19 +8319,16 @@
         <v>653</v>
       </c>
       <c r="X71">
-        <v>71432</v>
+        <v>42.1</v>
       </c>
       <c r="Y71">
-        <v>42.1</v>
+        <v>57.81</v>
       </c>
       <c r="Z71">
-        <v>57.81</v>
-      </c>
-      <c r="AA71">
         <v>247</v>
       </c>
     </row>
-    <row r="72" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>7.06</v>
       </c>
@@ -8616,19 +8399,16 @@
         <v>87</v>
       </c>
       <c r="X72">
-        <v>81944</v>
+        <v>32</v>
       </c>
       <c r="Y72">
-        <v>32</v>
+        <v>30.96</v>
       </c>
       <c r="Z72">
-        <v>30.96</v>
-      </c>
-      <c r="AA72">
         <v>434</v>
       </c>
     </row>
-    <row r="73" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>7.72</v>
       </c>
@@ -8699,19 +8479,16 @@
         <v>69</v>
       </c>
       <c r="X73">
-        <v>37989</v>
+        <v>52.9</v>
       </c>
       <c r="Y73">
-        <v>52.9</v>
+        <v>34</v>
       </c>
       <c r="Z73">
-        <v>34</v>
-      </c>
-      <c r="AA73">
         <v>317</v>
       </c>
     </row>
-    <row r="74" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>7.55</v>
       </c>
@@ -8782,19 +8559,16 @@
         <v>0</v>
       </c>
       <c r="X74">
-        <v>105354</v>
+        <v>12.8</v>
       </c>
       <c r="Y74">
-        <v>12.8</v>
+        <v>10.57</v>
       </c>
       <c r="Z74">
-        <v>10.57</v>
-      </c>
-      <c r="AA74">
         <v>916</v>
       </c>
     </row>
-    <row r="75" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>9.34</v>
       </c>
@@ -8865,19 +8639,16 @@
         <v>347</v>
       </c>
       <c r="X75">
-        <v>56942</v>
+        <v>107.1</v>
       </c>
       <c r="Y75">
-        <v>107.1</v>
+        <v>100</v>
       </c>
       <c r="Z75">
-        <v>100</v>
-      </c>
-      <c r="AA75">
         <v>196</v>
       </c>
     </row>
-    <row r="76" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>6.74</v>
       </c>
@@ -8948,19 +8719,16 @@
         <v>371</v>
       </c>
       <c r="X76">
-        <v>61135</v>
+        <v>64.8</v>
       </c>
       <c r="Y76">
-        <v>64.8</v>
+        <v>100</v>
       </c>
       <c r="Z76">
-        <v>100</v>
-      </c>
-      <c r="AA76">
         <v>184</v>
       </c>
     </row>
-    <row r="77" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>9.9700000000000006</v>
       </c>
@@ -9031,19 +8799,16 @@
         <v>3067</v>
       </c>
       <c r="X77">
-        <v>338586</v>
+        <v>195.3</v>
       </c>
       <c r="Y77">
-        <v>195.3</v>
+        <v>100</v>
       </c>
       <c r="Z77">
-        <v>100</v>
-      </c>
-      <c r="AA77">
         <v>743</v>
       </c>
     </row>
-    <row r="78" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>7.97</v>
       </c>
@@ -9114,19 +8879,16 @@
         <v>378</v>
       </c>
       <c r="X78">
-        <v>62785</v>
+        <v>130.30000000000001</v>
       </c>
       <c r="Y78">
-        <v>130.30000000000001</v>
+        <v>100</v>
       </c>
       <c r="Z78">
-        <v>100</v>
-      </c>
-      <c r="AA78">
         <v>181</v>
       </c>
     </row>
-    <row r="79" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>8.42</v>
       </c>
@@ -9197,19 +8959,16 @@
         <v>316</v>
       </c>
       <c r="X79">
-        <v>72291</v>
+        <v>26</v>
       </c>
       <c r="Y79">
-        <v>26</v>
+        <v>33.71</v>
       </c>
       <c r="Z79">
-        <v>33.71</v>
-      </c>
-      <c r="AA79">
         <v>340</v>
       </c>
     </row>
-    <row r="80" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>7.77</v>
       </c>
@@ -9280,19 +9039,16 @@
         <v>163</v>
       </c>
       <c r="X80">
-        <v>54598</v>
+        <v>28.9</v>
       </c>
       <c r="Y80">
-        <v>28.9</v>
+        <v>50.7</v>
       </c>
       <c r="Z80">
-        <v>50.7</v>
-      </c>
-      <c r="AA80">
         <v>250</v>
       </c>
     </row>
-    <row r="81" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>7.79</v>
       </c>
@@ -9363,19 +9119,16 @@
         <v>136</v>
       </c>
       <c r="X81">
-        <v>57100</v>
+        <v>46.9</v>
       </c>
       <c r="Y81">
-        <v>46.9</v>
+        <v>51.59</v>
       </c>
       <c r="Z81">
-        <v>51.59</v>
-      </c>
-      <c r="AA81">
         <v>161</v>
       </c>
     </row>
-    <row r="82" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>8.49</v>
       </c>
@@ -9446,19 +9199,16 @@
         <v>349</v>
       </c>
       <c r="X82">
-        <v>85733</v>
+        <v>53.5</v>
       </c>
       <c r="Y82">
-        <v>53.5</v>
+        <v>65.48</v>
       </c>
       <c r="Z82">
-        <v>65.48</v>
-      </c>
-      <c r="AA82">
         <v>311</v>
       </c>
     </row>
-    <row r="83" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>8.51</v>
       </c>
@@ -9529,19 +9279,16 @@
         <v>170</v>
       </c>
       <c r="X83">
-        <v>46944</v>
+        <v>24.9</v>
       </c>
       <c r="Y83">
-        <v>24.9</v>
+        <v>63.42</v>
       </c>
       <c r="Z83">
-        <v>63.42</v>
-      </c>
-      <c r="AA83">
         <v>151</v>
       </c>
     </row>
-    <row r="84" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>8.15</v>
       </c>
@@ -9612,19 +9359,16 @@
         <v>215</v>
       </c>
       <c r="X84">
-        <v>48621</v>
+        <v>20</v>
       </c>
       <c r="Y84">
-        <v>20</v>
+        <v>46.95</v>
       </c>
       <c r="Z84">
-        <v>46.95</v>
-      </c>
-      <c r="AA84">
         <v>159</v>
       </c>
     </row>
-    <row r="85" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>9.51</v>
       </c>
@@ -9695,19 +9439,16 @@
         <v>18</v>
       </c>
       <c r="X85">
-        <v>35000</v>
+        <v>32</v>
       </c>
       <c r="Y85">
-        <v>32</v>
+        <v>41.73</v>
       </c>
       <c r="Z85">
-        <v>41.73</v>
-      </c>
-      <c r="AA85">
         <v>112</v>
       </c>
     </row>
-    <row r="86" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>9.2100000000000009</v>
       </c>
@@ -9778,19 +9519,16 @@
         <v>90</v>
       </c>
       <c r="X86">
-        <v>55520</v>
+        <v>61.1</v>
       </c>
       <c r="Y86">
-        <v>61.1</v>
+        <v>47.82</v>
       </c>
       <c r="Z86">
-        <v>47.82</v>
-      </c>
-      <c r="AA86">
         <v>179</v>
       </c>
     </row>
-    <row r="87" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>9.4499999999999993</v>
       </c>
@@ -9861,19 +9599,16 @@
         <v>440</v>
       </c>
       <c r="X87">
-        <v>75673</v>
+        <v>32.6</v>
       </c>
       <c r="Y87">
-        <v>32.6</v>
+        <v>43.97</v>
       </c>
       <c r="Z87">
-        <v>43.97</v>
-      </c>
-      <c r="AA87">
         <v>316</v>
       </c>
     </row>
-    <row r="88" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>7.97</v>
       </c>
@@ -9944,19 +9679,16 @@
         <v>374</v>
       </c>
       <c r="X88">
-        <v>78148</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="Y88">
-        <v>18.399999999999999</v>
+        <v>60.29</v>
       </c>
       <c r="Z88">
-        <v>60.29</v>
-      </c>
-      <c r="AA88">
         <v>293</v>
       </c>
     </row>
-    <row r="89" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>8.3800000000000008</v>
       </c>
@@ -10027,19 +9759,16 @@
         <v>329</v>
       </c>
       <c r="X89">
-        <v>95423</v>
+        <v>34.4</v>
       </c>
       <c r="Y89">
-        <v>34.4</v>
+        <v>60.15</v>
       </c>
       <c r="Z89">
-        <v>60.15</v>
-      </c>
-      <c r="AA89">
         <v>360</v>
       </c>
     </row>
-    <row r="90" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>8.56</v>
       </c>
@@ -10110,19 +9839,16 @@
         <v>182</v>
       </c>
       <c r="X90">
-        <v>38613</v>
+        <v>28.5</v>
       </c>
       <c r="Y90">
-        <v>28.5</v>
+        <v>49.86</v>
       </c>
       <c r="Z90">
-        <v>49.86</v>
-      </c>
-      <c r="AA90">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>8.5299999999999994</v>
       </c>
@@ -10193,19 +9919,16 @@
         <v>795</v>
       </c>
       <c r="X91">
-        <v>122589</v>
+        <v>79.5</v>
       </c>
       <c r="Y91">
-        <v>79.5</v>
+        <v>100</v>
       </c>
       <c r="Z91">
-        <v>100</v>
-      </c>
-      <c r="AA91">
         <v>303</v>
       </c>
     </row>
-    <row r="92" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>8.86</v>
       </c>
@@ -10276,19 +9999,16 @@
         <v>1164</v>
       </c>
       <c r="X92">
-        <v>140892</v>
+        <v>77.599999999999994</v>
       </c>
       <c r="Y92">
-        <v>77.599999999999994</v>
+        <v>100</v>
       </c>
       <c r="Z92">
-        <v>100</v>
-      </c>
-      <c r="AA92">
         <v>408</v>
       </c>
     </row>
-    <row r="93" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>8.9600000000000009</v>
       </c>
@@ -10359,19 +10079,16 @@
         <v>619</v>
       </c>
       <c r="X93">
-        <v>112443</v>
+        <v>50.1</v>
       </c>
       <c r="Y93">
-        <v>50.1</v>
+        <v>56.81</v>
       </c>
       <c r="Z93">
-        <v>56.81</v>
-      </c>
-      <c r="AA93">
         <v>698</v>
       </c>
     </row>
-    <row r="94" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>7.8</v>
       </c>
@@ -10442,19 +10159,16 @@
         <v>174</v>
       </c>
       <c r="X94">
-        <v>95516</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="Y94">
-        <v>35.299999999999997</v>
+        <v>58.16</v>
       </c>
       <c r="Z94">
-        <v>58.16</v>
-      </c>
-      <c r="AA94">
         <v>579</v>
       </c>
     </row>
-    <row r="95" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>8.23</v>
       </c>
@@ -10525,19 +10239,16 @@
         <v>121</v>
       </c>
       <c r="X95">
-        <v>49736</v>
+        <v>50.9</v>
       </c>
       <c r="Y95">
-        <v>50.9</v>
+        <v>34.03</v>
       </c>
       <c r="Z95">
-        <v>34.03</v>
-      </c>
-      <c r="AA95">
         <v>251</v>
       </c>
     </row>
-    <row r="96" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>8.84</v>
       </c>
@@ -10608,19 +10319,16 @@
         <v>121</v>
       </c>
       <c r="X96">
-        <v>49286</v>
+        <v>47.1</v>
       </c>
       <c r="Y96">
-        <v>47.1</v>
+        <v>31.4</v>
       </c>
       <c r="Z96">
-        <v>31.4</v>
-      </c>
-      <c r="AA96">
         <v>214</v>
       </c>
     </row>
-    <row r="97" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>8.66</v>
       </c>
@@ -10691,19 +10399,16 @@
         <v>113</v>
       </c>
       <c r="X97">
-        <v>77614</v>
+        <v>63.6</v>
       </c>
       <c r="Y97">
-        <v>63.6</v>
+        <v>35.94</v>
       </c>
       <c r="Z97">
-        <v>35.94</v>
-      </c>
-      <c r="AA97">
         <v>332</v>
       </c>
     </row>
-    <row r="98" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>8.4700000000000006</v>
       </c>
@@ -10774,19 +10479,16 @@
         <v>153</v>
       </c>
       <c r="X98">
-        <v>72565</v>
+        <v>31.3</v>
       </c>
       <c r="Y98">
-        <v>31.3</v>
+        <v>32.24</v>
       </c>
       <c r="Z98">
-        <v>32.24</v>
-      </c>
-      <c r="AA98">
         <v>376</v>
       </c>
     </row>
-    <row r="99" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>9.0299999999999994</v>
       </c>
@@ -10857,19 +10559,16 @@
         <v>190</v>
       </c>
       <c r="X99">
-        <v>75524</v>
+        <v>25.7</v>
       </c>
       <c r="Y99">
-        <v>25.7</v>
+        <v>32.5</v>
       </c>
       <c r="Z99">
-        <v>32.5</v>
-      </c>
-      <c r="AA99">
         <v>548</v>
       </c>
     </row>
-    <row r="100" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>7.98</v>
       </c>
@@ -10940,19 +10639,16 @@
         <v>484</v>
       </c>
       <c r="X100">
-        <v>118941</v>
+        <v>42.8</v>
       </c>
       <c r="Y100">
-        <v>42.8</v>
+        <v>69.180000000000007</v>
       </c>
       <c r="Z100">
-        <v>69.180000000000007</v>
-      </c>
-      <c r="AA100">
         <v>427</v>
       </c>
     </row>
-    <row r="101" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>8.83</v>
       </c>
@@ -11023,19 +10719,16 @@
         <v>142</v>
       </c>
       <c r="X101">
-        <v>50952</v>
+        <v>16.3</v>
       </c>
       <c r="Y101">
-        <v>16.3</v>
+        <v>24.33</v>
       </c>
       <c r="Z101">
-        <v>24.33</v>
-      </c>
-      <c r="AA101">
         <v>279</v>
       </c>
     </row>
-    <row r="102" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>9.3699999999999992</v>
       </c>
@@ -11106,19 +10799,16 @@
         <v>315</v>
       </c>
       <c r="X102">
-        <v>91208</v>
+        <v>3.4</v>
       </c>
       <c r="Y102">
-        <v>3.4</v>
+        <v>9.24</v>
       </c>
       <c r="Z102">
-        <v>9.24</v>
-      </c>
-      <c r="AA102">
         <v>603</v>
       </c>
     </row>
-    <row r="103" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>7.97</v>
       </c>
@@ -11189,19 +10879,16 @@
         <v>225</v>
       </c>
       <c r="X103">
-        <v>40906</v>
+        <v>30.3</v>
       </c>
       <c r="Y103">
-        <v>30.3</v>
+        <v>24.94</v>
       </c>
       <c r="Z103">
-        <v>24.94</v>
-      </c>
-      <c r="AA103">
         <v>318</v>
       </c>
     </row>
-    <row r="104" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>8.0500000000000007</v>
       </c>
@@ -11272,19 +10959,16 @@
         <v>194</v>
       </c>
       <c r="X104">
-        <v>111696</v>
+        <v>42.4</v>
       </c>
       <c r="Y104">
-        <v>42.4</v>
+        <v>46.12</v>
       </c>
       <c r="Z104">
-        <v>46.12</v>
-      </c>
-      <c r="AA104">
         <v>676</v>
       </c>
     </row>
-    <row r="105" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>10.31</v>
       </c>
@@ -11355,19 +11039,16 @@
         <v>229</v>
       </c>
       <c r="X105">
-        <v>48385</v>
+        <v>44.6</v>
       </c>
       <c r="Y105">
-        <v>44.6</v>
+        <v>42.01</v>
       </c>
       <c r="Z105">
-        <v>42.01</v>
-      </c>
-      <c r="AA105">
         <v>233</v>
       </c>
     </row>
-    <row r="106" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>9.1</v>
       </c>
@@ -11438,19 +11119,16 @@
         <v>167</v>
       </c>
       <c r="X106">
-        <v>116918</v>
+        <v>54.2</v>
       </c>
       <c r="Y106">
-        <v>54.2</v>
+        <v>42.75</v>
       </c>
       <c r="Z106">
-        <v>42.75</v>
-      </c>
-      <c r="AA106">
         <v>580</v>
       </c>
     </row>
-    <row r="107" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>9.91</v>
       </c>
@@ -11521,19 +11199,16 @@
         <v>50</v>
       </c>
       <c r="X107">
-        <v>38173</v>
+        <v>4.5</v>
       </c>
       <c r="Y107">
-        <v>4.5</v>
+        <v>53</v>
       </c>
       <c r="Z107">
-        <v>53</v>
-      </c>
-      <c r="AA107">
         <v>150</v>
       </c>
     </row>
-    <row r="108" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>8.52</v>
       </c>
@@ -11604,19 +11279,16 @@
         <v>87</v>
       </c>
       <c r="X108">
-        <v>115735</v>
+        <v>42.8</v>
       </c>
       <c r="Y108">
-        <v>42.8</v>
+        <v>28.91</v>
       </c>
       <c r="Z108">
-        <v>28.91</v>
-      </c>
-      <c r="AA108">
         <v>577</v>
       </c>
     </row>
-    <row r="109" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>8.39</v>
       </c>
@@ -11687,19 +11359,16 @@
         <v>125</v>
       </c>
       <c r="X109">
-        <v>75736</v>
+        <v>31.8</v>
       </c>
       <c r="Y109">
-        <v>31.8</v>
+        <v>25.45</v>
       </c>
       <c r="Z109">
-        <v>25.45</v>
-      </c>
-      <c r="AA109">
         <v>463</v>
       </c>
     </row>
-    <row r="110" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>9.0399999999999991</v>
       </c>
@@ -11770,19 +11439,16 @@
         <v>60</v>
       </c>
       <c r="X110">
-        <v>41984</v>
+        <v>14.8</v>
       </c>
       <c r="Y110">
-        <v>14.8</v>
+        <v>65.37</v>
       </c>
       <c r="Z110">
-        <v>65.37</v>
-      </c>
-      <c r="AA110">
         <v>199</v>
       </c>
     </row>
-    <row r="111" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>8.74</v>
       </c>
@@ -11853,19 +11519,16 @@
         <v>211</v>
       </c>
       <c r="X111">
-        <v>66064</v>
+        <v>28.8</v>
       </c>
       <c r="Y111">
-        <v>28.8</v>
+        <v>68.7</v>
       </c>
       <c r="Z111">
-        <v>68.7</v>
-      </c>
-      <c r="AA111">
         <v>302</v>
       </c>
     </row>
-    <row r="112" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>8.02</v>
       </c>
@@ -11936,19 +11599,16 @@
         <v>624</v>
       </c>
       <c r="X112">
-        <v>165850</v>
+        <v>71</v>
       </c>
       <c r="Y112">
-        <v>71</v>
+        <v>40.35</v>
       </c>
       <c r="Z112">
-        <v>40.35</v>
-      </c>
-      <c r="AA112">
         <v>729</v>
       </c>
     </row>
-    <row r="113" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>8.44</v>
       </c>
@@ -12019,19 +11679,16 @@
         <v>68</v>
       </c>
       <c r="X113">
-        <v>30648</v>
+        <v>113.9</v>
       </c>
       <c r="Y113">
-        <v>113.9</v>
+        <v>100</v>
       </c>
       <c r="Z113">
-        <v>100</v>
-      </c>
-      <c r="AA113">
         <v>160</v>
       </c>
     </row>
-    <row r="114" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>8.4700000000000006</v>
       </c>
@@ -12102,19 +11759,16 @@
         <v>3387</v>
       </c>
       <c r="X114">
-        <v>672185</v>
+        <v>128</v>
       </c>
       <c r="Y114">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="Z114">
-        <v>100</v>
-      </c>
-      <c r="AA114">
         <v>2031</v>
       </c>
     </row>
-    <row r="115" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>7.86</v>
       </c>
@@ -12185,19 +11839,16 @@
         <v>496</v>
       </c>
       <c r="X115">
-        <v>72250</v>
+        <v>62.6</v>
       </c>
       <c r="Y115">
-        <v>62.6</v>
+        <v>100</v>
       </c>
       <c r="Z115">
-        <v>100</v>
-      </c>
-      <c r="AA115">
         <v>269</v>
       </c>
     </row>
-    <row r="116" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>8.14</v>
       </c>
@@ -12268,19 +11919,16 @@
         <v>390</v>
       </c>
       <c r="X116">
-        <v>47655</v>
+        <v>84.1</v>
       </c>
       <c r="Y116">
-        <v>84.1</v>
+        <v>30.22</v>
       </c>
       <c r="Z116">
-        <v>30.22</v>
-      </c>
-      <c r="AA116">
         <v>185</v>
       </c>
     </row>
-    <row r="117" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>11.07</v>
       </c>
@@ -12351,19 +11999,16 @@
         <v>280</v>
       </c>
       <c r="X117">
-        <v>106947</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="Y117">
-        <v>33.700000000000003</v>
+        <v>20.52</v>
       </c>
       <c r="Z117">
-        <v>20.52</v>
-      </c>
-      <c r="AA117">
         <v>735</v>
       </c>
     </row>
-    <row r="118" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>9.57</v>
       </c>
@@ -12434,19 +12079,16 @@
         <v>151</v>
       </c>
       <c r="X118">
-        <v>93035</v>
+        <v>33.4</v>
       </c>
       <c r="Y118">
-        <v>33.4</v>
+        <v>61.29</v>
       </c>
       <c r="Z118">
-        <v>61.29</v>
-      </c>
-      <c r="AA118">
         <v>600</v>
       </c>
     </row>
-    <row r="119" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>7.19</v>
       </c>
@@ -12517,19 +12159,16 @@
         <v>334</v>
       </c>
       <c r="X119">
-        <v>123664</v>
+        <v>67.3</v>
       </c>
       <c r="Y119">
-        <v>67.3</v>
+        <v>27.1</v>
       </c>
       <c r="Z119">
-        <v>27.1</v>
-      </c>
-      <c r="AA119">
         <v>528</v>
       </c>
     </row>
-    <row r="120" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>8.86</v>
       </c>
@@ -12600,19 +12239,16 @@
         <v>86</v>
       </c>
       <c r="X120">
-        <v>58977</v>
+        <v>32.6</v>
       </c>
       <c r="Y120">
-        <v>32.6</v>
+        <v>31.95</v>
       </c>
       <c r="Z120">
-        <v>31.95</v>
-      </c>
-      <c r="AA120">
         <v>218</v>
       </c>
     </row>
-    <row r="121" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>9.0299999999999994</v>
       </c>
@@ -12683,19 +12319,16 @@
         <v>235</v>
       </c>
       <c r="X121">
-        <v>108487</v>
+        <v>34.1</v>
       </c>
       <c r="Y121">
-        <v>34.1</v>
+        <v>15.93</v>
       </c>
       <c r="Z121">
-        <v>15.93</v>
-      </c>
-      <c r="AA121">
         <v>646</v>
       </c>
     </row>
-    <row r="122" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>10.09</v>
       </c>
@@ -12766,19 +12399,16 @@
         <v>839</v>
       </c>
       <c r="X122">
-        <v>281440</v>
+        <v>22</v>
       </c>
       <c r="Y122">
-        <v>22</v>
+        <v>17.38</v>
       </c>
       <c r="Z122">
-        <v>17.38</v>
-      </c>
-      <c r="AA122">
         <v>1212</v>
       </c>
     </row>
-    <row r="123" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>13.2</v>
       </c>
@@ -12849,19 +12479,16 @@
         <v>612</v>
       </c>
       <c r="X123">
-        <v>132148</v>
+        <v>30</v>
       </c>
       <c r="Y123">
-        <v>30</v>
+        <v>23.73</v>
       </c>
       <c r="Z123">
-        <v>23.73</v>
-      </c>
-      <c r="AA123">
         <v>540</v>
       </c>
     </row>
-    <row r="124" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>9.4700000000000006</v>
       </c>
@@ -12932,19 +12559,16 @@
         <v>150</v>
       </c>
       <c r="X124">
-        <v>48464</v>
+        <v>40.4</v>
       </c>
       <c r="Y124">
-        <v>40.4</v>
+        <v>24.54</v>
       </c>
       <c r="Z124">
-        <v>24.54</v>
-      </c>
-      <c r="AA124">
         <v>540</v>
       </c>
     </row>
-    <row r="125" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>11.31</v>
       </c>
@@ -13015,19 +12639,16 @@
         <v>448</v>
       </c>
       <c r="X125">
-        <v>127972</v>
+        <v>44.1</v>
       </c>
       <c r="Y125">
-        <v>44.1</v>
+        <v>16.579999999999998</v>
       </c>
       <c r="Z125">
-        <v>16.579999999999998</v>
-      </c>
-      <c r="AA125">
         <v>459</v>
       </c>
     </row>
-    <row r="126" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>11.83</v>
       </c>
@@ -13098,19 +12719,16 @@
         <v>433</v>
       </c>
       <c r="X126">
-        <v>217071</v>
+        <v>21.1</v>
       </c>
       <c r="Y126">
-        <v>21.1</v>
+        <v>26.91</v>
       </c>
       <c r="Z126">
-        <v>26.91</v>
-      </c>
-      <c r="AA126">
         <v>1061</v>
       </c>
     </row>
-    <row r="127" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>10.35</v>
       </c>
@@ -13181,19 +12799,16 @@
         <v>302</v>
       </c>
       <c r="X127">
-        <v>191646</v>
+        <v>50.3</v>
       </c>
       <c r="Y127">
-        <v>50.3</v>
+        <v>48.17</v>
       </c>
       <c r="Z127">
-        <v>48.17</v>
-      </c>
-      <c r="AA127">
         <v>655</v>
       </c>
     </row>
-    <row r="128" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>7.73</v>
       </c>
@@ -13264,19 +12879,16 @@
         <v>512</v>
       </c>
       <c r="X128">
-        <v>110471</v>
+        <v>50.9</v>
       </c>
       <c r="Y128">
-        <v>50.9</v>
+        <v>52.15</v>
       </c>
       <c r="Z128">
-        <v>52.15</v>
-      </c>
-      <c r="AA128">
         <v>701</v>
       </c>
     </row>
-    <row r="129" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>8.65</v>
       </c>
@@ -13347,19 +12959,16 @@
         <v>396</v>
       </c>
       <c r="X129">
-        <v>152687</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="Y129">
-        <v>36.200000000000003</v>
+        <v>19.52</v>
       </c>
       <c r="Z129">
-        <v>19.52</v>
-      </c>
-      <c r="AA129">
         <v>625</v>
       </c>
     </row>
-    <row r="130" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>9.08</v>
       </c>
@@ -13430,19 +13039,16 @@
         <v>113</v>
       </c>
       <c r="X130">
-        <v>43057</v>
+        <v>37.6</v>
       </c>
       <c r="Y130">
-        <v>37.6</v>
+        <v>23.84</v>
       </c>
       <c r="Z130">
-        <v>23.84</v>
-      </c>
-      <c r="AA130">
         <v>212</v>
       </c>
     </row>
-    <row r="131" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>9.56</v>
       </c>
@@ -13513,19 +13119,16 @@
         <v>114</v>
       </c>
       <c r="X131">
-        <v>83761</v>
+        <v>40.5</v>
       </c>
       <c r="Y131">
-        <v>40.5</v>
+        <v>11.76</v>
       </c>
       <c r="Z131">
-        <v>11.76</v>
-      </c>
-      <c r="AA131">
         <v>318</v>
       </c>
     </row>
-    <row r="132" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>9.66</v>
       </c>
@@ -13596,19 +13199,16 @@
         <v>234</v>
       </c>
       <c r="X132">
-        <v>201230</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="Y132">
-        <v>19.100000000000001</v>
+        <v>39.450000000000003</v>
       </c>
       <c r="Z132">
-        <v>39.450000000000003</v>
-      </c>
-      <c r="AA132">
         <v>1044</v>
       </c>
     </row>
-    <row r="133" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>9.66</v>
       </c>
@@ -13679,19 +13279,16 @@
         <v>45</v>
       </c>
       <c r="X133">
-        <v>68049</v>
+        <v>47.3</v>
       </c>
       <c r="Y133">
-        <v>47.3</v>
+        <v>26.73</v>
       </c>
       <c r="Z133">
-        <v>26.73</v>
-      </c>
-      <c r="AA133">
         <v>462</v>
       </c>
     </row>
-    <row r="134" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>10.08</v>
       </c>
@@ -13762,19 +13359,16 @@
         <v>376</v>
       </c>
       <c r="X134">
-        <v>159662</v>
+        <v>25.4</v>
       </c>
       <c r="Y134">
-        <v>25.4</v>
+        <v>29.27</v>
       </c>
       <c r="Z134">
-        <v>29.27</v>
-      </c>
-      <c r="AA134">
         <v>624</v>
       </c>
     </row>
-    <row r="135" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>11.24</v>
       </c>
@@ -13845,19 +13439,16 @@
         <v>828</v>
       </c>
       <c r="X135">
-        <v>130651</v>
+        <v>26.6</v>
       </c>
       <c r="Y135">
-        <v>26.6</v>
+        <v>100</v>
       </c>
       <c r="Z135">
-        <v>100</v>
-      </c>
-      <c r="AA135">
         <v>526</v>
       </c>
     </row>
-    <row r="136" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>11.59</v>
       </c>
@@ -13928,19 +13519,16 @@
         <v>10183</v>
       </c>
       <c r="X136">
-        <v>779966</v>
+        <v>173.4</v>
       </c>
       <c r="Y136">
-        <v>173.4</v>
+        <v>100</v>
       </c>
       <c r="Z136">
-        <v>100</v>
-      </c>
-      <c r="AA136">
         <v>1914</v>
       </c>
     </row>
-    <row r="137" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>10.51</v>
       </c>
@@ -14011,19 +13599,16 @@
         <v>687</v>
       </c>
       <c r="X137">
-        <v>83558</v>
+        <v>87.4</v>
       </c>
       <c r="Y137">
-        <v>87.4</v>
+        <v>100</v>
       </c>
       <c r="Z137">
-        <v>100</v>
-      </c>
-      <c r="AA137">
         <v>679</v>
       </c>
     </row>
-    <row r="138" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>7.98</v>
       </c>
@@ -14094,19 +13679,16 @@
         <v>556</v>
       </c>
       <c r="X138">
-        <v>107498</v>
+        <v>118.4</v>
       </c>
       <c r="Y138">
-        <v>118.4</v>
+        <v>23.25</v>
       </c>
       <c r="Z138">
-        <v>23.25</v>
-      </c>
-      <c r="AA138">
         <v>367</v>
       </c>
     </row>
-    <row r="139" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>11.07</v>
       </c>
@@ -14177,19 +13759,16 @@
         <v>43</v>
       </c>
       <c r="X139">
-        <v>33329</v>
+        <v>27.6</v>
       </c>
       <c r="Y139">
-        <v>27.6</v>
+        <v>52.72</v>
       </c>
       <c r="Z139">
-        <v>52.72</v>
-      </c>
-      <c r="AA139">
         <v>143</v>
       </c>
     </row>
-    <row r="140" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>9.26</v>
       </c>
@@ -14260,19 +13839,16 @@
         <v>179</v>
       </c>
       <c r="X140">
-        <v>88891</v>
+        <v>44.3</v>
       </c>
       <c r="Y140">
-        <v>44.3</v>
+        <v>28.37</v>
       </c>
       <c r="Z140">
-        <v>28.37</v>
-      </c>
-      <c r="AA140">
         <v>519</v>
       </c>
     </row>
-    <row r="141" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>11.23</v>
       </c>
@@ -14343,19 +13919,16 @@
         <v>233</v>
       </c>
       <c r="X141">
-        <v>108634</v>
+        <v>35.4</v>
       </c>
       <c r="Y141">
-        <v>35.4</v>
+        <v>45.51</v>
       </c>
       <c r="Z141">
-        <v>45.51</v>
-      </c>
-      <c r="AA141">
         <v>639</v>
       </c>
     </row>
-    <row r="142" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>7.8</v>
       </c>
@@ -14426,19 +13999,16 @@
         <v>30</v>
       </c>
       <c r="X142">
-        <v>44581</v>
+        <v>65.3</v>
       </c>
       <c r="Y142">
-        <v>65.3</v>
+        <v>54.1</v>
       </c>
       <c r="Z142">
-        <v>54.1</v>
-      </c>
-      <c r="AA142">
         <v>236</v>
       </c>
     </row>
-    <row r="143" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>10.48</v>
       </c>
@@ -14509,19 +14079,16 @@
         <v>590</v>
       </c>
       <c r="X143">
-        <v>97462</v>
+        <v>66</v>
       </c>
       <c r="Y143">
-        <v>66</v>
+        <v>35.29</v>
       </c>
       <c r="Z143">
-        <v>35.29</v>
-      </c>
-      <c r="AA143">
         <v>453</v>
       </c>
     </row>
-    <row r="144" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>9.82</v>
       </c>
@@ -14592,19 +14159,16 @@
         <v>209</v>
       </c>
       <c r="X144">
-        <v>97979</v>
+        <v>35.6</v>
       </c>
       <c r="Y144">
-        <v>35.6</v>
+        <v>28.32</v>
       </c>
       <c r="Z144">
-        <v>28.32</v>
-      </c>
-      <c r="AA144">
         <v>511</v>
       </c>
     </row>
-    <row r="145" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>8.73</v>
       </c>
@@ -14675,19 +14239,16 @@
         <v>97</v>
       </c>
       <c r="X145">
-        <v>59592</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="Y145">
-        <v>37.799999999999997</v>
+        <v>48.54</v>
       </c>
       <c r="Z145">
-        <v>48.54</v>
-      </c>
-      <c r="AA145">
         <v>194</v>
       </c>
     </row>
-    <row r="146" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>9.2799999999999994</v>
       </c>
@@ -14758,19 +14319,16 @@
         <v>858</v>
       </c>
       <c r="X146">
-        <v>119882</v>
+        <v>44.5</v>
       </c>
       <c r="Y146">
-        <v>44.5</v>
+        <v>16</v>
       </c>
       <c r="Z146">
-        <v>16</v>
-      </c>
-      <c r="AA146">
         <v>515</v>
       </c>
     </row>
-    <row r="147" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>8.27</v>
       </c>
@@ -14841,19 +14399,16 @@
         <v>0</v>
       </c>
       <c r="X147">
-        <v>33598</v>
+        <v>28</v>
       </c>
       <c r="Y147">
-        <v>28</v>
+        <v>22.98</v>
       </c>
       <c r="Z147">
-        <v>22.98</v>
-      </c>
-      <c r="AA147">
         <v>417</v>
       </c>
     </row>
-    <row r="148" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>9.52</v>
       </c>
@@ -14924,19 +14479,16 @@
         <v>0</v>
       </c>
       <c r="X148">
-        <v>30556</v>
+        <v>48.8</v>
       </c>
       <c r="Y148">
-        <v>48.8</v>
+        <v>27.62</v>
       </c>
       <c r="Z148">
-        <v>27.62</v>
-      </c>
-      <c r="AA148">
         <v>267</v>
       </c>
     </row>
-    <row r="149" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>9.18</v>
       </c>
@@ -15007,19 +14559,16 @@
         <v>35</v>
       </c>
       <c r="X149">
-        <v>44438</v>
+        <v>32</v>
       </c>
       <c r="Y149">
-        <v>32</v>
+        <v>45.84</v>
       </c>
       <c r="Z149">
-        <v>45.84</v>
-      </c>
-      <c r="AA149">
         <v>281</v>
       </c>
     </row>
-    <row r="150" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>11.03</v>
       </c>
@@ -15090,19 +14639,16 @@
         <v>832</v>
       </c>
       <c r="X150">
-        <v>154951</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="Y150">
-        <v>32.700000000000003</v>
+        <v>43.07</v>
       </c>
       <c r="Z150">
-        <v>43.07</v>
-      </c>
-      <c r="AA150">
         <v>959</v>
       </c>
     </row>
-    <row r="151" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>9.0299999999999994</v>
       </c>
@@ -15173,19 +14719,16 @@
         <v>100</v>
       </c>
       <c r="X151">
-        <v>72269</v>
+        <v>26.2</v>
       </c>
       <c r="Y151">
-        <v>26.2</v>
+        <v>49.82</v>
       </c>
       <c r="Z151">
-        <v>49.82</v>
-      </c>
-      <c r="AA151">
         <v>491</v>
       </c>
     </row>
-    <row r="152" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>9.34</v>
       </c>
@@ -15256,19 +14799,16 @@
         <v>338</v>
       </c>
       <c r="X152">
-        <v>79265</v>
+        <v>48.6</v>
       </c>
       <c r="Y152">
-        <v>48.6</v>
+        <v>3.84</v>
       </c>
       <c r="Z152">
-        <v>3.84</v>
-      </c>
-      <c r="AA152">
         <v>348</v>
       </c>
     </row>
-    <row r="153" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>10.199999999999999</v>
       </c>
@@ -15339,19 +14879,16 @@
         <v>127</v>
       </c>
       <c r="X153">
-        <v>88497</v>
+        <v>6</v>
       </c>
       <c r="Y153">
-        <v>6</v>
+        <v>33.6</v>
       </c>
       <c r="Z153">
-        <v>33.6</v>
-      </c>
-      <c r="AA153">
         <v>680</v>
       </c>
     </row>
-    <row r="154" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>9.2799999999999994</v>
       </c>
@@ -15422,19 +14959,16 @@
         <v>79</v>
       </c>
       <c r="X154">
-        <v>71790</v>
+        <v>35</v>
       </c>
       <c r="Y154">
-        <v>35</v>
+        <v>60.24</v>
       </c>
       <c r="Z154">
-        <v>60.24</v>
-      </c>
-      <c r="AA154">
         <v>403</v>
       </c>
     </row>
-    <row r="155" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>9.76</v>
       </c>
@@ -15505,19 +15039,16 @@
         <v>534</v>
       </c>
       <c r="X155">
-        <v>124283</v>
+        <v>79.599999999999994</v>
       </c>
       <c r="Y155">
-        <v>79.599999999999994</v>
+        <v>42.86</v>
       </c>
       <c r="Z155">
-        <v>42.86</v>
-      </c>
-      <c r="AA155">
         <v>394</v>
       </c>
     </row>
-    <row r="156" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>11.33</v>
       </c>
@@ -15588,19 +15119,16 @@
         <v>1135</v>
       </c>
       <c r="X156">
-        <v>190606</v>
+        <v>74.7</v>
       </c>
       <c r="Y156">
-        <v>74.7</v>
+        <v>8.5500000000000007</v>
       </c>
       <c r="Z156">
-        <v>8.5500000000000007</v>
-      </c>
-      <c r="AA156">
         <v>730</v>
       </c>
     </row>
-    <row r="157" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>9.1300000000000008</v>
       </c>
@@ -15671,19 +15199,16 @@
         <v>202</v>
       </c>
       <c r="X157">
-        <v>110742</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="Y157">
-        <v>8.1999999999999993</v>
+        <v>31.53</v>
       </c>
       <c r="Z157">
-        <v>31.53</v>
-      </c>
-      <c r="AA157">
         <v>690</v>
       </c>
     </row>
-    <row r="158" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>9.5</v>
       </c>
@@ -15754,19 +15279,16 @@
         <v>144</v>
       </c>
       <c r="X158">
-        <v>86671</v>
+        <v>38.1</v>
       </c>
       <c r="Y158">
-        <v>38.1</v>
+        <v>59.32</v>
       </c>
       <c r="Z158">
-        <v>59.32</v>
-      </c>
-      <c r="AA158">
         <v>370</v>
       </c>
     </row>
-    <row r="159" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>10.32</v>
       </c>
@@ -15837,19 +15359,16 @@
         <v>993</v>
       </c>
       <c r="X159">
-        <v>166679</v>
+        <v>50.1</v>
       </c>
       <c r="Y159">
-        <v>50.1</v>
+        <v>38.68</v>
       </c>
       <c r="Z159">
-        <v>38.68</v>
-      </c>
-      <c r="AA159">
         <v>418</v>
       </c>
     </row>
-    <row r="160" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>10.1</v>
       </c>
@@ -15920,19 +15439,16 @@
         <v>163</v>
       </c>
       <c r="X160">
-        <v>52101</v>
+        <v>28.4</v>
       </c>
       <c r="Y160">
-        <v>28.4</v>
+        <v>14.03</v>
       </c>
       <c r="Z160">
-        <v>14.03</v>
-      </c>
-      <c r="AA160">
         <v>236</v>
       </c>
     </row>
-    <row r="161" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>8.6999999999999993</v>
       </c>
@@ -16003,19 +15519,16 @@
         <v>113</v>
       </c>
       <c r="X161">
-        <v>41126</v>
+        <v>24.8</v>
       </c>
       <c r="Y161">
-        <v>24.8</v>
+        <v>37.29</v>
       </c>
       <c r="Z161">
-        <v>37.29</v>
-      </c>
-      <c r="AA161">
         <v>200</v>
       </c>
     </row>
-    <row r="162" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>10.42</v>
       </c>
@@ -16086,19 +15599,16 @@
         <v>131</v>
       </c>
       <c r="X162">
-        <v>51741</v>
+        <v>34</v>
       </c>
       <c r="Y162">
-        <v>34</v>
+        <v>17.649999999999999</v>
       </c>
       <c r="Z162">
-        <v>17.649999999999999</v>
-      </c>
-      <c r="AA162">
         <v>220</v>
       </c>
     </row>
-    <row r="163" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>9.93</v>
       </c>
@@ -16169,19 +15679,16 @@
         <v>175</v>
       </c>
       <c r="X163">
-        <v>152190</v>
+        <v>17.2</v>
       </c>
       <c r="Y163">
-        <v>17.2</v>
+        <v>2.1</v>
       </c>
       <c r="Z163">
-        <v>2.1</v>
-      </c>
-      <c r="AA163">
         <v>594</v>
       </c>
     </row>
-    <row r="164" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>10.61</v>
       </c>
@@ -16252,19 +15759,16 @@
         <v>164</v>
       </c>
       <c r="X164">
-        <v>81385</v>
+        <v>4.5</v>
       </c>
       <c r="Y164">
-        <v>4.5</v>
+        <v>34.520000000000003</v>
       </c>
       <c r="Z164">
-        <v>34.520000000000003</v>
-      </c>
-      <c r="AA164">
         <v>1004</v>
       </c>
     </row>
-    <row r="165" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>8.48</v>
       </c>
@@ -16335,19 +15839,16 @@
         <v>75</v>
       </c>
       <c r="X165">
-        <v>51534</v>
+        <v>24.6</v>
       </c>
       <c r="Y165">
-        <v>24.6</v>
+        <v>42.32</v>
       </c>
       <c r="Z165">
-        <v>42.32</v>
-      </c>
-      <c r="AA165">
         <v>237</v>
       </c>
     </row>
-    <row r="166" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>9.93</v>
       </c>
@@ -16418,19 +15919,16 @@
         <v>265</v>
       </c>
       <c r="X166">
-        <v>84804</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="Y166">
-        <v>38.799999999999997</v>
+        <v>39.19</v>
       </c>
       <c r="Z166">
-        <v>39.19</v>
-      </c>
-      <c r="AA166">
         <v>480</v>
       </c>
     </row>
-    <row r="167" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>8.82</v>
       </c>
@@ -16501,19 +15999,16 @@
         <v>246</v>
       </c>
       <c r="X167">
-        <v>53294</v>
+        <v>29.8</v>
       </c>
       <c r="Y167">
-        <v>29.8</v>
+        <v>29.38</v>
       </c>
       <c r="Z167">
-        <v>29.38</v>
-      </c>
-      <c r="AA167">
         <v>339</v>
       </c>
     </row>
-    <row r="168" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>8.4499999999999993</v>
       </c>
@@ -16584,19 +16079,16 @@
         <v>84</v>
       </c>
       <c r="X168">
-        <v>39340</v>
+        <v>21.4</v>
       </c>
       <c r="Y168">
-        <v>21.4</v>
+        <v>34.659999999999997</v>
       </c>
       <c r="Z168">
-        <v>34.659999999999997</v>
-      </c>
-      <c r="AA168">
         <v>237</v>
       </c>
     </row>
-    <row r="169" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>9.5</v>
       </c>
@@ -16667,19 +16159,16 @@
         <v>460</v>
       </c>
       <c r="X169">
-        <v>120144</v>
+        <v>43.1</v>
       </c>
       <c r="Y169">
-        <v>43.1</v>
+        <v>29.47</v>
       </c>
       <c r="Z169">
-        <v>29.47</v>
-      </c>
-      <c r="AA169">
         <v>511</v>
       </c>
     </row>
-    <row r="170" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>9.98</v>
       </c>
@@ -16750,19 +16239,16 @@
         <v>182</v>
       </c>
       <c r="X170">
-        <v>65410</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="Y170">
-        <v>17.600000000000001</v>
+        <v>69.86</v>
       </c>
       <c r="Z170">
-        <v>69.86</v>
-      </c>
-      <c r="AA170">
         <v>250</v>
       </c>
     </row>
-    <row r="171" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>12.77</v>
       </c>
@@ -16833,19 +16319,16 @@
         <v>1305</v>
       </c>
       <c r="X171">
-        <v>252408</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="Y171">
-        <v>36.299999999999997</v>
+        <v>36.36</v>
       </c>
       <c r="Z171">
-        <v>36.36</v>
-      </c>
-      <c r="AA171">
         <v>540</v>
       </c>
     </row>
-    <row r="172" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>10.92</v>
       </c>
@@ -16916,19 +16399,16 @@
         <v>156</v>
       </c>
       <c r="X172">
-        <v>74210</v>
+        <v>27.9</v>
       </c>
       <c r="Y172">
-        <v>27.9</v>
+        <v>21.35</v>
       </c>
       <c r="Z172">
-        <v>21.35</v>
-      </c>
-      <c r="AA172">
         <v>294</v>
       </c>
     </row>
-    <row r="173" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>8.3800000000000008</v>
       </c>
@@ -16999,19 +16479,16 @@
         <v>50</v>
       </c>
       <c r="X173">
-        <v>35875</v>
+        <v>29.8</v>
       </c>
       <c r="Y173">
-        <v>29.8</v>
+        <v>32.01</v>
       </c>
       <c r="Z173">
-        <v>32.01</v>
-      </c>
-      <c r="AA173">
         <v>197</v>
       </c>
     </row>
-    <row r="174" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>8.14</v>
       </c>
@@ -17082,19 +16559,16 @@
         <v>50</v>
       </c>
       <c r="X174">
-        <v>38202</v>
+        <v>20.7</v>
       </c>
       <c r="Y174">
-        <v>20.7</v>
+        <v>60.82</v>
       </c>
       <c r="Z174">
-        <v>60.82</v>
-      </c>
-      <c r="AA174">
         <v>128</v>
       </c>
     </row>
-    <row r="175" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>9.2799999999999994</v>
       </c>
@@ -17165,19 +16639,16 @@
         <v>226</v>
       </c>
       <c r="X175">
-        <v>75370</v>
+        <v>29.5</v>
       </c>
       <c r="Y175">
-        <v>29.5</v>
+        <v>100</v>
       </c>
       <c r="Z175">
-        <v>100</v>
-      </c>
-      <c r="AA175">
         <v>480</v>
       </c>
     </row>
-    <row r="176" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>9.35</v>
       </c>
@@ -17248,19 +16719,16 @@
         <v>150</v>
       </c>
       <c r="X176">
-        <v>51656</v>
+        <v>84</v>
       </c>
       <c r="Y176">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="Z176">
-        <v>100</v>
-      </c>
-      <c r="AA176">
         <v>309</v>
       </c>
     </row>
-    <row r="177" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>8.1199999999999992</v>
       </c>
@@ -17331,19 +16799,16 @@
         <v>671</v>
       </c>
       <c r="X177">
-        <v>118268</v>
+        <v>103.2</v>
       </c>
       <c r="Y177">
-        <v>103.2</v>
+        <v>100</v>
       </c>
       <c r="Z177">
-        <v>100</v>
-      </c>
-      <c r="AA177">
         <v>341</v>
       </c>
     </row>
-    <row r="178" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>8.4</v>
       </c>
@@ -17414,19 +16879,16 @@
         <v>585</v>
       </c>
       <c r="X178">
-        <v>209296</v>
+        <v>78.099999999999994</v>
       </c>
       <c r="Y178">
-        <v>78.099999999999994</v>
+        <v>100</v>
       </c>
       <c r="Z178">
-        <v>100</v>
-      </c>
-      <c r="AA178">
         <v>560</v>
       </c>
     </row>
-    <row r="179" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>10.98</v>
       </c>
@@ -17497,19 +16959,16 @@
         <v>643</v>
       </c>
       <c r="X179">
-        <v>77813</v>
+        <v>142.1</v>
       </c>
       <c r="Y179">
-        <v>142.1</v>
+        <v>100</v>
       </c>
       <c r="Z179">
-        <v>100</v>
-      </c>
-      <c r="AA179">
         <v>255</v>
       </c>
     </row>
-    <row r="180" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>11.52</v>
       </c>
@@ -17580,19 +17039,16 @@
         <v>16201</v>
       </c>
       <c r="X180">
-        <v>1794166</v>
+        <v>152.4</v>
       </c>
       <c r="Y180">
-        <v>152.4</v>
+        <v>55.36</v>
       </c>
       <c r="Z180">
-        <v>55.36</v>
-      </c>
-      <c r="AA180">
         <v>4342</v>
       </c>
     </row>
-    <row r="181" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>7.65</v>
       </c>
@@ -17663,19 +17119,16 @@
         <v>151</v>
       </c>
       <c r="X181">
-        <v>89282</v>
+        <v>26.1</v>
       </c>
       <c r="Y181">
-        <v>26.1</v>
+        <v>47.04</v>
       </c>
       <c r="Z181">
-        <v>47.04</v>
-      </c>
-      <c r="AA181">
         <v>395</v>
       </c>
     </row>
-    <row r="182" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>6.49</v>
       </c>
@@ -17746,19 +17199,16 @@
         <v>269</v>
       </c>
       <c r="X182">
-        <v>45015</v>
+        <v>26.4</v>
       </c>
       <c r="Y182">
-        <v>26.4</v>
+        <v>64.540000000000006</v>
       </c>
       <c r="Z182">
-        <v>64.540000000000006</v>
-      </c>
-      <c r="AA182">
         <v>168</v>
       </c>
     </row>
-    <row r="183" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>7.5</v>
       </c>
@@ -17829,19 +17279,16 @@
         <v>449</v>
       </c>
       <c r="X183">
-        <v>93001</v>
+        <v>40.4</v>
       </c>
       <c r="Y183">
-        <v>40.4</v>
+        <v>50.09</v>
       </c>
       <c r="Z183">
-        <v>50.09</v>
-      </c>
-      <c r="AA183">
         <v>413</v>
       </c>
     </row>
-    <row r="184" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>7.83</v>
       </c>
@@ -17912,19 +17359,16 @@
         <v>267</v>
       </c>
       <c r="X184">
-        <v>65026</v>
+        <v>31.7</v>
       </c>
       <c r="Y184">
-        <v>31.7</v>
+        <v>53.76</v>
       </c>
       <c r="Z184">
-        <v>53.76</v>
-      </c>
-      <c r="AA184">
         <v>327</v>
       </c>
     </row>
-    <row r="185" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>7.6</v>
       </c>
@@ -17995,19 +17439,16 @@
         <v>265</v>
       </c>
       <c r="X185">
-        <v>63196</v>
+        <v>29</v>
       </c>
       <c r="Y185">
-        <v>29</v>
+        <v>39.07</v>
       </c>
       <c r="Z185">
-        <v>39.07</v>
-      </c>
-      <c r="AA185">
         <v>175</v>
       </c>
     </row>
-    <row r="186" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>9.14</v>
       </c>
@@ -18078,19 +17519,16 @@
         <v>210</v>
       </c>
       <c r="X186">
-        <v>42543</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="Y186">
-        <v>16.899999999999999</v>
+        <v>53.65</v>
       </c>
       <c r="Z186">
-        <v>53.65</v>
-      </c>
-      <c r="AA186">
         <v>146</v>
       </c>
     </row>
-    <row r="187" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>7.08</v>
       </c>
@@ -18161,19 +17599,16 @@
         <v>572</v>
       </c>
       <c r="X187">
-        <v>134864</v>
+        <v>33.1</v>
       </c>
       <c r="Y187">
-        <v>33.1</v>
+        <v>36.01</v>
       </c>
       <c r="Z187">
-        <v>36.01</v>
-      </c>
-      <c r="AA187">
         <v>717</v>
       </c>
     </row>
-    <row r="188" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>8.14</v>
       </c>
@@ -18244,19 +17679,16 @@
         <v>154</v>
       </c>
       <c r="X188">
-        <v>63788</v>
+        <v>29</v>
       </c>
       <c r="Y188">
-        <v>29</v>
+        <v>17.23</v>
       </c>
       <c r="Z188">
-        <v>17.23</v>
-      </c>
-      <c r="AA188">
         <v>380</v>
       </c>
     </row>
-    <row r="189" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>8.59</v>
       </c>
@@ -18327,19 +17759,16 @@
         <v>120</v>
       </c>
       <c r="X189">
-        <v>123532</v>
+        <v>18.5</v>
       </c>
       <c r="Y189">
-        <v>18.5</v>
+        <v>52.27</v>
       </c>
       <c r="Z189">
-        <v>52.27</v>
-      </c>
-      <c r="AA189">
         <v>449</v>
       </c>
     </row>
-    <row r="190" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>7.66</v>
       </c>
@@ -18410,19 +17839,16 @@
         <v>166</v>
       </c>
       <c r="X190">
-        <v>54765</v>
+        <v>18.3</v>
       </c>
       <c r="Y190">
-        <v>18.3</v>
+        <v>43.67</v>
       </c>
       <c r="Z190">
-        <v>43.67</v>
-      </c>
-      <c r="AA190">
         <v>170</v>
       </c>
     </row>
-    <row r="191" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>8.6</v>
       </c>
@@ -18493,19 +17919,16 @@
         <v>278</v>
       </c>
       <c r="X191">
-        <v>73923</v>
+        <v>40.200000000000003</v>
       </c>
       <c r="Y191">
-        <v>40.200000000000003</v>
+        <v>100</v>
       </c>
       <c r="Z191">
-        <v>100</v>
-      </c>
-      <c r="AA191">
         <v>231</v>
       </c>
     </row>
-    <row r="192" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>10</v>
       </c>
@@ -18576,19 +17999,16 @@
         <v>1767</v>
       </c>
       <c r="X192">
-        <v>127839</v>
+        <v>136.69999999999999</v>
       </c>
       <c r="Y192">
-        <v>136.69999999999999</v>
+        <v>41.5</v>
       </c>
       <c r="Z192">
-        <v>41.5</v>
-      </c>
-      <c r="AA192">
         <v>466</v>
       </c>
     </row>
-    <row r="193" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>7.88</v>
       </c>
@@ -18659,19 +18079,16 @@
         <v>48</v>
       </c>
       <c r="X193">
-        <v>21489</v>
+        <v>34.4</v>
       </c>
       <c r="Y193">
-        <v>34.4</v>
+        <v>11.36</v>
       </c>
       <c r="Z193">
-        <v>11.36</v>
-      </c>
-      <c r="AA193">
         <v>168</v>
       </c>
     </row>
-    <row r="194" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>10.24</v>
       </c>
@@ -18742,19 +18159,16 @@
         <v>45</v>
       </c>
       <c r="X194">
-        <v>65373</v>
+        <v>41.1</v>
       </c>
       <c r="Y194">
-        <v>41.1</v>
+        <v>39.18</v>
       </c>
       <c r="Z194">
-        <v>39.18</v>
-      </c>
-      <c r="AA194">
         <v>329</v>
       </c>
     </row>
-    <row r="195" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>9.7799999999999994</v>
       </c>
@@ -18825,19 +18239,16 @@
         <v>495</v>
       </c>
       <c r="X195">
-        <v>134991</v>
+        <v>22.1</v>
       </c>
       <c r="Y195">
-        <v>22.1</v>
+        <v>38.44</v>
       </c>
       <c r="Z195">
-        <v>38.44</v>
-      </c>
-      <c r="AA195">
         <v>654</v>
       </c>
     </row>
-    <row r="196" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>8.99</v>
       </c>
@@ -18908,19 +18319,16 @@
         <v>117</v>
       </c>
       <c r="X196">
-        <v>119727</v>
+        <v>36.9</v>
       </c>
       <c r="Y196">
-        <v>36.9</v>
+        <v>31.87</v>
       </c>
       <c r="Z196">
-        <v>31.87</v>
-      </c>
-      <c r="AA196">
         <v>611</v>
       </c>
     </row>
-    <row r="197" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>7.76</v>
       </c>
@@ -18991,19 +18399,16 @@
         <v>147</v>
       </c>
       <c r="X197">
-        <v>112863</v>
+        <v>32.4</v>
       </c>
       <c r="Y197">
-        <v>32.4</v>
+        <v>14.38</v>
       </c>
       <c r="Z197">
-        <v>14.38</v>
-      </c>
-      <c r="AA197">
         <v>687</v>
       </c>
     </row>
-    <row r="198" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>9.2899999999999991</v>
       </c>
@@ -19074,19 +18479,16 @@
         <v>216</v>
       </c>
       <c r="X198">
-        <v>62039</v>
+        <v>26.6</v>
       </c>
       <c r="Y198">
-        <v>26.6</v>
+        <v>11.81</v>
       </c>
       <c r="Z198">
-        <v>11.81</v>
-      </c>
-      <c r="AA198">
         <v>230</v>
       </c>
     </row>
-    <row r="199" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>8.57</v>
       </c>
@@ -19157,19 +18559,16 @@
         <v>163</v>
       </c>
       <c r="X199">
-        <v>111905</v>
+        <v>29.3</v>
       </c>
       <c r="Y199">
-        <v>29.3</v>
+        <v>28.01</v>
       </c>
       <c r="Z199">
-        <v>28.01</v>
-      </c>
-      <c r="AA199">
         <v>669</v>
       </c>
     </row>
-    <row r="200" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>8.6999999999999993</v>
       </c>
@@ -19240,19 +18639,16 @@
         <v>90</v>
       </c>
       <c r="X200">
-        <v>68996</v>
+        <v>30</v>
       </c>
       <c r="Y200">
-        <v>30</v>
+        <v>34.25</v>
       </c>
       <c r="Z200">
-        <v>34.25</v>
-      </c>
-      <c r="AA200">
         <v>256</v>
       </c>
     </row>
-    <row r="201" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>7.75</v>
       </c>
@@ -19323,19 +18719,16 @@
         <v>73</v>
       </c>
       <c r="X201">
-        <v>54711</v>
+        <v>31.6</v>
       </c>
       <c r="Y201">
-        <v>31.6</v>
+        <v>21.76</v>
       </c>
       <c r="Z201">
-        <v>21.76</v>
-      </c>
-      <c r="AA201">
         <v>246</v>
       </c>
     </row>
-    <row r="202" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>11.03</v>
       </c>
@@ -19406,19 +18799,16 @@
         <v>183</v>
       </c>
       <c r="X202">
-        <v>81226</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="Y202">
-        <v>32.700000000000003</v>
+        <v>47.7</v>
       </c>
       <c r="Z202">
-        <v>47.7</v>
-      </c>
-      <c r="AA202">
         <v>342</v>
       </c>
     </row>
-    <row r="203" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>9.26</v>
       </c>
@@ -19489,19 +18879,16 @@
         <v>744</v>
       </c>
       <c r="X203">
-        <v>136441</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="Y203">
-        <v>34.200000000000003</v>
+        <v>35.18</v>
       </c>
       <c r="Z203">
-        <v>35.18</v>
-      </c>
-      <c r="AA203">
         <v>586</v>
       </c>
     </row>
-    <row r="204" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>7.92</v>
       </c>
@@ -19572,19 +18959,16 @@
         <v>123</v>
       </c>
       <c r="X204">
-        <v>66221</v>
+        <v>21.4</v>
       </c>
       <c r="Y204">
-        <v>21.4</v>
+        <v>26.12</v>
       </c>
       <c r="Z204">
-        <v>26.12</v>
-      </c>
-      <c r="AA204">
         <v>253</v>
       </c>
     </row>
-    <row r="205" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>9.07</v>
       </c>
@@ -19655,19 +19039,16 @@
         <v>35</v>
       </c>
       <c r="X205">
-        <v>73919</v>
+        <v>11.8</v>
       </c>
       <c r="Y205">
-        <v>11.8</v>
+        <v>37.92</v>
       </c>
       <c r="Z205">
-        <v>37.92</v>
-      </c>
-      <c r="AA205">
         <v>430</v>
       </c>
     </row>
-    <row r="206" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>9.43</v>
       </c>
@@ -19738,19 +19119,16 @@
         <v>205</v>
       </c>
       <c r="X206">
-        <v>77979</v>
+        <v>21.8</v>
       </c>
       <c r="Y206">
-        <v>21.8</v>
+        <v>18.309999999999999</v>
       </c>
       <c r="Z206">
-        <v>18.309999999999999</v>
-      </c>
-      <c r="AA206">
         <v>269</v>
       </c>
     </row>
-    <row r="207" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>11.36</v>
       </c>
@@ -19821,19 +19199,16 @@
         <v>191</v>
       </c>
       <c r="X207">
-        <v>74573</v>
+        <v>18.2</v>
       </c>
       <c r="Y207">
-        <v>18.2</v>
+        <v>44.87</v>
       </c>
       <c r="Z207">
-        <v>44.87</v>
-      </c>
-      <c r="AA207">
         <v>239</v>
       </c>
     </row>
-    <row r="208" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>10.52</v>
       </c>
@@ -19904,19 +19279,16 @@
         <v>1188</v>
       </c>
       <c r="X208">
-        <v>170550</v>
+        <v>21.7</v>
       </c>
       <c r="Y208">
-        <v>21.7</v>
+        <v>59.35</v>
       </c>
       <c r="Z208">
-        <v>59.35</v>
-      </c>
-      <c r="AA208">
         <v>1153</v>
       </c>
     </row>
-    <row r="209" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>7.89</v>
       </c>
@@ -19987,19 +19359,16 @@
         <v>266</v>
       </c>
       <c r="X209">
-        <v>93818</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="Y209">
-        <v>39.200000000000003</v>
+        <v>14.36</v>
       </c>
       <c r="Z209">
-        <v>14.36</v>
-      </c>
-      <c r="AA209">
         <v>487</v>
       </c>
     </row>
-    <row r="210" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>7.71</v>
       </c>
@@ -20070,19 +19439,16 @@
         <v>397</v>
       </c>
       <c r="X210">
-        <v>105431</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="Y210">
-        <v>36.799999999999997</v>
+        <v>23.59</v>
       </c>
       <c r="Z210">
-        <v>23.59</v>
-      </c>
-      <c r="AA210">
         <v>466</v>
       </c>
     </row>
-    <row r="211" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>9.1</v>
       </c>
@@ -20153,19 +19519,16 @@
         <v>160</v>
       </c>
       <c r="X211">
-        <v>61161</v>
+        <v>24.4</v>
       </c>
       <c r="Y211">
-        <v>24.4</v>
+        <v>20.5</v>
       </c>
       <c r="Z211">
-        <v>20.5</v>
-      </c>
-      <c r="AA211">
         <v>302</v>
       </c>
     </row>
-    <row r="212" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>8.81</v>
       </c>
@@ -20236,19 +19599,16 @@
         <v>68</v>
       </c>
       <c r="X212">
-        <v>52720</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="Y212">
-        <v>33.200000000000003</v>
+        <v>100</v>
       </c>
       <c r="Z212">
-        <v>100</v>
-      </c>
-      <c r="AA212">
         <v>202</v>
       </c>
     </row>
-    <row r="213" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>8.48</v>
       </c>
@@ -20319,19 +19679,16 @@
         <v>15</v>
       </c>
       <c r="X213">
-        <v>26375</v>
+        <v>34.1</v>
       </c>
       <c r="Y213">
-        <v>34.1</v>
+        <v>100</v>
       </c>
       <c r="Z213">
-        <v>100</v>
-      </c>
-      <c r="AA213">
         <v>180</v>
       </c>
     </row>
-    <row r="214" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>8.08</v>
       </c>
@@ -20402,19 +19759,16 @@
         <v>339</v>
       </c>
       <c r="X214">
-        <v>45944</v>
+        <v>106</v>
       </c>
       <c r="Y214">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="Z214">
-        <v>100</v>
-      </c>
-      <c r="AA214">
         <v>258</v>
       </c>
     </row>
-    <row r="215" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>7.35</v>
       </c>
@@ -20485,19 +19839,16 @@
         <v>395</v>
       </c>
       <c r="X215">
-        <v>59779</v>
+        <v>81</v>
       </c>
       <c r="Y215">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="Z215">
-        <v>100</v>
-      </c>
-      <c r="AA215">
         <v>221</v>
       </c>
     </row>
-    <row r="216" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>11.18</v>
       </c>
@@ -20568,19 +19919,16 @@
         <v>2400</v>
       </c>
       <c r="X216">
-        <v>196638</v>
+        <v>190.2</v>
       </c>
       <c r="Y216">
-        <v>190.2</v>
+        <v>55.85</v>
       </c>
       <c r="Z216">
-        <v>55.85</v>
-      </c>
-      <c r="AA216">
         <v>582</v>
       </c>
     </row>
-    <row r="217" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>7.19</v>
       </c>
@@ -20651,19 +19999,16 @@
         <v>343</v>
       </c>
       <c r="X217">
-        <v>46360</v>
+        <v>67.3</v>
       </c>
       <c r="Y217">
-        <v>67.3</v>
+        <v>36.69</v>
       </c>
       <c r="Z217">
-        <v>36.69</v>
-      </c>
-      <c r="AA217">
         <v>161</v>
       </c>
     </row>
-    <row r="218" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>7.51</v>
       </c>
@@ -20734,19 +20079,16 @@
         <v>180</v>
       </c>
       <c r="X218">
-        <v>57651</v>
+        <v>23.1</v>
       </c>
       <c r="Y218">
-        <v>23.1</v>
+        <v>53.52</v>
       </c>
       <c r="Z218">
-        <v>53.52</v>
-      </c>
-      <c r="AA218">
         <v>248</v>
       </c>
     </row>
-    <row r="219" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>9.07</v>
       </c>
@@ -20817,19 +20159,16 @@
         <v>599</v>
       </c>
       <c r="X219">
-        <v>150845</v>
+        <v>23.5</v>
       </c>
       <c r="Y219">
-        <v>23.5</v>
+        <v>56.82</v>
       </c>
       <c r="Z219">
-        <v>56.82</v>
-      </c>
-      <c r="AA219">
         <v>1043</v>
       </c>
     </row>
-    <row r="220" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>8.08</v>
       </c>
@@ -20900,19 +20239,16 @@
         <v>169</v>
       </c>
       <c r="X220">
-        <v>53695</v>
+        <v>39.1</v>
       </c>
       <c r="Y220">
-        <v>39.1</v>
+        <v>51.16</v>
       </c>
       <c r="Z220">
-        <v>51.16</v>
-      </c>
-      <c r="AA220">
         <v>363</v>
       </c>
     </row>
-    <row r="221" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>7.89</v>
       </c>
@@ -20983,19 +20319,16 @@
         <v>72</v>
       </c>
       <c r="X221">
-        <v>46792</v>
+        <v>34</v>
       </c>
       <c r="Y221">
-        <v>34</v>
+        <v>32.47</v>
       </c>
       <c r="Z221">
-        <v>32.47</v>
-      </c>
-      <c r="AA221">
         <v>318</v>
       </c>
     </row>
-    <row r="222" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>6.38</v>
       </c>
@@ -21066,19 +20399,16 @@
         <v>149</v>
       </c>
       <c r="X222">
-        <v>41991</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="Y222">
-        <v>36.700000000000003</v>
+        <v>7.39</v>
       </c>
       <c r="Z222">
-        <v>7.39</v>
-      </c>
-      <c r="AA222">
         <v>482</v>
       </c>
     </row>
-    <row r="223" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>8.9</v>
       </c>
@@ -21149,19 +20479,16 @@
         <v>45</v>
       </c>
       <c r="X223">
-        <v>37887</v>
+        <v>27.7</v>
       </c>
       <c r="Y223">
-        <v>27.7</v>
+        <v>36.130000000000003</v>
       </c>
       <c r="Z223">
-        <v>36.130000000000003</v>
-      </c>
-      <c r="AA223">
         <v>144</v>
       </c>
     </row>
-    <row r="224" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>8.9600000000000009</v>
       </c>
@@ -21232,19 +20559,16 @@
         <v>0</v>
       </c>
       <c r="X224">
-        <v>50819</v>
+        <v>1.2</v>
       </c>
       <c r="Y224">
-        <v>1.2</v>
+        <v>26.2</v>
       </c>
       <c r="Z224">
-        <v>26.2</v>
-      </c>
-      <c r="AA224">
         <v>380</v>
       </c>
     </row>
-    <row r="225" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>6.68</v>
       </c>
@@ -21315,19 +20639,16 @@
         <v>30</v>
       </c>
       <c r="X225">
-        <v>40070</v>
+        <v>23.7</v>
       </c>
       <c r="Y225">
-        <v>23.7</v>
+        <v>37.01</v>
       </c>
       <c r="Z225">
-        <v>37.01</v>
-      </c>
-      <c r="AA225">
         <v>255</v>
       </c>
     </row>
-    <row r="226" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>7.83</v>
       </c>
@@ -21398,19 +20719,16 @@
         <v>36</v>
       </c>
       <c r="X226">
-        <v>19689</v>
+        <v>33</v>
       </c>
       <c r="Y226">
-        <v>33</v>
+        <v>42.22</v>
       </c>
       <c r="Z226">
-        <v>42.22</v>
-      </c>
-      <c r="AA226">
         <v>97</v>
       </c>
     </row>
-    <row r="227" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>6.83</v>
       </c>
@@ -21481,19 +20799,16 @@
         <v>148</v>
       </c>
       <c r="X227">
-        <v>43618</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="Y227">
-        <v>19.899999999999999</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="Z227">
-        <v>33.200000000000003</v>
-      </c>
-      <c r="AA227">
         <v>406</v>
       </c>
     </row>
-    <row r="228" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>7.42</v>
       </c>
@@ -21564,19 +20879,16 @@
         <v>107</v>
       </c>
       <c r="X228">
-        <v>65883</v>
+        <v>24.6</v>
       </c>
       <c r="Y228">
-        <v>24.6</v>
+        <v>50.75</v>
       </c>
       <c r="Z228">
-        <v>50.75</v>
-      </c>
-      <c r="AA228">
         <v>357</v>
       </c>
     </row>
-    <row r="229" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>9.16</v>
       </c>
@@ -21647,19 +20959,16 @@
         <v>15</v>
       </c>
       <c r="X229">
-        <v>35577</v>
+        <v>3.4</v>
       </c>
       <c r="Y229">
-        <v>3.4</v>
+        <v>100</v>
       </c>
       <c r="Z229">
-        <v>100</v>
-      </c>
-      <c r="AA229">
         <v>282</v>
       </c>
     </row>
-    <row r="230" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>8.86</v>
       </c>
@@ -21730,19 +21039,16 @@
         <v>42</v>
       </c>
       <c r="X230">
-        <v>56408</v>
+        <v>28.7</v>
       </c>
       <c r="Y230">
-        <v>28.7</v>
+        <v>100</v>
       </c>
       <c r="Z230">
-        <v>100</v>
-      </c>
-      <c r="AA230">
         <v>448</v>
       </c>
     </row>
-    <row r="231" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>8.99</v>
       </c>
@@ -21813,19 +21119,16 @@
         <v>109</v>
       </c>
       <c r="X231">
-        <v>43191</v>
+        <v>68.3</v>
       </c>
       <c r="Y231">
-        <v>68.3</v>
+        <v>100</v>
       </c>
       <c r="Z231">
-        <v>100</v>
-      </c>
-      <c r="AA231">
         <v>213</v>
       </c>
     </row>
-    <row r="232" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>10.77</v>
       </c>
@@ -21896,19 +21199,16 @@
         <v>2357</v>
       </c>
       <c r="X232">
-        <v>296958</v>
+        <v>124.3</v>
       </c>
       <c r="Y232">
-        <v>124.3</v>
+        <v>34.18</v>
       </c>
       <c r="Z232">
-        <v>34.18</v>
-      </c>
-      <c r="AA232">
         <v>684</v>
       </c>
     </row>
-    <row r="233" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>9.08</v>
       </c>
@@ -21979,19 +21279,16 @@
         <v>172</v>
       </c>
       <c r="X233">
-        <v>62573</v>
+        <v>54</v>
       </c>
       <c r="Y233">
-        <v>54</v>
+        <v>56.08</v>
       </c>
       <c r="Z233">
-        <v>56.08</v>
-      </c>
-      <c r="AA233">
         <v>196</v>
       </c>
     </row>
-    <row r="234" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>9.7200000000000006</v>
       </c>
@@ -22062,19 +21359,16 @@
         <v>773</v>
       </c>
       <c r="X234">
-        <v>69639</v>
+        <v>47.8</v>
       </c>
       <c r="Y234">
-        <v>47.8</v>
+        <v>43.57</v>
       </c>
       <c r="Z234">
-        <v>43.57</v>
-      </c>
-      <c r="AA234">
         <v>236</v>
       </c>
     </row>
-    <row r="235" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>10.8</v>
       </c>
@@ -22145,19 +21439,16 @@
         <v>456</v>
       </c>
       <c r="X235">
-        <v>79114</v>
+        <v>22.5</v>
       </c>
       <c r="Y235">
-        <v>22.5</v>
+        <v>26.24</v>
       </c>
       <c r="Z235">
-        <v>26.24</v>
-      </c>
-      <c r="AA235">
         <v>541</v>
       </c>
     </row>
-    <row r="236" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>10.93</v>
       </c>
@@ -22228,19 +21519,16 @@
         <v>299</v>
       </c>
       <c r="X236">
-        <v>97661</v>
+        <v>40.4</v>
       </c>
       <c r="Y236">
-        <v>40.4</v>
+        <v>14.8</v>
       </c>
       <c r="Z236">
-        <v>14.8</v>
-      </c>
-      <c r="AA236">
         <v>553</v>
       </c>
     </row>
-    <row r="237" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>9.06</v>
       </c>
@@ -22311,19 +21599,16 @@
         <v>352</v>
       </c>
       <c r="X237">
-        <v>55835</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="Y237">
-        <v>18.600000000000001</v>
+        <v>32.61</v>
       </c>
       <c r="Z237">
-        <v>32.61</v>
-      </c>
-      <c r="AA237">
         <v>308</v>
       </c>
     </row>
-    <row r="238" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>11.5</v>
       </c>
@@ -22394,19 +21679,16 @@
         <v>716</v>
       </c>
       <c r="X238">
-        <v>120327</v>
+        <v>18.3</v>
       </c>
       <c r="Y238">
-        <v>18.3</v>
+        <v>56.6</v>
       </c>
       <c r="Z238">
-        <v>56.6</v>
-      </c>
-      <c r="AA238">
         <v>428</v>
       </c>
     </row>
-    <row r="239" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>15.43</v>
       </c>
@@ -22477,19 +21759,16 @@
         <v>684</v>
       </c>
       <c r="X239">
-        <v>141892</v>
+        <v>31.1</v>
       </c>
       <c r="Y239">
-        <v>31.1</v>
+        <v>58.47</v>
       </c>
       <c r="Z239">
-        <v>58.47</v>
-      </c>
-      <c r="AA239">
         <v>628</v>
       </c>
     </row>
-    <row r="240" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>11.52</v>
       </c>
@@ -22560,19 +21839,16 @@
         <v>340</v>
       </c>
       <c r="X240">
-        <v>72923</v>
+        <v>49.2</v>
       </c>
       <c r="Y240">
-        <v>49.2</v>
+        <v>66.97</v>
       </c>
       <c r="Z240">
-        <v>66.97</v>
-      </c>
-      <c r="AA240">
         <v>241</v>
       </c>
     </row>
-    <row r="241" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>8.7200000000000006</v>
       </c>
@@ -22643,19 +21919,16 @@
         <v>280</v>
       </c>
       <c r="X241">
-        <v>82963</v>
+        <v>17</v>
       </c>
       <c r="Y241">
-        <v>17</v>
+        <v>31.47</v>
       </c>
       <c r="Z241">
-        <v>31.47</v>
-      </c>
-      <c r="AA241">
         <v>634</v>
       </c>
     </row>
-    <row r="242" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>9.67</v>
       </c>
@@ -22726,19 +21999,16 @@
         <v>77</v>
       </c>
       <c r="X242">
-        <v>66083</v>
+        <v>12.4</v>
       </c>
       <c r="Y242">
-        <v>12.4</v>
+        <v>30.67</v>
       </c>
       <c r="Z242">
-        <v>30.67</v>
-      </c>
-      <c r="AA242">
         <v>334</v>
       </c>
     </row>
-    <row r="243" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>8.7200000000000006</v>
       </c>
@@ -22809,19 +22079,16 @@
         <v>250</v>
       </c>
       <c r="X243">
-        <v>63204</v>
+        <v>42.6</v>
       </c>
       <c r="Y243">
-        <v>42.6</v>
+        <v>18.98</v>
       </c>
       <c r="Z243">
-        <v>18.98</v>
-      </c>
-      <c r="AA243">
         <v>277</v>
       </c>
     </row>
-    <row r="244" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>7.61</v>
       </c>
@@ -22892,19 +22159,16 @@
         <v>338</v>
       </c>
       <c r="X244">
-        <v>35438</v>
+        <v>13</v>
       </c>
       <c r="Y244">
-        <v>13</v>
+        <v>47.31</v>
       </c>
       <c r="Z244">
-        <v>47.31</v>
-      </c>
-      <c r="AA244">
         <v>257</v>
       </c>
     </row>
-    <row r="245" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>10.7</v>
       </c>
@@ -22975,19 +22239,16 @@
         <v>362</v>
       </c>
       <c r="X245">
-        <v>87568</v>
+        <v>28.4</v>
       </c>
       <c r="Y245">
-        <v>28.4</v>
+        <v>63.91</v>
       </c>
       <c r="Z245">
-        <v>63.91</v>
-      </c>
-      <c r="AA245">
         <v>420</v>
       </c>
     </row>
-    <row r="246" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>9.06</v>
       </c>
@@ -23058,19 +22319,16 @@
         <v>310</v>
       </c>
       <c r="X246">
-        <v>98832</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="Y246">
-        <v>9.1999999999999993</v>
+        <v>57.11</v>
       </c>
       <c r="Z246">
-        <v>57.11</v>
-      </c>
-      <c r="AA246">
         <v>652</v>
       </c>
     </row>
-    <row r="247" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>10.49</v>
       </c>
@@ -23141,19 +22399,16 @@
         <v>290</v>
       </c>
       <c r="X247">
-        <v>128210</v>
+        <v>25.7</v>
       </c>
       <c r="Y247">
-        <v>25.7</v>
+        <v>36.78</v>
       </c>
       <c r="Z247">
-        <v>36.78</v>
-      </c>
-      <c r="AA247">
         <v>500</v>
       </c>
     </row>
-    <row r="248" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>9.33</v>
       </c>
@@ -23224,19 +22479,16 @@
         <v>418</v>
       </c>
       <c r="X248">
-        <v>115220</v>
+        <v>37.1</v>
       </c>
       <c r="Y248">
-        <v>37.1</v>
+        <v>100</v>
       </c>
       <c r="Z248">
-        <v>100</v>
-      </c>
-      <c r="AA248">
         <v>479</v>
       </c>
     </row>
-    <row r="249" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>12.16</v>
       </c>
@@ -23307,19 +22559,16 @@
         <v>881</v>
       </c>
       <c r="X249">
-        <v>219457</v>
+        <v>34</v>
       </c>
       <c r="Y249">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="Z249">
-        <v>100</v>
-      </c>
-      <c r="AA249">
         <v>847</v>
       </c>
     </row>
-    <row r="250" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>8.17</v>
       </c>
@@ -23390,19 +22639,16 @@
         <v>116</v>
       </c>
       <c r="X250">
-        <v>41104</v>
+        <v>39.4</v>
       </c>
       <c r="Y250">
-        <v>39.4</v>
+        <v>100</v>
       </c>
       <c r="Z250">
-        <v>100</v>
-      </c>
-      <c r="AA250">
         <v>131</v>
       </c>
     </row>
-    <row r="251" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>11.31</v>
       </c>
@@ -23473,19 +22719,16 @@
         <v>3239</v>
       </c>
       <c r="X251">
-        <v>470805</v>
+        <v>106.5</v>
       </c>
       <c r="Y251">
-        <v>106.5</v>
+        <v>100</v>
       </c>
       <c r="Z251">
-        <v>100</v>
-      </c>
-      <c r="AA251">
         <v>1166</v>
       </c>
     </row>
-    <row r="252" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>8.09</v>
       </c>
@@ -23556,19 +22799,16 @@
         <v>841</v>
       </c>
       <c r="X252">
-        <v>244969</v>
+        <v>77.7</v>
       </c>
       <c r="Y252">
-        <v>77.7</v>
+        <v>73.61</v>
       </c>
       <c r="Z252">
-        <v>73.61</v>
-      </c>
-      <c r="AA252">
         <v>623</v>
       </c>
     </row>
-    <row r="253" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>7.76</v>
       </c>
@@ -23639,19 +22879,16 @@
         <v>501</v>
       </c>
       <c r="X253">
-        <v>89780</v>
+        <v>69.8</v>
       </c>
       <c r="Y253">
-        <v>69.8</v>
+        <v>26.87</v>
       </c>
       <c r="Z253">
-        <v>26.87</v>
-      </c>
-      <c r="AA253">
         <v>212</v>
       </c>
     </row>
-    <row r="254" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>6.36</v>
       </c>
@@ -23722,19 +22959,16 @@
         <v>144</v>
       </c>
       <c r="X254">
-        <v>35286</v>
+        <v>105.1</v>
       </c>
       <c r="Y254">
-        <v>105.1</v>
+        <v>44.36</v>
       </c>
       <c r="Z254">
-        <v>44.36</v>
-      </c>
-      <c r="AA254">
         <v>99</v>
       </c>
     </row>
-    <row r="255" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>7.04</v>
       </c>
@@ -23805,19 +23039,16 @@
         <v>580</v>
       </c>
       <c r="X255">
-        <v>147259</v>
+        <v>41</v>
       </c>
       <c r="Y255">
-        <v>41</v>
+        <v>11.41</v>
       </c>
       <c r="Z255">
-        <v>11.41</v>
-      </c>
-      <c r="AA255">
         <v>818</v>
       </c>
     </row>
-    <row r="256" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>10.050000000000001</v>
       </c>
@@ -23888,19 +23119,16 @@
         <v>169</v>
       </c>
       <c r="X256">
-        <v>166348</v>
+        <v>26.6</v>
       </c>
       <c r="Y256">
-        <v>26.6</v>
+        <v>53.5</v>
       </c>
       <c r="Z256">
-        <v>53.5</v>
-      </c>
-      <c r="AA256">
         <v>570</v>
       </c>
     </row>
-    <row r="257" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>9.07</v>
       </c>
@@ -23971,19 +23199,16 @@
         <v>669</v>
       </c>
       <c r="X257">
-        <v>177536</v>
+        <v>47.2</v>
       </c>
       <c r="Y257">
-        <v>47.2</v>
+        <v>20.3</v>
       </c>
       <c r="Z257">
-        <v>20.3</v>
-      </c>
-      <c r="AA257">
         <v>430</v>
       </c>
     </row>
-    <row r="258" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>7.91</v>
       </c>
@@ -24054,19 +23279,16 @@
         <v>126</v>
       </c>
       <c r="X258">
-        <v>134106</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="Y258">
-        <v>32.799999999999997</v>
+        <v>36.590000000000003</v>
       </c>
       <c r="Z258">
-        <v>36.590000000000003</v>
-      </c>
-      <c r="AA258">
         <v>911</v>
       </c>
     </row>
-    <row r="259" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>9.14</v>
       </c>
@@ -24137,19 +23359,16 @@
         <v>365</v>
       </c>
       <c r="X259">
-        <v>115416</v>
+        <v>48.6</v>
       </c>
       <c r="Y259">
-        <v>48.6</v>
+        <v>85.1</v>
       </c>
       <c r="Z259">
-        <v>85.1</v>
-      </c>
-      <c r="AA259">
         <v>418</v>
       </c>
     </row>
-    <row r="260" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>9.06</v>
       </c>
@@ -24220,19 +23439,16 @@
         <v>63</v>
       </c>
       <c r="X260">
-        <v>84330</v>
+        <v>20.8</v>
       </c>
       <c r="Y260">
-        <v>20.8</v>
+        <v>54.25</v>
       </c>
       <c r="Z260">
-        <v>54.25</v>
-      </c>
-      <c r="AA260">
         <v>479</v>
       </c>
     </row>
-    <row r="261" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>8.9700000000000006</v>
       </c>
@@ -24303,19 +23519,16 @@
         <v>404</v>
       </c>
       <c r="X261">
-        <v>76109</v>
+        <v>46.9</v>
       </c>
       <c r="Y261">
-        <v>46.9</v>
+        <v>22.99</v>
       </c>
       <c r="Z261">
-        <v>22.99</v>
-      </c>
-      <c r="AA261">
         <v>190</v>
       </c>
     </row>
-    <row r="262" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>10.01</v>
       </c>
@@ -24386,19 +23599,16 @@
         <v>549</v>
       </c>
       <c r="X262">
-        <v>99202</v>
+        <v>42.8</v>
       </c>
       <c r="Y262">
-        <v>42.8</v>
+        <v>57.37</v>
       </c>
       <c r="Z262">
-        <v>57.37</v>
-      </c>
-      <c r="AA262">
         <v>416</v>
       </c>
     </row>
-    <row r="263" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>7.67</v>
       </c>
@@ -24469,19 +23679,16 @@
         <v>179</v>
       </c>
       <c r="X263">
-        <v>70486</v>
+        <v>54.6</v>
       </c>
       <c r="Y263">
-        <v>54.6</v>
+        <v>35.68</v>
       </c>
       <c r="Z263">
-        <v>35.68</v>
-      </c>
-      <c r="AA263">
         <v>419</v>
       </c>
     </row>
-    <row r="264" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>10.17</v>
       </c>
@@ -24552,19 +23759,16 @@
         <v>552</v>
       </c>
       <c r="X264">
-        <v>111814</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="Y264">
-        <v>35.299999999999997</v>
+        <v>67.209999999999994</v>
       </c>
       <c r="Z264">
-        <v>67.209999999999994</v>
-      </c>
-      <c r="AA264">
         <v>383</v>
       </c>
     </row>
-    <row r="265" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>7.53</v>
       </c>
@@ -24635,19 +23839,16 @@
         <v>196</v>
       </c>
       <c r="X265">
-        <v>107410</v>
+        <v>32.6</v>
       </c>
       <c r="Y265">
-        <v>32.6</v>
+        <v>75.849999999999994</v>
       </c>
       <c r="Z265">
-        <v>75.849999999999994</v>
-      </c>
-      <c r="AA265">
         <v>412</v>
       </c>
     </row>
-    <row r="266" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>10.07</v>
       </c>
@@ -24718,19 +23919,16 @@
         <v>58</v>
       </c>
       <c r="X266">
-        <v>78166</v>
+        <v>10</v>
       </c>
       <c r="Y266">
-        <v>10</v>
+        <v>64.099999999999994</v>
       </c>
       <c r="Z266">
-        <v>64.099999999999994</v>
-      </c>
-      <c r="AA266">
         <v>209</v>
       </c>
     </row>
-    <row r="267" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>8.57</v>
       </c>
@@ -24801,19 +23999,16 @@
         <v>521</v>
       </c>
       <c r="X267">
-        <v>140780</v>
+        <v>57</v>
       </c>
       <c r="Y267">
-        <v>57</v>
+        <v>63.08</v>
       </c>
       <c r="Z267">
-        <v>63.08</v>
-      </c>
-      <c r="AA267">
         <v>401</v>
       </c>
     </row>
-    <row r="268" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>10.01</v>
       </c>
@@ -24884,19 +24079,16 @@
         <v>157</v>
       </c>
       <c r="X268">
-        <v>59823</v>
+        <v>27.1</v>
       </c>
       <c r="Y268">
-        <v>27.1</v>
+        <v>20.190000000000001</v>
       </c>
       <c r="Z268">
-        <v>20.190000000000001</v>
-      </c>
-      <c r="AA268">
         <v>234</v>
       </c>
     </row>
-    <row r="269" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>8.7899999999999991</v>
       </c>
@@ -24967,19 +24159,16 @@
         <v>231</v>
       </c>
       <c r="X269">
-        <v>156579</v>
+        <v>31.2</v>
       </c>
       <c r="Y269">
-        <v>31.2</v>
+        <v>100</v>
       </c>
       <c r="Z269">
-        <v>100</v>
-      </c>
-      <c r="AA269">
         <v>269</v>
       </c>
     </row>
-    <row r="270" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>7.27</v>
       </c>
@@ -25050,19 +24239,16 @@
         <v>284</v>
       </c>
       <c r="X270">
-        <v>116672</v>
+        <v>28.8</v>
       </c>
       <c r="Y270">
-        <v>28.8</v>
+        <v>100</v>
       </c>
       <c r="Z270">
-        <v>100</v>
-      </c>
-      <c r="AA270">
         <v>575</v>
       </c>
     </row>
-    <row r="271" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>9.42</v>
       </c>
@@ -25133,19 +24319,16 @@
         <v>246</v>
       </c>
       <c r="X271">
-        <v>152199</v>
+        <v>25.7</v>
       </c>
       <c r="Y271">
-        <v>25.7</v>
+        <v>100</v>
       </c>
       <c r="Z271">
-        <v>100</v>
-      </c>
-      <c r="AA271">
         <v>645</v>
       </c>
     </row>
-    <row r="272" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>8.92</v>
       </c>
@@ -25216,19 +24399,16 @@
         <v>758</v>
       </c>
       <c r="X272">
-        <v>169756</v>
+        <v>115.5</v>
       </c>
       <c r="Y272">
-        <v>115.5</v>
+        <v>100</v>
       </c>
       <c r="Z272">
-        <v>100</v>
-      </c>
-      <c r="AA272">
         <v>428</v>
       </c>
     </row>
-    <row r="273" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>7.62</v>
       </c>
@@ -25299,19 +24479,16 @@
         <v>452</v>
       </c>
       <c r="X273">
-        <v>163255</v>
+        <v>66.5</v>
       </c>
       <c r="Y273">
-        <v>66.5</v>
+        <v>100</v>
       </c>
       <c r="Z273">
-        <v>100</v>
-      </c>
-      <c r="AA273">
         <v>297</v>
       </c>
     </row>
-    <row r="274" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>8.11</v>
       </c>
@@ -25382,19 +24559,16 @@
         <v>780</v>
       </c>
       <c r="X274">
-        <v>106846</v>
+        <v>97.2</v>
       </c>
       <c r="Y274">
-        <v>97.2</v>
+        <v>100</v>
       </c>
       <c r="Z274">
-        <v>100</v>
-      </c>
-      <c r="AA274">
         <v>201</v>
       </c>
     </row>
-    <row r="275" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>7.15</v>
       </c>
@@ -25465,19 +24639,16 @@
         <v>400</v>
       </c>
       <c r="X275">
-        <v>217530</v>
+        <v>97.8</v>
       </c>
       <c r="Y275">
-        <v>97.8</v>
+        <v>100</v>
       </c>
       <c r="Z275">
-        <v>100</v>
-      </c>
-      <c r="AA275">
         <v>782</v>
       </c>
     </row>
-    <row r="276" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>7.27</v>
       </c>
@@ -25548,19 +24719,16 @@
         <v>455</v>
       </c>
       <c r="X276">
-        <v>118285</v>
+        <v>54.5</v>
       </c>
       <c r="Y276">
-        <v>54.5</v>
+        <v>100</v>
       </c>
       <c r="Z276">
-        <v>100</v>
-      </c>
-      <c r="AA276">
         <v>212</v>
       </c>
     </row>
-    <row r="277" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>8.86</v>
       </c>
@@ -25631,19 +24799,16 @@
         <v>1046</v>
       </c>
       <c r="X277">
-        <v>177049</v>
+        <v>94.8</v>
       </c>
       <c r="Y277">
-        <v>94.8</v>
+        <v>100</v>
       </c>
       <c r="Z277">
-        <v>100</v>
-      </c>
-      <c r="AA277">
         <v>397</v>
       </c>
     </row>
-    <row r="278" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>8.1300000000000008</v>
       </c>
@@ -25714,19 +24879,16 @@
         <v>244</v>
       </c>
       <c r="X278">
-        <v>88038</v>
+        <v>60.7</v>
       </c>
       <c r="Y278">
-        <v>60.7</v>
+        <v>100</v>
       </c>
       <c r="Z278">
-        <v>100</v>
-      </c>
-      <c r="AA278">
         <v>201</v>
       </c>
     </row>
-    <row r="279" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>8</v>
       </c>
@@ -25797,19 +24959,16 @@
         <v>396</v>
       </c>
       <c r="X279">
-        <v>90368</v>
+        <v>60.1</v>
       </c>
       <c r="Y279">
-        <v>60.1</v>
+        <v>100</v>
       </c>
       <c r="Z279">
-        <v>100</v>
-      </c>
-      <c r="AA279">
         <v>404</v>
       </c>
     </row>
-    <row r="280" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>8.6300000000000008</v>
       </c>
@@ -25880,19 +25039,16 @@
         <v>2571</v>
       </c>
       <c r="X280">
-        <v>290553</v>
+        <v>199.4</v>
       </c>
       <c r="Y280">
-        <v>199.4</v>
+        <v>100</v>
       </c>
       <c r="Z280">
-        <v>100</v>
-      </c>
-      <c r="AA280">
         <v>682</v>
       </c>
     </row>
-    <row r="281" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>9.1300000000000008</v>
       </c>
@@ -25963,19 +25119,16 @@
         <v>399</v>
       </c>
       <c r="X281">
-        <v>74559</v>
+        <v>49.9</v>
       </c>
       <c r="Y281">
-        <v>49.9</v>
+        <v>100</v>
       </c>
       <c r="Z281">
-        <v>100</v>
-      </c>
-      <c r="AA281">
         <v>122</v>
       </c>
     </row>
-    <row r="282" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>8.4600000000000009</v>
       </c>
@@ -26046,19 +25199,16 @@
         <v>122</v>
       </c>
       <c r="X282">
-        <v>54702</v>
+        <v>79.900000000000006</v>
       </c>
       <c r="Y282">
-        <v>79.900000000000006</v>
+        <v>100</v>
       </c>
       <c r="Z282">
-        <v>100</v>
-      </c>
-      <c r="AA282">
         <v>108</v>
       </c>
     </row>
-    <row r="283" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>8.89</v>
       </c>
@@ -26129,19 +25279,16 @@
         <v>529</v>
       </c>
       <c r="X283">
-        <v>136423</v>
+        <v>66</v>
       </c>
       <c r="Y283">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="Z283">
-        <v>100</v>
-      </c>
-      <c r="AA283">
         <v>267</v>
       </c>
     </row>
-    <row r="284" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>9.02</v>
       </c>
@@ -26212,19 +25359,16 @@
         <v>378</v>
       </c>
       <c r="X284">
-        <v>137128</v>
+        <v>51.6</v>
       </c>
       <c r="Y284">
-        <v>51.6</v>
+        <v>100</v>
       </c>
       <c r="Z284">
-        <v>100</v>
-      </c>
-      <c r="AA284">
         <v>365</v>
       </c>
     </row>
-    <row r="285" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>8.09</v>
       </c>
@@ -26295,19 +25439,16 @@
         <v>418</v>
       </c>
       <c r="X285">
-        <v>66270</v>
+        <v>70</v>
       </c>
       <c r="Y285">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="Z285">
-        <v>100</v>
-      </c>
-      <c r="AA285">
         <v>134</v>
       </c>
     </row>
-    <row r="286" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>6.83</v>
       </c>
@@ -26378,19 +25519,16 @@
         <v>1220</v>
       </c>
       <c r="X286">
-        <v>197586</v>
+        <v>96</v>
       </c>
       <c r="Y286">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="Z286">
-        <v>100</v>
-      </c>
-      <c r="AA286">
         <v>177</v>
       </c>
     </row>
-    <row r="287" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>8.67</v>
       </c>
@@ -26461,19 +25599,16 @@
         <v>273</v>
       </c>
       <c r="X287">
-        <v>49108</v>
+        <v>63.1</v>
       </c>
       <c r="Y287">
-        <v>63.1</v>
+        <v>100</v>
       </c>
       <c r="Z287">
-        <v>100</v>
-      </c>
-      <c r="AA287">
         <v>82</v>
       </c>
     </row>
-    <row r="288" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>8.18</v>
       </c>
@@ -26544,19 +25679,16 @@
         <v>847</v>
       </c>
       <c r="X288">
-        <v>126871</v>
+        <v>73.5</v>
       </c>
       <c r="Y288">
-        <v>73.5</v>
+        <v>27.51</v>
       </c>
       <c r="Z288">
-        <v>27.51</v>
-      </c>
-      <c r="AA288">
         <v>372</v>
       </c>
     </row>
-    <row r="289" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>8</v>
       </c>
@@ -26627,19 +25759,16 @@
         <v>945</v>
       </c>
       <c r="X289">
-        <v>170924</v>
+        <v>94.1</v>
       </c>
       <c r="Y289">
-        <v>94.1</v>
+        <v>29.26</v>
       </c>
       <c r="Z289">
-        <v>29.26</v>
-      </c>
-      <c r="AA289">
         <v>210</v>
       </c>
     </row>
-    <row r="290" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>8.73</v>
       </c>
@@ -26710,19 +25839,16 @@
         <v>477</v>
       </c>
       <c r="X290">
-        <v>62844</v>
+        <v>46.3</v>
       </c>
       <c r="Y290">
-        <v>46.3</v>
+        <v>21.08</v>
       </c>
       <c r="Z290">
-        <v>21.08</v>
-      </c>
-      <c r="AA290">
         <v>180</v>
       </c>
     </row>
-    <row r="291" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>7.7</v>
       </c>
@@ -26793,19 +25919,16 @@
         <v>45</v>
       </c>
       <c r="X291">
-        <v>71125</v>
+        <v>47.7</v>
       </c>
       <c r="Y291">
-        <v>47.7</v>
+        <v>8.91</v>
       </c>
       <c r="Z291">
-        <v>8.91</v>
-      </c>
-      <c r="AA291">
         <v>1007</v>
       </c>
     </row>
-    <row r="292" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>8.3000000000000007</v>
       </c>
@@ -26876,19 +25999,16 @@
         <v>101</v>
       </c>
       <c r="X292">
-        <v>84908</v>
+        <v>28.6</v>
       </c>
       <c r="Y292">
-        <v>28.6</v>
+        <v>34.83</v>
       </c>
       <c r="Z292">
-        <v>34.83</v>
-      </c>
-      <c r="AA292">
         <v>1006</v>
       </c>
     </row>
-    <row r="293" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>7.05</v>
       </c>
@@ -26959,19 +26079,16 @@
         <v>77</v>
       </c>
       <c r="X293">
-        <v>33340</v>
+        <v>12</v>
       </c>
       <c r="Y293">
-        <v>12</v>
+        <v>21.01</v>
       </c>
       <c r="Z293">
-        <v>21.01</v>
-      </c>
-      <c r="AA293">
         <v>533</v>
       </c>
     </row>
-    <row r="294" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>9.2799999999999994</v>
       </c>
@@ -27042,19 +26159,16 @@
         <v>572</v>
       </c>
       <c r="X294">
-        <v>210992</v>
+        <v>27.7</v>
       </c>
       <c r="Y294">
-        <v>27.7</v>
+        <v>68.03</v>
       </c>
       <c r="Z294">
-        <v>68.03</v>
-      </c>
-      <c r="AA294">
         <v>2355</v>
       </c>
     </row>
-    <row r="295" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>7.26</v>
       </c>
@@ -27125,19 +26239,16 @@
         <v>25</v>
       </c>
       <c r="X295">
-        <v>79072</v>
+        <v>40.6</v>
       </c>
       <c r="Y295">
-        <v>40.6</v>
+        <v>29.69</v>
       </c>
       <c r="Z295">
-        <v>29.69</v>
-      </c>
-      <c r="AA295">
         <v>745</v>
       </c>
     </row>
-    <row r="296" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>6.85</v>
       </c>
@@ -27208,19 +26319,16 @@
         <v>60</v>
       </c>
       <c r="X296">
-        <v>51525</v>
+        <v>21.2</v>
       </c>
       <c r="Y296">
-        <v>21.2</v>
+        <v>38.020000000000003</v>
       </c>
       <c r="Z296">
-        <v>38.020000000000003</v>
-      </c>
-      <c r="AA296">
         <v>906</v>
       </c>
     </row>
-    <row r="297" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>5.65</v>
       </c>
@@ -27291,19 +26399,16 @@
         <v>126</v>
       </c>
       <c r="X297">
-        <v>107711</v>
+        <v>40.6</v>
       </c>
       <c r="Y297">
-        <v>40.6</v>
+        <v>71.77</v>
       </c>
       <c r="Z297">
-        <v>71.77</v>
-      </c>
-      <c r="AA297">
         <v>902</v>
       </c>
     </row>
-    <row r="298" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>7.73</v>
       </c>
@@ -27374,19 +26479,16 @@
         <v>47</v>
       </c>
       <c r="X298">
-        <v>38487</v>
+        <v>27.3</v>
       </c>
       <c r="Y298">
-        <v>27.3</v>
+        <v>56.87</v>
       </c>
       <c r="Z298">
-        <v>56.87</v>
-      </c>
-      <c r="AA298">
         <v>534</v>
       </c>
     </row>
-    <row r="299" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>7.73</v>
       </c>
@@ -27457,19 +26559,16 @@
         <v>143</v>
       </c>
       <c r="X299">
-        <v>76346</v>
+        <v>41.1</v>
       </c>
       <c r="Y299">
-        <v>41.1</v>
+        <v>38.450000000000003</v>
       </c>
       <c r="Z299">
-        <v>38.450000000000003</v>
-      </c>
-      <c r="AA299">
         <v>772</v>
       </c>
     </row>
-    <row r="300" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>6.05</v>
       </c>
@@ -27540,19 +26639,16 @@
         <v>130</v>
       </c>
       <c r="X300">
-        <v>73163</v>
+        <v>47.6</v>
       </c>
       <c r="Y300">
-        <v>47.6</v>
+        <v>21.9</v>
       </c>
       <c r="Z300">
-        <v>21.9</v>
-      </c>
-      <c r="AA300">
         <v>466</v>
       </c>
     </row>
-    <row r="301" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>7.35</v>
       </c>
@@ -27623,19 +26719,16 @@
         <v>210</v>
       </c>
       <c r="X301">
-        <v>88549</v>
+        <v>44.9</v>
       </c>
       <c r="Y301">
-        <v>44.9</v>
+        <v>100</v>
       </c>
       <c r="Z301">
-        <v>100</v>
-      </c>
-      <c r="AA301">
         <v>733</v>
       </c>
     </row>
-    <row r="302" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>8.26</v>
       </c>
@@ -27706,19 +26799,16 @@
         <v>179</v>
       </c>
       <c r="X302">
-        <v>71250</v>
+        <v>41.7</v>
       </c>
       <c r="Y302">
-        <v>41.7</v>
+        <v>54.95</v>
       </c>
       <c r="Z302">
-        <v>54.95</v>
-      </c>
-      <c r="AA302">
         <v>926</v>
       </c>
     </row>
-    <row r="303" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>7.79</v>
       </c>
@@ -27789,19 +26879,16 @@
         <v>20</v>
       </c>
       <c r="X303">
-        <v>44743</v>
+        <v>28.8</v>
       </c>
       <c r="Y303">
-        <v>28.8</v>
+        <v>53.85</v>
       </c>
       <c r="Z303">
-        <v>53.85</v>
-      </c>
-      <c r="AA303">
         <v>638</v>
       </c>
     </row>
-    <row r="304" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>8.02</v>
       </c>
@@ -27872,19 +26959,16 @@
         <v>1362</v>
       </c>
       <c r="X304">
-        <v>193415</v>
+        <v>150.4</v>
       </c>
       <c r="Y304">
-        <v>150.4</v>
+        <v>44.44</v>
       </c>
       <c r="Z304">
-        <v>44.44</v>
-      </c>
-      <c r="AA304">
         <v>575</v>
       </c>
     </row>
-    <row r="305" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>7.96</v>
       </c>
@@ -27955,19 +27039,16 @@
         <v>15</v>
       </c>
       <c r="X305">
-        <v>56562</v>
+        <v>24.2</v>
       </c>
       <c r="Y305">
-        <v>24.2</v>
+        <v>28.98</v>
       </c>
       <c r="Z305">
-        <v>28.98</v>
-      </c>
-      <c r="AA305">
         <v>279</v>
       </c>
     </row>
-    <row r="306" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>8.5500000000000007</v>
       </c>
@@ -28038,19 +27119,16 @@
         <v>44</v>
       </c>
       <c r="X306">
-        <v>40776</v>
+        <v>30.7</v>
       </c>
       <c r="Y306">
-        <v>30.7</v>
+        <v>67.73</v>
       </c>
       <c r="Z306">
-        <v>67.73</v>
-      </c>
-      <c r="AA306">
         <v>191</v>
       </c>
     </row>
-    <row r="307" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>8.8800000000000008</v>
       </c>
@@ -28121,19 +27199,16 @@
         <v>107</v>
       </c>
       <c r="X307">
-        <v>64768</v>
+        <v>29.3</v>
       </c>
       <c r="Y307">
-        <v>29.3</v>
+        <v>56.54</v>
       </c>
       <c r="Z307">
-        <v>56.54</v>
-      </c>
-      <c r="AA307">
         <v>290</v>
       </c>
     </row>
-    <row r="308" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>8.4499999999999993</v>
       </c>
@@ -28204,19 +27279,16 @@
         <v>10</v>
       </c>
       <c r="X308">
-        <v>56986</v>
+        <v>17</v>
       </c>
       <c r="Y308">
-        <v>17</v>
+        <v>57.55</v>
       </c>
       <c r="Z308">
-        <v>57.55</v>
-      </c>
-      <c r="AA308">
         <v>421</v>
       </c>
     </row>
-    <row r="309" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>9.41</v>
       </c>
@@ -28287,19 +27359,16 @@
         <v>300</v>
       </c>
       <c r="X309">
-        <v>91395</v>
+        <v>35.5</v>
       </c>
       <c r="Y309">
-        <v>35.5</v>
+        <v>57.42</v>
       </c>
       <c r="Z309">
-        <v>57.42</v>
-      </c>
-      <c r="AA309">
         <v>369</v>
       </c>
     </row>
-    <row r="310" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>7.54</v>
       </c>
@@ -28370,19 +27439,16 @@
         <v>107</v>
       </c>
       <c r="X310">
-        <v>56227</v>
+        <v>31.1</v>
       </c>
       <c r="Y310">
-        <v>31.1</v>
+        <v>59.08</v>
       </c>
       <c r="Z310">
-        <v>59.08</v>
-      </c>
-      <c r="AA310">
         <v>226</v>
       </c>
     </row>
-    <row r="311" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>9.23</v>
       </c>
@@ -28453,19 +27519,16 @@
         <v>252</v>
       </c>
       <c r="X311">
-        <v>92644</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="Y311">
-        <v>20.399999999999999</v>
+        <v>50.65</v>
       </c>
       <c r="Z311">
-        <v>50.65</v>
-      </c>
-      <c r="AA311">
         <v>372</v>
       </c>
     </row>
-    <row r="312" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>7.25</v>
       </c>
@@ -28536,19 +27599,16 @@
         <v>120</v>
       </c>
       <c r="X312">
-        <v>61772</v>
+        <v>20.7</v>
       </c>
       <c r="Y312">
-        <v>20.7</v>
+        <v>41.51</v>
       </c>
       <c r="Z312">
-        <v>41.51</v>
-      </c>
-      <c r="AA312">
         <v>234</v>
       </c>
     </row>
-    <row r="313" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>7.87</v>
       </c>
@@ -28619,19 +27679,16 @@
         <v>83</v>
       </c>
       <c r="X313">
-        <v>40852</v>
+        <v>23.7</v>
       </c>
       <c r="Y313">
-        <v>23.7</v>
+        <v>24.49</v>
       </c>
       <c r="Z313">
-        <v>24.49</v>
-      </c>
-      <c r="AA313">
         <v>265</v>
       </c>
     </row>
-    <row r="314" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>7.37</v>
       </c>
@@ -28702,19 +27759,16 @@
         <v>130</v>
       </c>
       <c r="X314">
-        <v>49439</v>
+        <v>29.7</v>
       </c>
       <c r="Y314">
-        <v>29.7</v>
+        <v>48.14</v>
       </c>
       <c r="Z314">
-        <v>48.14</v>
-      </c>
-      <c r="AA314">
         <v>180</v>
       </c>
     </row>
-    <row r="315" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>8</v>
       </c>
@@ -28785,19 +27839,16 @@
         <v>18</v>
       </c>
       <c r="X315">
-        <v>32638</v>
+        <v>3.6</v>
       </c>
       <c r="Y315">
-        <v>3.6</v>
+        <v>30.4</v>
       </c>
       <c r="Z315">
-        <v>30.4</v>
-      </c>
-      <c r="AA315">
         <v>147</v>
       </c>
     </row>
-    <row r="316" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>10.3</v>
       </c>
@@ -28868,19 +27919,16 @@
         <v>111</v>
       </c>
       <c r="X316">
-        <v>43721</v>
+        <v>4.7</v>
       </c>
       <c r="Y316">
-        <v>4.7</v>
+        <v>49.41</v>
       </c>
       <c r="Z316">
-        <v>49.41</v>
-      </c>
-      <c r="AA316">
         <v>153</v>
       </c>
     </row>
-    <row r="317" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>8.4</v>
       </c>
@@ -28951,19 +27999,16 @@
         <v>109</v>
       </c>
       <c r="X317">
-        <v>33993</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="Y317">
-        <v>2.2999999999999998</v>
+        <v>59.17</v>
       </c>
       <c r="Z317">
-        <v>59.17</v>
-      </c>
-      <c r="AA317">
         <v>161</v>
       </c>
     </row>
-    <row r="318" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>9.1300000000000008</v>
       </c>
@@ -29034,19 +28079,16 @@
         <v>393</v>
       </c>
       <c r="X318">
-        <v>127544</v>
+        <v>6.7</v>
       </c>
       <c r="Y318">
-        <v>6.7</v>
+        <v>40.950000000000003</v>
       </c>
       <c r="Z318">
-        <v>40.950000000000003</v>
-      </c>
-      <c r="AA318">
         <v>617</v>
       </c>
     </row>
-    <row r="319" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>8.27</v>
       </c>
@@ -29117,19 +28159,16 @@
         <v>220</v>
       </c>
       <c r="X319">
-        <v>103492</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="Y319">
-        <v>4.5999999999999996</v>
+        <v>51.34</v>
       </c>
       <c r="Z319">
-        <v>51.34</v>
-      </c>
-      <c r="AA319">
         <v>379</v>
       </c>
     </row>
-    <row r="320" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>8.7799999999999994</v>
       </c>
@@ -29200,19 +28239,16 @@
         <v>29</v>
       </c>
       <c r="X320">
-        <v>55833</v>
+        <v>2</v>
       </c>
       <c r="Y320">
-        <v>2</v>
+        <v>49.65</v>
       </c>
       <c r="Z320">
-        <v>49.65</v>
-      </c>
-      <c r="AA320">
         <v>119</v>
       </c>
     </row>
-    <row r="321" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>9.11</v>
       </c>
@@ -29283,19 +28319,16 @@
         <v>62</v>
       </c>
       <c r="X321">
-        <v>69089</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="Y321">
-        <v>4.5999999999999996</v>
+        <v>100</v>
       </c>
       <c r="Z321">
-        <v>100</v>
-      </c>
-      <c r="AA321">
         <v>263</v>
       </c>
     </row>
-    <row r="322" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>8.56</v>
       </c>
@@ -29366,19 +28399,16 @@
         <v>56</v>
       </c>
       <c r="X322">
-        <v>26489</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Y322">
-        <v>1.1000000000000001</v>
+        <v>100</v>
       </c>
       <c r="Z322">
-        <v>100</v>
-      </c>
-      <c r="AA322">
         <v>198</v>
       </c>
     </row>
-    <row r="323" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>7.4</v>
       </c>
@@ -29449,19 +28479,16 @@
         <v>16</v>
       </c>
       <c r="X323">
-        <v>22444</v>
+        <v>3.2</v>
       </c>
       <c r="Y323">
-        <v>3.2</v>
+        <v>54.26</v>
       </c>
       <c r="Z323">
-        <v>54.26</v>
-      </c>
-      <c r="AA323">
         <v>128</v>
       </c>
     </row>
-    <row r="324" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>7.32</v>
       </c>
@@ -29532,19 +28559,16 @@
         <v>568</v>
       </c>
       <c r="X324">
-        <v>118582</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="Y324">
-        <v>5.0999999999999996</v>
+        <v>45.48</v>
       </c>
       <c r="Z324">
-        <v>45.48</v>
-      </c>
-      <c r="AA324">
         <v>330</v>
       </c>
     </row>
-    <row r="325" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>9.0399999999999991</v>
       </c>
@@ -29615,19 +28639,16 @@
         <v>1176</v>
       </c>
       <c r="X325">
-        <v>171249</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="Y325">
-        <v>8.8000000000000007</v>
+        <v>60.77</v>
       </c>
       <c r="Z325">
-        <v>60.77</v>
-      </c>
-      <c r="AA325">
         <v>412</v>
       </c>
     </row>
-    <row r="326" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>8.8000000000000007</v>
       </c>
@@ -29698,19 +28719,16 @@
         <v>135</v>
       </c>
       <c r="X326">
-        <v>46824</v>
+        <v>3.5</v>
       </c>
       <c r="Y326">
-        <v>3.5</v>
+        <v>42.32</v>
       </c>
       <c r="Z326">
-        <v>42.32</v>
-      </c>
-      <c r="AA326">
         <v>268</v>
       </c>
     </row>
-    <row r="327" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>9.24</v>
       </c>
@@ -29781,19 +28799,16 @@
         <v>169</v>
       </c>
       <c r="X327">
-        <v>86590</v>
+        <v>2.4</v>
       </c>
       <c r="Y327">
-        <v>2.4</v>
+        <v>38.72</v>
       </c>
       <c r="Z327">
-        <v>38.72</v>
-      </c>
-      <c r="AA327">
         <v>319</v>
       </c>
     </row>
-    <row r="328" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>9.75</v>
       </c>
@@ -29864,19 +28879,16 @@
         <v>441</v>
       </c>
       <c r="X328">
-        <v>145068</v>
+        <v>6.2</v>
       </c>
       <c r="Y328">
-        <v>6.2</v>
+        <v>41.63</v>
       </c>
       <c r="Z328">
-        <v>41.63</v>
-      </c>
-      <c r="AA328">
         <v>771</v>
       </c>
     </row>
-    <row r="329" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>11.33</v>
       </c>
@@ -29947,19 +28959,16 @@
         <v>235</v>
       </c>
       <c r="X329">
-        <v>75732</v>
+        <v>4.3</v>
       </c>
       <c r="Y329">
-        <v>4.3</v>
+        <v>6.12</v>
       </c>
       <c r="Z329">
-        <v>6.12</v>
-      </c>
-      <c r="AA329">
         <v>309</v>
       </c>
     </row>
-    <row r="330" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>12.34</v>
       </c>
@@ -30030,19 +29039,16 @@
         <v>590</v>
       </c>
       <c r="X330">
-        <v>51929</v>
+        <v>3.8</v>
       </c>
       <c r="Y330">
-        <v>3.8</v>
+        <v>24.67</v>
       </c>
       <c r="Z330">
-        <v>24.67</v>
-      </c>
-      <c r="AA330">
         <v>101</v>
       </c>
     </row>
-    <row r="331" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>9.92</v>
       </c>
@@ -30113,19 +29119,16 @@
         <v>235</v>
       </c>
       <c r="X331">
-        <v>71425</v>
+        <v>7.8</v>
       </c>
       <c r="Y331">
-        <v>7.8</v>
+        <v>36.24</v>
       </c>
       <c r="Z331">
-        <v>36.24</v>
-      </c>
-      <c r="AA331">
         <v>435</v>
       </c>
     </row>
-    <row r="332" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>10.1</v>
       </c>
@@ -30196,19 +29199,16 @@
         <v>180</v>
       </c>
       <c r="X332">
-        <v>82911</v>
+        <v>2.8</v>
       </c>
       <c r="Y332">
-        <v>2.8</v>
+        <v>13.47</v>
       </c>
       <c r="Z332">
-        <v>13.47</v>
-      </c>
-      <c r="AA332">
         <v>439</v>
       </c>
     </row>
-    <row r="333" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>10</v>
       </c>
@@ -30279,19 +29279,16 @@
         <v>320</v>
       </c>
       <c r="X333">
-        <v>56298</v>
+        <v>6.4</v>
       </c>
       <c r="Y333">
-        <v>6.4</v>
+        <v>45.63</v>
       </c>
       <c r="Z333">
-        <v>45.63</v>
-      </c>
-      <c r="AA333">
         <v>242</v>
       </c>
     </row>
-    <row r="334" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>8.3699999999999992</v>
       </c>
@@ -30362,19 +29359,16 @@
         <v>95</v>
       </c>
       <c r="X334">
-        <v>86108</v>
+        <v>2.8</v>
       </c>
       <c r="Y334">
-        <v>2.8</v>
+        <v>59.27</v>
       </c>
       <c r="Z334">
-        <v>59.27</v>
-      </c>
-      <c r="AA334">
         <v>713</v>
       </c>
     </row>
-    <row r="335" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>8.94</v>
       </c>
@@ -30445,19 +29439,16 @@
         <v>180</v>
       </c>
       <c r="X335">
-        <v>129904</v>
+        <v>3.9</v>
       </c>
       <c r="Y335">
-        <v>3.9</v>
+        <v>9.17</v>
       </c>
       <c r="Z335">
-        <v>9.17</v>
-      </c>
-      <c r="AA335">
         <v>1052</v>
       </c>
     </row>
-    <row r="336" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>10.29</v>
       </c>
@@ -30528,19 +29519,16 @@
         <v>170</v>
       </c>
       <c r="X336">
-        <v>78866</v>
+        <v>5</v>
       </c>
       <c r="Y336">
-        <v>5</v>
+        <v>44.86</v>
       </c>
       <c r="Z336">
-        <v>44.86</v>
-      </c>
-      <c r="AA336">
         <v>155</v>
       </c>
     </row>
-    <row r="337" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>9.9499999999999993</v>
       </c>
@@ -30611,19 +29599,16 @@
         <v>142</v>
       </c>
       <c r="X337">
-        <v>76998</v>
+        <v>3.2</v>
       </c>
       <c r="Y337">
-        <v>3.2</v>
+        <v>45</v>
       </c>
       <c r="Z337">
-        <v>45</v>
-      </c>
-      <c r="AA337">
         <v>372</v>
       </c>
     </row>
-    <row r="338" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>12.06</v>
       </c>
@@ -30694,19 +29679,16 @@
         <v>84</v>
       </c>
       <c r="X338">
-        <v>57911</v>
+        <v>11.1</v>
       </c>
       <c r="Y338">
-        <v>11.1</v>
+        <v>48.43</v>
       </c>
       <c r="Z338">
-        <v>48.43</v>
-      </c>
-      <c r="AA338">
         <v>170</v>
       </c>
     </row>
-    <row r="339" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>9.6199999999999992</v>
       </c>
@@ -30777,19 +29759,16 @@
         <v>196</v>
       </c>
       <c r="X339">
-        <v>36633</v>
+        <v>3.4</v>
       </c>
       <c r="Y339">
-        <v>3.4</v>
+        <v>51.77</v>
       </c>
       <c r="Z339">
-        <v>51.77</v>
-      </c>
-      <c r="AA339">
         <v>161</v>
       </c>
     </row>
-    <row r="340" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>10.95</v>
       </c>
@@ -30860,19 +29839,16 @@
         <v>390</v>
       </c>
       <c r="X340">
-        <v>75576</v>
+        <v>5</v>
       </c>
       <c r="Y340">
-        <v>5</v>
+        <v>32.01</v>
       </c>
       <c r="Z340">
-        <v>32.01</v>
-      </c>
-      <c r="AA340">
         <v>150</v>
       </c>
     </row>
-    <row r="341" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>10.15</v>
       </c>
@@ -30943,19 +29919,16 @@
         <v>117</v>
       </c>
       <c r="X341">
-        <v>59821</v>
+        <v>6.5</v>
       </c>
       <c r="Y341">
-        <v>6.5</v>
+        <v>64.099999999999994</v>
       </c>
       <c r="Z341">
-        <v>64.099999999999994</v>
-      </c>
-      <c r="AA341">
         <v>250</v>
       </c>
     </row>
-    <row r="342" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>9.31</v>
       </c>
@@ -31026,19 +29999,16 @@
         <v>79</v>
       </c>
       <c r="X342">
-        <v>161357</v>
+        <v>5.6</v>
       </c>
       <c r="Y342">
-        <v>5.6</v>
+        <v>34.79</v>
       </c>
       <c r="Z342">
-        <v>34.79</v>
-      </c>
-      <c r="AA342">
         <v>785</v>
       </c>
     </row>
-    <row r="343" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>10.86</v>
       </c>
@@ -31109,19 +30079,16 @@
         <v>252</v>
       </c>
       <c r="X343">
-        <v>55265</v>
+        <v>5.4</v>
       </c>
       <c r="Y343">
-        <v>5.4</v>
+        <v>33.24</v>
       </c>
       <c r="Z343">
-        <v>33.24</v>
-      </c>
-      <c r="AA343">
         <v>252</v>
       </c>
     </row>
-    <row r="344" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>8.84</v>
       </c>
@@ -31192,19 +30159,16 @@
         <v>386</v>
       </c>
       <c r="X344">
-        <v>135477</v>
+        <v>3.8</v>
       </c>
       <c r="Y344">
-        <v>3.8</v>
+        <v>46.68</v>
       </c>
       <c r="Z344">
-        <v>46.68</v>
-      </c>
-      <c r="AA344">
         <v>511</v>
       </c>
     </row>
-    <row r="345" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>9.4700000000000006</v>
       </c>
@@ -31275,19 +30239,16 @@
         <v>161</v>
       </c>
       <c r="X345">
-        <v>62763</v>
+        <v>3.8</v>
       </c>
       <c r="Y345">
-        <v>3.8</v>
+        <v>27.93</v>
       </c>
       <c r="Z345">
-        <v>27.93</v>
-      </c>
-      <c r="AA345">
         <v>303</v>
       </c>
     </row>
-    <row r="346" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>12.25</v>
       </c>
@@ -31358,19 +30319,16 @@
         <v>3941</v>
       </c>
       <c r="X346">
-        <v>406590</v>
+        <v>11.5</v>
       </c>
       <c r="Y346">
-        <v>11.5</v>
+        <v>45.98</v>
       </c>
       <c r="Z346">
-        <v>45.98</v>
-      </c>
-      <c r="AA346">
         <v>1736</v>
       </c>
     </row>
-    <row r="347" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>11.17</v>
       </c>
@@ -31441,19 +30399,16 @@
         <v>46</v>
       </c>
       <c r="X347">
-        <v>60188</v>
+        <v>2.9</v>
       </c>
       <c r="Y347">
-        <v>2.9</v>
+        <v>40.020000000000003</v>
       </c>
       <c r="Z347">
-        <v>40.020000000000003</v>
-      </c>
-      <c r="AA347">
         <v>250</v>
       </c>
     </row>
-    <row r="348" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>9.66</v>
       </c>
@@ -31524,19 +30479,16 @@
         <v>79</v>
       </c>
       <c r="X348">
-        <v>58959</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="Y348">
-        <v>4.5999999999999996</v>
+        <v>54.39</v>
       </c>
       <c r="Z348">
-        <v>54.39</v>
-      </c>
-      <c r="AA348">
         <v>330</v>
       </c>
     </row>
-    <row r="349" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>10.119999999999999</v>
       </c>
@@ -31607,19 +30559,16 @@
         <v>266</v>
       </c>
       <c r="X349">
-        <v>91745</v>
+        <v>6.3</v>
       </c>
       <c r="Y349">
-        <v>6.3</v>
+        <v>37.08</v>
       </c>
       <c r="Z349">
-        <v>37.08</v>
-      </c>
-      <c r="AA349">
         <v>308</v>
       </c>
     </row>
-    <row r="350" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>11.91</v>
       </c>
@@ -31690,19 +30639,16 @@
         <v>379</v>
       </c>
       <c r="X350">
-        <v>59149</v>
+        <v>9</v>
       </c>
       <c r="Y350">
-        <v>9</v>
+        <v>47.4</v>
       </c>
       <c r="Z350">
-        <v>47.4</v>
-      </c>
-      <c r="AA350">
         <v>371</v>
       </c>
     </row>
-    <row r="351" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>10.74</v>
       </c>
@@ -31773,19 +30719,16 @@
         <v>324</v>
       </c>
       <c r="X351">
-        <v>61492</v>
+        <v>5.4</v>
       </c>
       <c r="Y351">
-        <v>5.4</v>
+        <v>22.39</v>
       </c>
       <c r="Z351">
-        <v>22.39</v>
-      </c>
-      <c r="AA351">
         <v>239</v>
       </c>
     </row>
-    <row r="352" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>8.64</v>
       </c>
@@ -31856,19 +30799,16 @@
         <v>339</v>
       </c>
       <c r="X352">
-        <v>83599</v>
+        <v>1.5</v>
       </c>
       <c r="Y352">
-        <v>1.5</v>
+        <v>53.15</v>
       </c>
       <c r="Z352">
-        <v>53.15</v>
-      </c>
-      <c r="AA352">
         <v>487</v>
       </c>
     </row>
-    <row r="353" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>10.57</v>
       </c>
@@ -31939,19 +30879,16 @@
         <v>80</v>
       </c>
       <c r="X353">
-        <v>70096</v>
+        <v>6.3</v>
       </c>
       <c r="Y353">
-        <v>6.3</v>
+        <v>49.83</v>
       </c>
       <c r="Z353">
-        <v>49.83</v>
-      </c>
-      <c r="AA353">
         <v>504</v>
       </c>
     </row>
-    <row r="354" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>11.7</v>
       </c>
@@ -32022,19 +30959,16 @@
         <v>134</v>
       </c>
       <c r="X354">
-        <v>57431</v>
+        <v>5.3</v>
       </c>
       <c r="Y354">
-        <v>5.3</v>
+        <v>100</v>
       </c>
       <c r="Z354">
-        <v>100</v>
-      </c>
-      <c r="AA354">
         <v>136</v>
       </c>
     </row>
-    <row r="355" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>10.87</v>
       </c>
@@ -32105,19 +31039,16 @@
         <v>201</v>
       </c>
       <c r="X355">
-        <v>78037</v>
+        <v>9</v>
       </c>
       <c r="Y355">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="Z355">
-        <v>100</v>
-      </c>
-      <c r="AA355">
         <v>348</v>
       </c>
     </row>
-    <row r="356" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>9.1199999999999992</v>
       </c>
@@ -32188,19 +31119,16 @@
         <v>267</v>
       </c>
       <c r="X356">
-        <v>69161</v>
+        <v>3.1</v>
       </c>
       <c r="Y356">
-        <v>3.1</v>
+        <v>100</v>
       </c>
       <c r="Z356">
-        <v>100</v>
-      </c>
-      <c r="AA356">
         <v>317</v>
       </c>
     </row>
-    <row r="357" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>7.73</v>
       </c>
@@ -32271,19 +31199,16 @@
         <v>556</v>
       </c>
       <c r="X357">
-        <v>99106</v>
+        <v>3.7</v>
       </c>
       <c r="Y357">
-        <v>3.7</v>
+        <v>100</v>
       </c>
       <c r="Z357">
-        <v>100</v>
-      </c>
-      <c r="AA357">
         <v>331</v>
       </c>
     </row>
-    <row r="358" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>7.32</v>
       </c>
@@ -32354,19 +31279,16 @@
         <v>383</v>
       </c>
       <c r="X358">
-        <v>72539</v>
+        <v>2.6</v>
       </c>
       <c r="Y358">
-        <v>2.6</v>
+        <v>68.28</v>
       </c>
       <c r="Z358">
-        <v>68.28</v>
-      </c>
-      <c r="AA358">
         <v>243</v>
       </c>
     </row>
-    <row r="359" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>9.1</v>
       </c>
@@ -32437,19 +31359,16 @@
         <v>541</v>
       </c>
       <c r="X359">
-        <v>62854</v>
+        <v>6.1</v>
       </c>
       <c r="Y359">
-        <v>6.1</v>
+        <v>47.35</v>
       </c>
       <c r="Z359">
-        <v>47.35</v>
-      </c>
-      <c r="AA359">
         <v>188</v>
       </c>
     </row>
-    <row r="360" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>10.87</v>
       </c>
@@ -32520,19 +31439,16 @@
         <v>4475</v>
       </c>
       <c r="X360">
-        <v>532048</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="Y360">
-        <v>9.1999999999999993</v>
+        <v>62.99</v>
       </c>
       <c r="Z360">
-        <v>62.99</v>
-      </c>
-      <c r="AA360">
         <v>1367</v>
       </c>
     </row>
-    <row r="361" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>8.1</v>
       </c>
@@ -32603,19 +31519,16 @@
         <v>163</v>
       </c>
       <c r="X361">
-        <v>47304</v>
+        <v>1.9</v>
       </c>
       <c r="Y361">
-        <v>1.9</v>
+        <v>53.74</v>
       </c>
       <c r="Z361">
-        <v>53.74</v>
-      </c>
-      <c r="AA361">
         <v>232</v>
       </c>
     </row>
-    <row r="362" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>7.74</v>
       </c>
@@ -32686,19 +31599,16 @@
         <v>96</v>
       </c>
       <c r="X362">
-        <v>47970</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="Y362">
-        <v>2.2000000000000002</v>
+        <v>50.15</v>
       </c>
       <c r="Z362">
-        <v>50.15</v>
-      </c>
-      <c r="AA362">
         <v>123</v>
       </c>
     </row>
-    <row r="363" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>7.53</v>
       </c>
@@ -32769,19 +31679,16 @@
         <v>157</v>
       </c>
       <c r="X363">
-        <v>56482</v>
+        <v>1.8</v>
       </c>
       <c r="Y363">
-        <v>1.8</v>
+        <v>45.73</v>
       </c>
       <c r="Z363">
-        <v>45.73</v>
-      </c>
-      <c r="AA363">
         <v>229</v>
       </c>
     </row>
-    <row r="364" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>8.68</v>
       </c>
@@ -32852,19 +31759,16 @@
         <v>369</v>
       </c>
       <c r="X364">
-        <v>82310</v>
+        <v>3.4</v>
       </c>
       <c r="Y364">
-        <v>3.4</v>
+        <v>51.49</v>
       </c>
       <c r="Z364">
-        <v>51.49</v>
-      </c>
-      <c r="AA364">
         <v>424</v>
       </c>
     </row>
-    <row r="365" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>7.71</v>
       </c>
@@ -32935,19 +31839,16 @@
         <v>24</v>
       </c>
       <c r="X365">
-        <v>59844</v>
+        <v>1.7</v>
       </c>
       <c r="Y365">
-        <v>1.7</v>
+        <v>61.33</v>
       </c>
       <c r="Z365">
-        <v>61.33</v>
-      </c>
-      <c r="AA365">
         <v>199</v>
       </c>
     </row>
-    <row r="366" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>6.81</v>
       </c>
@@ -33018,19 +31919,16 @@
         <v>140</v>
       </c>
       <c r="X366">
-        <v>81289</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="Y366">
-        <v>2.2999999999999998</v>
+        <v>24.5</v>
       </c>
       <c r="Z366">
-        <v>24.5</v>
-      </c>
-      <c r="AA366">
         <v>452</v>
       </c>
     </row>
-    <row r="367" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>7.21</v>
       </c>
@@ -33101,19 +31999,16 @@
         <v>76</v>
       </c>
       <c r="X367">
-        <v>46692</v>
+        <v>19</v>
       </c>
       <c r="Y367">
-        <v>19</v>
+        <v>58.57</v>
       </c>
       <c r="Z367">
-        <v>58.57</v>
-      </c>
-      <c r="AA367">
         <v>179</v>
       </c>
     </row>
-    <row r="368" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>7.61</v>
       </c>
@@ -33184,19 +32079,16 @@
         <v>176</v>
       </c>
       <c r="X368">
-        <v>79300</v>
+        <v>11.4</v>
       </c>
       <c r="Y368">
-        <v>11.4</v>
+        <v>40.97</v>
       </c>
       <c r="Z368">
-        <v>40.97</v>
-      </c>
-      <c r="AA368">
         <v>433</v>
       </c>
     </row>
-    <row r="369" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>7.85</v>
       </c>
@@ -33267,19 +32159,16 @@
         <v>249</v>
       </c>
       <c r="X369">
-        <v>66505</v>
+        <v>8.4</v>
       </c>
       <c r="Y369">
-        <v>8.4</v>
+        <v>41.76</v>
       </c>
       <c r="Z369">
-        <v>41.76</v>
-      </c>
-      <c r="AA369">
         <v>404</v>
       </c>
     </row>
-    <row r="370" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>8.35</v>
       </c>
@@ -33350,19 +32239,16 @@
         <v>171</v>
       </c>
       <c r="X370">
-        <v>65373</v>
+        <v>2</v>
       </c>
       <c r="Y370">
-        <v>2</v>
+        <v>46.49</v>
       </c>
       <c r="Z370">
-        <v>46.49</v>
-      </c>
-      <c r="AA370">
         <v>158</v>
       </c>
     </row>
-    <row r="371" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>8.36</v>
       </c>
@@ -33433,19 +32319,16 @@
         <v>675</v>
       </c>
       <c r="X371">
-        <v>81584</v>
+        <v>7.2</v>
       </c>
       <c r="Y371">
-        <v>7.2</v>
+        <v>63.47</v>
       </c>
       <c r="Z371">
-        <v>63.47</v>
-      </c>
-      <c r="AA371">
         <v>331</v>
       </c>
     </row>
-    <row r="372" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>7.36</v>
       </c>
@@ -33516,19 +32399,16 @@
         <v>64</v>
       </c>
       <c r="X372">
-        <v>39202</v>
+        <v>1.8</v>
       </c>
       <c r="Y372">
-        <v>1.8</v>
+        <v>65.709999999999994</v>
       </c>
       <c r="Z372">
-        <v>65.709999999999994</v>
-      </c>
-      <c r="AA372">
         <v>150</v>
       </c>
     </row>
-    <row r="373" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>8.1199999999999992</v>
       </c>
@@ -33599,19 +32479,16 @@
         <v>180</v>
       </c>
       <c r="X373">
-        <v>55777</v>
+        <v>6.7</v>
       </c>
       <c r="Y373">
-        <v>6.7</v>
+        <v>50.28</v>
       </c>
       <c r="Z373">
-        <v>50.28</v>
-      </c>
-      <c r="AA373">
         <v>287</v>
       </c>
     </row>
-    <row r="374" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>8.9600000000000009</v>
       </c>
@@ -33682,19 +32559,16 @@
         <v>442</v>
       </c>
       <c r="X374">
-        <v>120132</v>
+        <v>2</v>
       </c>
       <c r="Y374">
-        <v>2</v>
+        <v>61.15</v>
       </c>
       <c r="Z374">
-        <v>61.15</v>
-      </c>
-      <c r="AA374">
         <v>567</v>
       </c>
     </row>
-    <row r="375" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>7.58</v>
       </c>
@@ -33765,19 +32639,16 @@
         <v>259</v>
       </c>
       <c r="X375">
-        <v>77258</v>
+        <v>6.4</v>
       </c>
       <c r="Y375">
-        <v>6.4</v>
+        <v>52.79</v>
       </c>
       <c r="Z375">
-        <v>52.79</v>
-      </c>
-      <c r="AA375">
         <v>344</v>
       </c>
     </row>
-    <row r="376" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>6.96</v>
       </c>
@@ -33848,19 +32719,16 @@
         <v>0</v>
       </c>
       <c r="X376">
-        <v>46394</v>
+        <v>1</v>
       </c>
       <c r="Y376">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="Z376">
-        <v>100</v>
-      </c>
-      <c r="AA376">
         <v>165</v>
       </c>
     </row>
-    <row r="377" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>7.94</v>
       </c>
@@ -33931,19 +32799,16 @@
         <v>0</v>
       </c>
       <c r="X377">
-        <v>52707</v>
+        <v>3.5</v>
       </c>
       <c r="Y377">
-        <v>3.5</v>
+        <v>100</v>
       </c>
       <c r="Z377">
-        <v>100</v>
-      </c>
-      <c r="AA377">
         <v>272</v>
       </c>
     </row>
-    <row r="378" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>7.18</v>
       </c>
@@ -34014,19 +32879,16 @@
         <v>0</v>
       </c>
       <c r="X378">
-        <v>36486</v>
+        <v>1.7</v>
       </c>
       <c r="Y378">
-        <v>1.7</v>
+        <v>100</v>
       </c>
       <c r="Z378">
-        <v>100</v>
-      </c>
-      <c r="AA378">
         <v>173</v>
       </c>
     </row>
-    <row r="379" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>8.5</v>
       </c>
@@ -34097,19 +32959,16 @@
         <v>0</v>
       </c>
       <c r="X379">
-        <v>106235</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="Y379">
-        <v>4.9000000000000004</v>
+        <v>100</v>
       </c>
       <c r="Z379">
-        <v>100</v>
-      </c>
-      <c r="AA379">
         <v>315</v>
       </c>
     </row>
-    <row r="380" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>8.74</v>
       </c>
@@ -34180,19 +33039,16 @@
         <v>0</v>
       </c>
       <c r="X380">
-        <v>398255</v>
+        <v>6.6</v>
       </c>
       <c r="Y380">
-        <v>6.6</v>
+        <v>100</v>
       </c>
       <c r="Z380">
-        <v>100</v>
-      </c>
-      <c r="AA380">
         <v>1238</v>
       </c>
     </row>
-    <row r="381" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>7.29</v>
       </c>
@@ -34263,27 +33119,17 @@
         <v>0</v>
       </c>
       <c r="X381">
-        <v>40948</v>
+        <v>9.6</v>
       </c>
       <c r="Y381">
-        <v>9.6</v>
+        <v>100</v>
       </c>
       <c r="Z381">
-        <v>100</v>
-      </c>
-      <c r="AA381">
         <v>162</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AA381">
-    <filterColumn colId="13">
-      <filters>
-        <filter val="0"/>
-        <filter val="1318"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:Z381"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
